--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -8,19 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BAD9D1-BE9D-479A-9E0D-D477CFDB3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584564F2-DFDD-4FC5-B00F-0B9BA23BE06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+  <si>
+    <t>Instructions:  Copy the label for each data type as found in eProjectBuilder from the Volume 1 and 2 Word submittals into the yellow alias fields below.  The tables must be native Word or Excel tables, not pasted images.  Copy the .docx submittals into the project directory and rename them as Vol1.docx and Vol2.docx.  Copy the eProjectBuilder workbook into the project directory and rename it to epb.xlsx, and make sure this file is named Comparator.xlsx.  Make sure the directory contains docExtract.py and comparator.py.  Run comparator.py with Python 3, or a Python IDE such as PyCharm: https://www.jetbrains.com/pycharm/download</t>
+  </si>
+  <si>
+    <t>Note: Discrepancies will be highlighted RED</t>
+  </si>
+  <si>
+    <t>Only green alias is currently implemented</t>
+  </si>
   <si>
     <t>ePB Schedule 4 Savings Comparator</t>
   </si>
@@ -266,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +308,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +401,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -397,6 +429,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,11 +452,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -748,7 +790,7 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -770,65 +812,85 @@
     <col min="16" max="16" width="3.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:16" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="18"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -841,7 +903,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -849,48 +911,48 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9">
         <v>1942029.96199376</v>
@@ -899,18 +961,18 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7">
         <v>57171.01823675519</v>
       </c>
       <c r="H7" s="7">
-        <v>57171</v>
+        <v>57175</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="L7" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M7" s="13">
         <v>1942030.2642937601</v>
@@ -921,7 +983,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -933,7 +995,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="L8" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="2"/>
@@ -942,7 +1004,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="9">
         <v>38972</v>
@@ -968,7 +1030,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9">
         <v>31552</v>
@@ -994,7 +1056,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="9">
         <v>11633</v>
@@ -1020,7 +1082,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="9">
         <v>1128.5</v>
@@ -1046,7 +1108,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9">
         <v>32168</v>
@@ -1061,7 +1123,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M13" s="13">
         <v>793536</v>
@@ -1072,7 +1134,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9">
         <v>7593</v>
@@ -1086,6 +1148,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="3">
         <v>6.01</v>
       </c>
@@ -1098,7 +1161,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9">
         <v>27239</v>
@@ -1124,7 +1187,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9">
         <v>26392</v>
@@ -1150,7 +1213,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B17" s="9">
         <v>24466</v>
@@ -1176,7 +1239,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9">
         <v>8529.2642937599994</v>
@@ -1197,7 +1260,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9">
         <v>10727.64</v>
@@ -1218,7 +1281,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="9">
         <v>21949</v>
@@ -1239,7 +1302,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9">
         <v>7695</v>
@@ -1260,7 +1323,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" s="9">
         <v>23282</v>
@@ -1281,7 +1344,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23" s="9">
         <v>123694</v>
@@ -1302,7 +1365,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" s="9">
         <v>109685</v>
@@ -1323,7 +1386,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" s="9">
         <v>163856</v>
@@ -1344,7 +1407,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9">
         <v>52438</v>
@@ -1365,7 +1428,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9">
         <v>60219</v>
@@ -1386,7 +1449,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9">
         <v>30350</v>
@@ -1407,7 +1470,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9">
         <v>6126</v>
@@ -1428,7 +1491,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30" s="9">
         <v>12614</v>
@@ -1449,7 +1512,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B31" s="9">
         <v>16277</v>
@@ -1470,7 +1533,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32" s="9">
         <v>6422</v>
@@ -1491,7 +1554,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B33" s="9">
         <v>96536</v>
@@ -1512,7 +1575,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9">
         <v>39132</v>
@@ -1533,7 +1596,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B35" s="9">
         <v>1817.28</v>
@@ -1554,7 +1617,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B36" s="9">
         <v>50683</v>
@@ -1575,7 +1638,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" s="9">
         <v>21848</v>
@@ -1596,7 +1659,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" s="9">
         <v>1817.28</v>
@@ -1617,7 +1680,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B39" s="9">
         <v>99519</v>
@@ -1638,7 +1701,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B40" s="9">
         <v>16989</v>
@@ -1659,7 +1722,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B41" s="9">
         <v>36997</v>
@@ -1680,7 +1743,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9">
         <v>45035</v>
@@ -1701,7 +1764,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B43" s="9">
         <v>70327</v>
@@ -1722,7 +1785,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B44" s="9">
         <v>62439</v>
@@ -1743,7 +1806,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B45" s="9">
         <v>26886</v>
@@ -1764,7 +1827,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B46" s="9">
         <v>30254</v>
@@ -1785,7 +1848,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47" s="9">
         <v>73579</v>
@@ -1806,7 +1869,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B48" s="9">
         <v>32640</v>
@@ -1827,7 +1890,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B49" s="9">
         <v>14816</v>
@@ -1848,7 +1911,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B50" s="9">
         <v>89230.997700000007</v>
@@ -1869,7 +1932,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" s="9">
         <v>58047</v>
@@ -1890,7 +1953,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B52" s="9">
         <v>122667</v>
@@ -1911,7 +1974,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B53" s="9">
         <v>48008</v>
@@ -1932,7 +1995,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B54" s="9">
         <v>47755</v>
@@ -4808,7 +4871,9 @@
       <c r="P258" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B2:C2"/>
@@ -4820,11 +4885,10 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:H258">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(NOT(ISBLANK($H7)), ROUND($H7, 0)&lt;&gt;ROUND($G7, 0))</formula>
+      <formula>AND(NOT(ISBLANK($H7)), ROUND($H7, 0) &lt;&gt; ROUND($G7, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584564F2-DFDD-4FC5-B00F-0B9BA23BE06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32D69EC-620D-4046-863D-229D82CF4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12368" yWindow="0" windowWidth="14332" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Instructions:  Copy the label for each data type as found in eProjectBuilder from the Volume 1 and 2 Word submittals into the yellow alias fields below.  The tables must be native Word or Excel tables, not pasted images.  Copy the .docx submittals into the project directory and rename them as Vol1.docx and Vol2.docx.  Copy the eProjectBuilder workbook into the project directory and rename it to epb.xlsx, and make sure this file is named Comparator.xlsx.  Make sure the directory contains docExtract.py and comparator.py.  Run comparator.py with Python 3, or a Python IDE such as PyCharm: https://www.jetbrains.com/pycharm/download</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Note: Discrepancies will be highlighted RED</t>
   </si>
   <si>
-    <t>Only green alias is currently implemented</t>
-  </si>
-  <si>
     <t>ePB Schedule 4 Savings Comparator</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
     <t>Annual Estimated Energy Savings (MMBtu)</t>
   </si>
   <si>
+    <t xml:space="preserve"> Total Utility ($/yr) Cost Savings Year 1 </t>
+  </si>
+  <si>
+    <t>Total Energy (mmBTU) Savings Year 1</t>
+  </si>
+  <si>
     <t>Table Alias for Vol. 2 (docx format)</t>
   </si>
   <si>
@@ -99,7 +102,7 @@
     <t>ECM Cost</t>
   </si>
   <si>
-    <t>RL TIMERLAKE  TC. 2.11</t>
+    <t>RL TIMBERLAKE TC. 2.11</t>
   </si>
   <si>
     <t>RL TIMBERLAKE TC. 5.01</t>
@@ -108,7 +111,7 @@
     <t>RL TIMBERLAKE TC. 12.01</t>
   </si>
   <si>
-    <t>RL TIMBERLAKE  TC.13.01</t>
+    <t>RL TIMBERLAKE TC.13.01</t>
   </si>
   <si>
     <t>ROGERS FED. TC.2.01</t>
@@ -135,13 +138,13 @@
     <t>ROGERS FED. TC.13.01</t>
   </si>
   <si>
-    <t>ROGERS AUTH TC.5.01</t>
-  </si>
-  <si>
-    <t>ROGERS AUTH TC.12.01</t>
-  </si>
-  <si>
-    <t>ROGERS AUTH TC.13.01</t>
+    <t>ROGERS AUT TC.5.01</t>
+  </si>
+  <si>
+    <t>ROGERS AUT TC.12.01</t>
+  </si>
+  <si>
+    <t>ROGERS AUT TC.13.01</t>
   </si>
   <si>
     <t>WD FERG. TC.2.01</t>
@@ -174,13 +177,13 @@
     <t>GAINESVILLE TC.13.01</t>
   </si>
   <si>
-    <t xml:space="preserve">              YOUNG A  TC.5.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               YOUNG A TC.12.01</t>
-  </si>
-  <si>
-    <t>YOUNG A  TC.13.01</t>
+    <t>YOUNG A TC.5.01</t>
+  </si>
+  <si>
+    <t>YOUNG A TC.12.01</t>
+  </si>
+  <si>
+    <t>YOUNG A TC.13.01</t>
   </si>
   <si>
     <t>YOUNG FED TC. 5.01</t>
@@ -228,7 +231,7 @@
     <t>SIMPSON TC.2.01</t>
   </si>
   <si>
-    <t>SIMPSON  C.3,01</t>
+    <t>SIMPSON  TC.3.01</t>
   </si>
   <si>
     <t xml:space="preserve"> SIMPSON TC.5.01</t>
@@ -286,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,12 +317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +430,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,7 +449,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,7 +787,7 @@
   <dimension ref="A1:P258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -829,53 +826,55 @@
       <c r="L1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>2</v>
-      </c>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
+      <c r="I3" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="25"/>
       <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -890,7 +889,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -903,7 +902,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -911,48 +910,48 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9">
         <v>1942029.96199376</v>
@@ -961,18 +960,18 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7">
         <v>57171.01823675519</v>
       </c>
       <c r="H7" s="7">
-        <v>57175</v>
+        <v>57171</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="L7" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" s="13">
         <v>1942030.2642937601</v>
@@ -983,7 +982,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -995,7 +994,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="L8" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="2"/>
@@ -1004,18 +1003,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9">
         <v>38972</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9">
+        <v>38972</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="7">
         <v>1332.386</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>1332</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="L9" s="3">
@@ -1030,18 +1033,22 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9">
         <v>31552</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9">
+        <v>31552</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="7">
         <v>1015.47944</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11">
+        <v>1015</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" s="3">
@@ -1056,18 +1063,22 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="9">
         <v>11633</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9">
+        <v>11633</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="7">
         <v>397.71978000000001</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>398</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="L11" s="3">
@@ -1082,12 +1093,14 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9">
         <v>1128.5</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>1129</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="G12" s="7">
@@ -1108,22 +1121,26 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="9">
         <v>32168</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>32168</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="G13" s="7">
         <v>1178.9142400000001</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>1179</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="L13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="13">
         <v>793536</v>
@@ -1134,18 +1151,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9">
         <v>7593</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9">
+        <v>7593</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="G14" s="7">
         <v>278.28271999999998</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11">
+        <v>278</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="15"/>
@@ -1161,18 +1182,22 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9">
         <v>27239</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9">
+        <v>27239</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="G15" s="7">
         <v>998.26248799999996</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="11">
+        <v>998</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="L15" s="3">
@@ -1187,18 +1212,22 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9">
         <v>26392</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9">
+        <v>26392</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="G16" s="7">
         <v>904.76686400000006</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>905</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="L16" s="3">
@@ -1213,18 +1242,22 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="9">
         <v>24466</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9">
+        <v>24466</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="G17" s="7">
         <v>896.67359999999996</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11">
+        <v>897</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="3">
@@ -1239,18 +1272,22 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9">
         <v>8529.2642937599994</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9">
+        <v>8529.26</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="G18" s="7">
         <v>312.58700075520011</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>313</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="M18" s="13"/>
@@ -1260,12 +1297,14 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="9">
         <v>10727.64</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9">
+        <v>23282</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="G19" s="7">
@@ -1281,18 +1320,22 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9">
         <v>21949</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9">
+        <v>21949</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="G20" s="7">
         <v>775.44524000000001</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="11">
+        <v>775</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="M20" s="13"/>
@@ -1302,18 +1345,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="9">
         <v>7695</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="9">
+        <v>7695</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="7">
         <v>270.39758799999998</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="11">
+        <v>270</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="M21" s="13"/>
@@ -1323,12 +1370,14 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="9">
         <v>23282</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9">
+        <v>10728</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="G22" s="7">
@@ -1344,18 +1393,22 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="9">
         <v>123694</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="9">
+        <v>123694</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="G23" s="7">
         <v>4710.3376520000002</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="11">
+        <v>4710</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="M23" s="13"/>
@@ -1365,18 +1418,22 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="9">
         <v>109685</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="9">
+        <v>109685</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="G24" s="7">
         <v>4176.7861519999997</v>
       </c>
-      <c r="H24" s="11"/>
+      <c r="H24" s="11">
+        <v>4177</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="M24" s="13"/>
@@ -1386,18 +1443,22 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9">
         <v>163856</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="9">
+        <v>163856</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="G25" s="7">
         <v>5733.9376519999996</v>
       </c>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11">
+        <v>5734</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="M25" s="13"/>
@@ -1407,18 +1468,22 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="9">
         <v>52438</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="9">
+        <v>52438</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="G26" s="7">
         <v>1921.785116</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>1922</v>
+      </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="M26" s="13"/>
@@ -1428,12 +1493,14 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="9">
         <v>60219</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9">
+        <v>60219</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="G27" s="7">
@@ -1449,18 +1516,22 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="9">
         <v>30350</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="9">
+        <v>30350</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="G28" s="7">
         <v>591.94788000000005</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="11">
+        <v>592</v>
+      </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="M28" s="13"/>
@@ -1470,18 +1541,22 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9">
         <v>6126</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="9">
+        <v>6126</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="G29" s="7">
         <v>204.54939999999999</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="11">
+        <v>205</v>
+      </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="M29" s="13"/>
@@ -1491,18 +1566,22 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>12614</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="9">
+        <v>12614</v>
+      </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="G30" s="7">
         <v>421.12268799999998</v>
       </c>
-      <c r="H30" s="11"/>
+      <c r="H30" s="11">
+        <v>421</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="M30" s="13"/>
@@ -1512,18 +1591,22 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="9">
         <v>16277</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9">
+        <v>16277</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="G31" s="7">
         <v>331.574748</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="11">
+        <v>332</v>
+      </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="M31" s="13"/>
@@ -1533,12 +1616,14 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="9">
         <v>6422</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9">
+        <v>6422</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="G32" s="7">
@@ -1554,18 +1639,22 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="9">
         <v>96536</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="9">
+        <v>96536</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="G33" s="7">
         <v>3025.5909999999999</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11">
+        <v>3026</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="M33" s="13"/>
@@ -1575,18 +1664,22 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" s="9">
         <v>39132</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9">
+        <v>39132</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="G34" s="7">
         <v>1306.458212</v>
       </c>
-      <c r="H34" s="11"/>
+      <c r="H34" s="11">
+        <v>1306</v>
+      </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="M34" s="13"/>
@@ -1596,12 +1689,14 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9">
         <v>1817.28</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9">
+        <v>1817</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="G35" s="7">
@@ -1617,18 +1712,22 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9">
         <v>50683</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9">
+        <v>50683</v>
+      </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="G36" s="7">
         <v>1724.73188</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="11">
+        <v>1725</v>
+      </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="M36" s="13"/>
@@ -1638,18 +1737,22 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="9">
         <v>21848</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="9">
+        <v>21848</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="G37" s="7">
         <v>767.7</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="11">
+        <v>768</v>
+      </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="M37" s="13"/>
@@ -1659,12 +1762,14 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="9">
         <v>1817.28</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="9">
+        <v>1817</v>
+      </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="G38" s="7">
@@ -1680,18 +1785,22 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="9">
         <v>99519</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9">
+        <v>99519</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="7">
         <v>3409.7822000000001</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="11">
+        <v>3410</v>
+      </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="M39" s="13"/>
@@ -1701,18 +1810,22 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="9">
         <v>16989</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="9">
+        <v>16989</v>
+      </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="7">
         <v>616.02636399999994</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="11">
+        <v>616</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="M40" s="13"/>
@@ -1722,18 +1835,22 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="9">
         <v>36997</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="9">
+        <v>36997</v>
+      </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="7">
         <v>1341.4789800000001</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11">
+        <v>1341</v>
+      </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="M41" s="13"/>
@@ -1743,12 +1860,14 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="9">
         <v>45035</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="9">
+        <v>45035</v>
+      </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="7">
@@ -1764,18 +1883,22 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="9">
         <v>70327</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="9">
+        <v>70327</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="7">
         <v>2525.9036000000001</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="11">
+        <v>2526</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="M43" s="13"/>
@@ -1785,18 +1908,22 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="9">
         <v>62439</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="9">
+        <v>62439</v>
+      </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="7">
         <v>2298.16966</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="11">
+        <v>2298</v>
+      </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="M44" s="13"/>
@@ -1806,18 +1933,22 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="9">
         <v>26886</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="9">
+        <v>26886</v>
+      </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="7">
         <v>989.60283200000003</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="11">
+        <v>990</v>
+      </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="M45" s="13"/>
@@ -1827,12 +1958,14 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="9">
         <v>30254</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="9">
+        <v>30254</v>
+      </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="G46" s="7">
@@ -1848,18 +1981,22 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" s="9">
         <v>73579</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="9">
+        <v>73579</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="7">
         <v>2305.3519200000001</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="11">
+        <v>2305</v>
+      </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="M47" s="13"/>
@@ -1869,18 +2006,22 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="9">
         <v>32640</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="9">
+        <v>32640</v>
+      </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="G48" s="7">
         <v>1014.28524</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="11">
+        <v>1014</v>
+      </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="M48" s="13"/>
@@ -1890,12 +2031,14 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="9">
         <v>14816</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="9">
+        <v>14816</v>
+      </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="G49" s="7">
@@ -1911,18 +2054,22 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="9">
         <v>89230.997700000007</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="9">
+        <v>89231</v>
+      </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" s="7">
         <v>2365.1984000000002</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="11">
+        <v>2365</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="M50" s="13"/>
@@ -1932,18 +2079,22 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" s="9">
         <v>58047</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="9">
+        <v>58047</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" s="7">
         <v>1830.4527</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="11">
+        <v>1830</v>
+      </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="M51" s="13"/>
@@ -1953,18 +2104,22 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" s="9">
         <v>122667</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="9">
+        <v>122667</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="G52" s="7">
         <v>3683.4245999999998</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="11">
+        <v>3683</v>
+      </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="M52" s="13"/>
@@ -1974,18 +2129,22 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" s="9">
         <v>48008</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9">
+        <v>48008</v>
+      </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="G53" s="7">
         <v>1513.9043999999999</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="11">
+        <v>1514</v>
+      </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="M53" s="13"/>
@@ -1995,12 +2154,14 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" s="9">
         <v>47755</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="9">
+        <v>47755</v>
+      </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="G54" s="7">
@@ -2015,11 +2176,15 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B55" s="9"/>
+      <c r="B55" s="9">
+        <v>1942029.96199376</v>
+      </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>57171.01823675519</v>
+      </c>
       <c r="H55" s="11"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -4873,22 +5038,22 @@
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H258">
+  <conditionalFormatting sqref="H7:H258 C9:C258">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(NOT(ISBLANK($H7)), ROUND($H7, 0) &lt;&gt; ROUND($G7, 0))</formula>
+      <formula>AND(NOT(ISBLANK(C7)), ROUND(C7, 0) &lt;&gt; ROUND(B7, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32D69EC-620D-4046-863D-229D82CF4C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ACB1B-2E8F-40D0-8960-379564F76069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12368" yWindow="0" windowWidth="14332" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="165" windowWidth="27450" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
-  <si>
-    <t>Instructions:  Copy the label for each data type as found in eProjectBuilder from the Volume 1 and 2 Word submittals into the yellow alias fields below.  The tables must be native Word or Excel tables, not pasted images.  Copy the .docx submittals into the project directory and rename them as Vol1.docx and Vol2.docx.  Copy the eProjectBuilder workbook into the project directory and rename it to epb.xlsx, and make sure this file is named Comparator.xlsx.  Make sure the directory contains docExtract.py and comparator.py.  Run comparator.py with Python 3, or a Python IDE such as PyCharm: https://www.jetbrains.com/pycharm/download</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>NDER 6 Region 4</t>
+  </si>
+  <si>
+    <t>ESPC Phase</t>
+  </si>
+  <si>
+    <t>ESCO Name</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>Volume 1 Submittal Date</t>
+  </si>
+  <si>
+    <t>Volume 2 Submittal Date</t>
+  </si>
+  <si>
+    <t>eProject Builder Submittal Date</t>
+  </si>
+  <si>
+    <t>Total Discrepancies Found</t>
   </si>
   <si>
     <t>Note: Discrepancies will be highlighted RED</t>
   </si>
   <si>
-    <t>ePB Schedule 4 Savings Comparator</t>
-  </si>
-  <si>
     <t>Estimated annual cost savings ($/yr) from AE258</t>
   </si>
   <si>
@@ -54,19 +75,19 @@
     <t>ECM energy savings from column Y</t>
   </si>
   <si>
-    <t>Table Alias for Vol. 1 (docx format)</t>
+    <t>Volume 1 Table Aliases</t>
   </si>
   <si>
     <t>Annual Estimated Energy Savings (MMBtu)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Total Utility ($/yr) Cost Savings Year 1 </t>
+    <t xml:space="preserve">Total Utility ($/yr) Cost Savings Year 1 </t>
   </si>
   <si>
     <t>Total Energy (mmBTU) Savings Year 1</t>
   </si>
   <si>
-    <t>Table Alias for Vol. 2 (docx format)</t>
+    <t>Volume 2 Table Aliases</t>
   </si>
   <si>
     <t>ECMs by Building</t>
@@ -93,10 +114,16 @@
     <t>ECM Savings Template</t>
   </si>
   <si>
+    <t>ROGERS FED. TC.3.01</t>
+  </si>
+  <si>
+    <t>Total Energy</t>
+  </si>
+  <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Total Energy</t>
+    <t>ROGERS FED. TC.5.01</t>
   </si>
   <si>
     <t>ECM Cost</t>
@@ -123,12 +150,6 @@
     <t>ROGERS FED. TC.2.04</t>
   </si>
   <si>
-    <t>ROGERS FED. TC.3.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.5.01</t>
-  </si>
-  <si>
     <t>ROGERS FED. TC.8.01</t>
   </si>
   <si>
@@ -241,6 +262,12 @@
   </si>
   <si>
     <t>SIMPSON TC.13.01</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Error per volume/data point</t>
   </si>
 </sst>
 </file>
@@ -359,15 +386,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -390,6 +408,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,14 +429,14 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,37 +458,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -784,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P258"/>
+  <dimension ref="A2:P266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -809,462 +844,295 @@
     <col min="16" max="16" width="3.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="17"/>
-    </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="32">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="32">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="32">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17">
+        <f>SUM(C9,D9,G9,H9,N9,O9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="array" ref="C9">SUM(IF(ROUND(B15:B266,0)&lt;&gt;ROUND(C15:C266,0), 1, 0)) + COUNTBLANK(B15:B266) + COUNTIF(B15:B266, 0) - COUNTBLANK(C15:C266) - COUNTIF(C15:C266, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="array" ref="D9">SUM(IF(ROUND(B15:B266,0)&lt;&gt;ROUND(D15:D266,0), 1, 0)) + COUNTBLANK(B15:B266) + COUNTIF(B15:B266, 0) - COUNTBLANK(D15:D266) - COUNTIF(D15:D266, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="array" ref="H9">SUM(IF(ROUND(G15:G266,0)&lt;&gt;ROUND(H15:H266,0), 1, 0)) + COUNTBLANK(G15:G266) + COUNTIF(G15:G266, 0) - COUNTBLANK(H15:H266) - COUNTIF(H15:H266, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="array" ref="I9">SUM(IF(ROUND(G15:G266,0)&lt;&gt;ROUND(I15:I266,0), 1, 0)) + COUNTBLANK(G15:G266) + COUNTIF(G15:G266, 0) - COUNTBLANK(I15:I266) - COUNTIF(I15:I266, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="19">
+        <f t="array" ref="N9">SUM(IF(ROUND(M15:M266,0)&lt;&gt;ROUND(N15:N266,0), 1, 0)) + COUNTBLANK(M15:M266) + COUNTIF(M15:M266, 0) - COUNTBLANK(N15:N266) - COUNTIF(N15:N266, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <f t="array" ref="O9">SUM(IF(ROUND(M15:M266,0)&lt;&gt;ROUND(O15:O266,0), 1, 0)) + COUNTBLANK(M15:M266) + COUNTIF(M15:M266, 0) - COUNTBLANK(O15:O266) - COUNTIF(O15:O266, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9">
         <v>1942029.96199376</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7">
-        <v>57171.01823675519</v>
-      </c>
-      <c r="H7" s="7">
-        <v>57171</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="L7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1942030.2642937601</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="L8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9">
-        <v>38972</v>
-      </c>
-      <c r="C9" s="9">
-        <v>38972</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="7">
-        <v>1332.386</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1332</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="M9" s="13">
-        <v>245093</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9">
-        <v>31552</v>
-      </c>
-      <c r="C10" s="9">
-        <v>31552</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="G10" s="7">
-        <v>1015.47944</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1015</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="L10" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="M10" s="13">
-        <v>7593</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
-        <v>11633</v>
-      </c>
-      <c r="C11" s="9">
-        <v>11633</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="G11" s="7">
-        <v>397.71978000000001</v>
-      </c>
-      <c r="H11" s="11">
-        <v>398</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="L11" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="M11" s="13">
-        <v>38972</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1128.5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1129</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="L12" s="3">
-        <v>3.01</v>
-      </c>
-      <c r="M12" s="13">
-        <v>194971</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9">
-        <v>32168</v>
-      </c>
-      <c r="C13" s="9">
-        <v>32168</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="G13" s="7">
-        <v>1178.9142400000001</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1179</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="13">
-        <v>793536</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9">
-        <v>7593</v>
-      </c>
-      <c r="C14" s="9">
-        <v>7593</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="7">
-        <v>278.28271999999998</v>
-      </c>
-      <c r="H14" s="11">
-        <v>278</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="M14" s="13">
-        <v>12614</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="9">
-        <v>27239</v>
-      </c>
-      <c r="C15" s="9">
-        <v>27239</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="7">
-        <v>998.26248799999996</v>
-      </c>
-      <c r="H15" s="11">
-        <v>998</v>
+        <v>57171.01823675519</v>
+      </c>
+      <c r="H15" s="7">
+        <v>57171</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="L15" s="3">
-        <v>8.01</v>
+      <c r="L15" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="M15" s="13">
-        <v>103894</v>
+        <v>1942030.2642937601</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="L16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9">
-        <v>26392</v>
-      </c>
-      <c r="C16" s="9">
-        <v>26392</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="G16" s="7">
-        <v>904.76686400000006</v>
-      </c>
-      <c r="H16" s="11">
-        <v>905</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="L16" s="3">
-        <v>12.01</v>
-      </c>
-      <c r="M16" s="13">
-        <v>302083.26429376</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="9">
-        <v>24466</v>
+        <v>38972</v>
       </c>
       <c r="C17" s="9">
-        <v>24466</v>
+        <v>38972</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="G17" s="7">
-        <v>896.67359999999996</v>
+        <v>1332.386</v>
       </c>
       <c r="H17" s="11">
-        <v>897</v>
+        <v>1332</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="L17" s="3">
-        <v>13.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="M17" s="13">
-        <v>243274</v>
+        <v>245093</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1275,22 +1143,27 @@
         <v>33</v>
       </c>
       <c r="B18" s="9">
-        <v>8529.2642937599994</v>
+        <v>31552</v>
       </c>
       <c r="C18" s="9">
-        <v>8529.26</v>
+        <v>31552</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="G18" s="7">
-        <v>312.58700075520011</v>
+        <v>1015.47944</v>
       </c>
       <c r="H18" s="11">
-        <v>313</v>
+        <v>1015</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="M18" s="13"/>
+      <c r="L18" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="M18" s="13">
+        <v>7593</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1300,20 +1173,27 @@
         <v>34</v>
       </c>
       <c r="B19" s="9">
-        <v>10727.64</v>
+        <v>11633</v>
       </c>
       <c r="C19" s="9">
-        <v>23282</v>
+        <v>11633</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>397.71978000000001</v>
+      </c>
+      <c r="H19" s="11">
+        <v>398</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="M19" s="13"/>
+      <c r="L19" s="3">
+        <v>2.11</v>
+      </c>
+      <c r="M19" s="13">
+        <v>38972</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1323,22 +1203,25 @@
         <v>35</v>
       </c>
       <c r="B20" s="9">
-        <v>21949</v>
+        <v>1128.5</v>
       </c>
       <c r="C20" s="9">
-        <v>21949</v>
+        <v>1129</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="G20" s="7">
-        <v>775.44524000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <v>775</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="M20" s="13"/>
+      <c r="L20" s="3">
+        <v>3.01</v>
+      </c>
+      <c r="M20" s="13">
+        <v>194971</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1348,141 +1231,169 @@
         <v>36</v>
       </c>
       <c r="B21" s="9">
-        <v>7695</v>
+        <v>32168</v>
       </c>
       <c r="C21" s="9">
-        <v>7695</v>
+        <v>32168</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="G21" s="7">
-        <v>270.39758799999998</v>
+        <v>1178.9142400000001</v>
       </c>
       <c r="H21" s="11">
-        <v>270</v>
+        <v>1179</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="M21" s="13"/>
+      <c r="L21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="13">
+        <v>793536</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="9">
-        <v>23282</v>
+        <v>7593</v>
       </c>
       <c r="C22" s="9">
-        <v>10728</v>
+        <v>7593</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11"/>
+        <v>278.28271999999998</v>
+      </c>
+      <c r="H22" s="11">
+        <v>278</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="M22" s="13"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="M22" s="13">
+        <v>12614</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B23" s="9">
-        <v>123694</v>
+        <v>27239</v>
       </c>
       <c r="C23" s="9">
-        <v>123694</v>
+        <v>27239</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="G23" s="7">
-        <v>4710.3376520000002</v>
+        <v>998.26248799999996</v>
       </c>
       <c r="H23" s="11">
-        <v>4710</v>
+        <v>998</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="3">
+        <v>8.01</v>
+      </c>
+      <c r="M23" s="13">
+        <v>103894</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B24" s="9">
-        <v>109685</v>
+        <v>26392</v>
       </c>
       <c r="C24" s="9">
-        <v>109685</v>
+        <v>26392</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="G24" s="7">
-        <v>4176.7861519999997</v>
+        <v>904.76686400000006</v>
       </c>
       <c r="H24" s="11">
-        <v>4177</v>
+        <v>905</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="M24" s="13"/>
+      <c r="L24" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="M24" s="13">
+        <v>302083.26429376</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="9">
-        <v>163856</v>
+        <v>24466</v>
       </c>
       <c r="C25" s="9">
-        <v>163856</v>
+        <v>24466</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="G25" s="7">
-        <v>5733.9376519999996</v>
+        <v>896.67359999999996</v>
       </c>
       <c r="H25" s="11">
-        <v>5734</v>
+        <v>897</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="M25" s="13"/>
+      <c r="L25" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="M25" s="13">
+        <v>243274</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="9">
-        <v>52438</v>
+        <v>8529.2642937599994</v>
       </c>
       <c r="C26" s="9">
-        <v>52438</v>
+        <v>8529.26</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="G26" s="7">
-        <v>1921.785116</v>
+        <v>312.58700075520011</v>
       </c>
       <c r="H26" s="11">
-        <v>1922</v>
+        <v>313</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1493,13 +1404,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="9">
-        <v>60219</v>
+        <v>10727.64</v>
       </c>
       <c r="C27" s="9">
-        <v>60219</v>
+        <v>23282</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -1516,21 +1427,21 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="9">
-        <v>30350</v>
+        <v>21949</v>
       </c>
       <c r="C28" s="9">
-        <v>30350</v>
+        <v>21949</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="G28" s="7">
-        <v>591.94788000000005</v>
+        <v>775.44524000000001</v>
       </c>
       <c r="H28" s="11">
-        <v>592</v>
+        <v>775</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1541,21 +1452,21 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9">
-        <v>6126</v>
+        <v>7695</v>
       </c>
       <c r="C29" s="9">
-        <v>6126</v>
+        <v>7695</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="G29" s="7">
-        <v>204.54939999999999</v>
+        <v>270.39758799999998</v>
       </c>
       <c r="H29" s="11">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -1566,22 +1477,20 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="9">
-        <v>12614</v>
+        <v>23282</v>
       </c>
       <c r="C30" s="9">
-        <v>12614</v>
+        <v>10728</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="G30" s="7">
-        <v>421.12268799999998</v>
-      </c>
-      <c r="H30" s="11">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="M30" s="13"/>
@@ -1591,21 +1500,21 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="9">
-        <v>16277</v>
+        <v>123694</v>
       </c>
       <c r="C31" s="9">
-        <v>16277</v>
+        <v>123694</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="G31" s="7">
-        <v>331.574748</v>
+        <v>4710.3376520000002</v>
       </c>
       <c r="H31" s="11">
-        <v>332</v>
+        <v>4710</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1616,20 +1525,22 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="9">
-        <v>6422</v>
+        <v>109685</v>
       </c>
       <c r="C32" s="9">
-        <v>6422</v>
+        <v>109685</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>4176.7861519999997</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4177</v>
+      </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="M32" s="13"/>
@@ -1639,21 +1550,21 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="9">
-        <v>96536</v>
+        <v>163856</v>
       </c>
       <c r="C33" s="9">
-        <v>96536</v>
+        <v>163856</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="G33" s="7">
-        <v>3025.5909999999999</v>
+        <v>5733.9376519999996</v>
       </c>
       <c r="H33" s="11">
-        <v>3026</v>
+        <v>5734</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1664,21 +1575,21 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9">
-        <v>39132</v>
+        <v>52438</v>
       </c>
       <c r="C34" s="9">
-        <v>39132</v>
+        <v>52438</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="G34" s="7">
-        <v>1306.458212</v>
+        <v>1921.785116</v>
       </c>
       <c r="H34" s="11">
-        <v>1306</v>
+        <v>1922</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -1689,13 +1600,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="9">
-        <v>1817.28</v>
+        <v>60219</v>
       </c>
       <c r="C35" s="9">
-        <v>1817</v>
+        <v>60219</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1712,21 +1623,21 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="9">
-        <v>50683</v>
+        <v>30350</v>
       </c>
       <c r="C36" s="9">
-        <v>50683</v>
+        <v>30350</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="G36" s="7">
-        <v>1724.73188</v>
+        <v>591.94788000000005</v>
       </c>
       <c r="H36" s="11">
-        <v>1725</v>
+        <v>592</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -1737,21 +1648,21 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="9">
-        <v>21848</v>
+        <v>6126</v>
       </c>
       <c r="C37" s="9">
-        <v>21848</v>
+        <v>6126</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="G37" s="7">
-        <v>767.7</v>
+        <v>204.54939999999999</v>
       </c>
       <c r="H37" s="11">
-        <v>768</v>
+        <v>205</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -1762,20 +1673,22 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="9">
-        <v>1817.28</v>
+        <v>12614</v>
       </c>
       <c r="C38" s="9">
-        <v>1817</v>
+        <v>12614</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11"/>
+        <v>421.12268799999998</v>
+      </c>
+      <c r="H38" s="11">
+        <v>421</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="M38" s="13"/>
@@ -1785,21 +1698,21 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="9">
-        <v>99519</v>
+        <v>16277</v>
       </c>
       <c r="C39" s="9">
-        <v>99519</v>
+        <v>16277</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="G39" s="7">
-        <v>3409.7822000000001</v>
+        <v>331.574748</v>
       </c>
       <c r="H39" s="11">
-        <v>3410</v>
+        <v>332</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -1810,22 +1723,20 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="9">
-        <v>16989</v>
+        <v>6422</v>
       </c>
       <c r="C40" s="9">
-        <v>16989</v>
+        <v>6422</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="G40" s="7">
-        <v>616.02636399999994</v>
-      </c>
-      <c r="H40" s="11">
-        <v>616</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="M40" s="13"/>
@@ -1835,21 +1746,21 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="9">
-        <v>36997</v>
+        <v>96536</v>
       </c>
       <c r="C41" s="9">
-        <v>36997</v>
+        <v>96536</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="G41" s="7">
-        <v>1341.4789800000001</v>
+        <v>3025.5909999999999</v>
       </c>
       <c r="H41" s="11">
-        <v>1341</v>
+        <v>3026</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -1860,20 +1771,22 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9">
-        <v>45035</v>
+        <v>39132</v>
       </c>
       <c r="C42" s="9">
-        <v>45035</v>
+        <v>39132</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11"/>
+        <v>1306.458212</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1306</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="M42" s="13"/>
@@ -1883,22 +1796,20 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="9">
-        <v>70327</v>
+        <v>1817.28</v>
       </c>
       <c r="C43" s="9">
-        <v>70327</v>
+        <v>1817</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="G43" s="7">
-        <v>2525.9036000000001</v>
-      </c>
-      <c r="H43" s="11">
-        <v>2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="M43" s="13"/>
@@ -1908,21 +1819,21 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="9">
-        <v>62439</v>
+        <v>50683</v>
       </c>
       <c r="C44" s="9">
-        <v>62439</v>
+        <v>50683</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="G44" s="7">
-        <v>2298.16966</v>
+        <v>1724.73188</v>
       </c>
       <c r="H44" s="11">
-        <v>2298</v>
+        <v>1725</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -1933,21 +1844,21 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="9">
-        <v>26886</v>
+        <v>21848</v>
       </c>
       <c r="C45" s="9">
-        <v>26886</v>
+        <v>21848</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="G45" s="7">
-        <v>989.60283200000003</v>
+        <v>767.7</v>
       </c>
       <c r="H45" s="11">
-        <v>990</v>
+        <v>768</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -1958,13 +1869,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="9">
-        <v>30254</v>
+        <v>1817.28</v>
       </c>
       <c r="C46" s="9">
-        <v>30254</v>
+        <v>1817</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -1981,21 +1892,21 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="9">
-        <v>73579</v>
+        <v>99519</v>
       </c>
       <c r="C47" s="9">
-        <v>73579</v>
+        <v>99519</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="G47" s="7">
-        <v>2305.3519200000001</v>
+        <v>3409.7822000000001</v>
       </c>
       <c r="H47" s="11">
-        <v>2305</v>
+        <v>3410</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -2006,21 +1917,21 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="9">
-        <v>32640</v>
+        <v>16989</v>
       </c>
       <c r="C48" s="9">
-        <v>32640</v>
+        <v>16989</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="G48" s="7">
-        <v>1014.28524</v>
+        <v>616.02636399999994</v>
       </c>
       <c r="H48" s="11">
-        <v>1014</v>
+        <v>616</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -2031,20 +1942,22 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="9">
-        <v>14816</v>
+        <v>36997</v>
       </c>
       <c r="C49" s="9">
-        <v>14816</v>
+        <v>36997</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11"/>
+        <v>1341.4789800000001</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1341</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="M49" s="13"/>
@@ -2054,22 +1967,20 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="9">
-        <v>89230.997700000007</v>
+        <v>45035</v>
       </c>
       <c r="C50" s="9">
-        <v>89231</v>
+        <v>45035</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="G50" s="7">
-        <v>2365.1984000000002</v>
-      </c>
-      <c r="H50" s="11">
-        <v>2365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" s="11"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="M50" s="13"/>
@@ -2079,21 +1990,21 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="9">
-        <v>58047</v>
+        <v>70327</v>
       </c>
       <c r="C51" s="9">
-        <v>58047</v>
+        <v>70327</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="G51" s="7">
-        <v>1830.4527</v>
+        <v>2525.9036000000001</v>
       </c>
       <c r="H51" s="11">
-        <v>1830</v>
+        <v>2526</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -2104,21 +2015,21 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="9">
-        <v>122667</v>
+        <v>62439</v>
       </c>
       <c r="C52" s="9">
-        <v>122667</v>
+        <v>62439</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="G52" s="7">
-        <v>3683.4245999999998</v>
+        <v>2298.16966</v>
       </c>
       <c r="H52" s="11">
-        <v>3683</v>
+        <v>2298</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -2129,21 +2040,21 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="9">
-        <v>48008</v>
+        <v>26886</v>
       </c>
       <c r="C53" s="9">
-        <v>48008</v>
+        <v>26886</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="G53" s="7">
-        <v>1513.9043999999999</v>
+        <v>989.60283200000003</v>
       </c>
       <c r="H53" s="11">
-        <v>1514</v>
+        <v>990</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -2154,13 +2065,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="9">
-        <v>47755</v>
+        <v>30254</v>
       </c>
       <c r="C54" s="9">
-        <v>47755</v>
+        <v>30254</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -2176,16 +2087,23 @@
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
       <c r="B55" s="9">
-        <v>1942029.96199376</v>
-      </c>
-      <c r="C55" s="9"/>
+        <v>73579</v>
+      </c>
+      <c r="C55" s="9">
+        <v>73579</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="G55" s="7">
-        <v>57171.01823675519</v>
-      </c>
-      <c r="H55" s="11"/>
+        <v>2305.3519200000001</v>
+      </c>
+      <c r="H55" s="11">
+        <v>2305</v>
+      </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="M55" s="13"/>
@@ -2194,12 +2112,23 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="9">
+        <v>32640</v>
+      </c>
+      <c r="C56" s="9">
+        <v>32640</v>
+      </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="11"/>
+      <c r="G56" s="7">
+        <v>1014.28524</v>
+      </c>
+      <c r="H56" s="11">
+        <v>1014</v>
+      </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="M56" s="13"/>
@@ -2208,11 +2137,20 @@
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="9">
+        <v>14816</v>
+      </c>
+      <c r="C57" s="9">
+        <v>14816</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
       <c r="H57" s="11"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -2222,12 +2160,23 @@
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="9">
+        <v>89230.997700000007</v>
+      </c>
+      <c r="C58" s="9">
+        <v>89231</v>
+      </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="11"/>
+      <c r="G58" s="7">
+        <v>2365.1984000000002</v>
+      </c>
+      <c r="H58" s="11">
+        <v>2365</v>
+      </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="M58" s="13"/>
@@ -2236,12 +2185,23 @@
       <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="9">
+        <v>58047</v>
+      </c>
+      <c r="C59" s="9">
+        <v>58047</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="11"/>
+      <c r="G59" s="7">
+        <v>1830.4527</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1830</v>
+      </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="M59" s="13"/>
@@ -2250,12 +2210,23 @@
       <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="9">
+        <v>122667</v>
+      </c>
+      <c r="C60" s="9">
+        <v>122667</v>
+      </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="11"/>
+      <c r="G60" s="7">
+        <v>3683.4245999999998</v>
+      </c>
+      <c r="H60" s="11">
+        <v>3683</v>
+      </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="M60" s="13"/>
@@ -2264,12 +2235,23 @@
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="9">
+        <v>48008</v>
+      </c>
+      <c r="C61" s="9">
+        <v>48008</v>
+      </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="11"/>
+      <c r="G61" s="7">
+        <v>1513.9043999999999</v>
+      </c>
+      <c r="H61" s="11">
+        <v>1514</v>
+      </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="M61" s="13"/>
@@ -2278,11 +2260,20 @@
       <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="9">
+        <v>47755</v>
+      </c>
+      <c r="C62" s="9">
+        <v>47755</v>
+      </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -2292,11 +2283,15 @@
       <c r="P62" s="1"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B63" s="9"/>
+      <c r="B63" s="9">
+        <v>1942029.96199376</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>57171.01823675519</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -5035,25 +5030,138 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
     </row>
+    <row r="259" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="9"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
+      <c r="M259" s="13"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+    </row>
+    <row r="260" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="9"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="7"/>
+      <c r="J260" s="7"/>
+      <c r="M260" s="13"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+    </row>
+    <row r="261" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="M261" s="13"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+    </row>
+    <row r="262" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="9"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="7"/>
+      <c r="J262" s="7"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+    </row>
+    <row r="263" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="7"/>
+      <c r="J263" s="7"/>
+      <c r="M263" s="13"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+    </row>
+    <row r="264" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="9"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="7"/>
+      <c r="J264" s="7"/>
+      <c r="M264" s="13"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+    </row>
+    <row r="265" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="9"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="7"/>
+      <c r="J265" s="7"/>
+      <c r="M265" s="13"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+    </row>
+    <row r="266" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="9"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="7"/>
+      <c r="J266" s="7"/>
+      <c r="M266" s="13"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G4:H4"/>
+  <mergeCells count="14">
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
-  <conditionalFormatting sqref="H7:H258 C9:C258">
+  <conditionalFormatting sqref="C15:C266 H15:H266">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(NOT(ISBLANK(C7)), ROUND(C7, 0) &lt;&gt; ROUND(B7, 0))</formula>
+      <formula>AND(NOT(ISBLANK(C15)), ROUND(C15, 0) &lt;&gt; ROUND(B15, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41ACB1B-2E8F-40D0-8960-379564F76069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A45434-EB85-4B3B-AEA3-0704093135F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="165" windowWidth="27450" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="0" windowWidth="26386" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>Project Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Total Discrepancies Found</t>
   </si>
   <si>
-    <t>Note: Discrepancies will be highlighted RED</t>
-  </si>
-  <si>
     <t>Estimated annual cost savings ($/yr) from AE258</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Error per volume/data point</t>
+  </si>
+  <si>
+    <t>Total Cost Savings</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,12 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +423,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,18 +462,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,11 +483,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -819,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P266"/>
+  <dimension ref="A2:X266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -836,32 +832,32 @@
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.9296875" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.9296875" customWidth="1"/>
-    <col min="12" max="12" width="23.59765625" customWidth="1"/>
-    <col min="13" max="13" width="22.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14.3984375" customWidth="1"/>
-    <col min="15" max="15" width="15.19921875" customWidth="1"/>
-    <col min="16" max="16" width="3.9296875" customWidth="1"/>
+    <col min="11" max="19" width="14.9296875" customWidth="1"/>
+    <col min="20" max="20" width="23.59765625" customWidth="1"/>
+    <col min="21" max="21" width="22.59765625" customWidth="1"/>
+    <col min="22" max="22" width="14.3984375" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" customWidth="1"/>
+    <col min="24" max="24" width="3.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -869,42 +865,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="22">
         <v>45156</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="22">
         <v>45156</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="22">
         <v>45161</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="17">
-        <f>SUM(C9,D9,G9,H9,N9,O9)</f>
+        <f>SUM(C9,D9,G9,H9,V9,W9)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="20">
         <f t="array" ref="C9">SUM(IF(ROUND(B15:B266,0)&lt;&gt;ROUND(C15:C266,0), 1, 0)) + COUNTBLANK(B15:B266) + COUNTIF(B15:B266, 0) - COUNTBLANK(C15:C266) - COUNTIF(C15:C266, 0)</f>
@@ -922,81 +918,103 @@
         <f t="array" ref="I9">SUM(IF(ROUND(G15:G266,0)&lt;&gt;ROUND(I15:I266,0), 1, 0)) + COUNTBLANK(G15:G266) + COUNTIF(G15:G266, 0) - COUNTBLANK(I15:I266) - COUNTIF(I15:I266, 0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="T9" s="32"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="19">
+        <f t="array" ref="V9">SUM(IF(ROUND(U15:U266,0)&lt;&gt;ROUND(V15:V266,0), 1, 0)) + COUNTBLANK(U15:U266) + COUNTIF(U15:U266, 0) - COUNTBLANK(V15:V266) - COUNTIF(V15:V266, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <f t="array" ref="W9">SUM(IF(ROUND(U15:U266,0)&lt;&gt;ROUND(W15:W266,0), 1, 0)) + COUNTBLANK(U15:U266) + COUNTIF(U15:U266, 0) - COUNTBLANK(W15:W266) - COUNTIF(W15:W266, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="B10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="19">
-        <f t="array" ref="N9">SUM(IF(ROUND(M15:M266,0)&lt;&gt;ROUND(N15:N266,0), 1, 0)) + COUNTBLANK(M15:M266) + COUNTIF(M15:M266, 0) - COUNTBLANK(N15:N266) - COUNTIF(N15:N266, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <f t="array" ref="O9">SUM(IF(ROUND(M15:M266,0)&lt;&gt;ROUND(O15:O266,0), 1, 0)) + COUNTBLANK(M15:M266) + COUNTIF(M15:M266, 0) - COUNTBLANK(O15:O266) - COUNTIF(O15:O266, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="27" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="22" t="s">
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="31"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="31"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1008,57 +1026,73 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B15" s="9">
         <v>1942029.96199376</v>
@@ -1067,7 +1101,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7">
         <v>57171.01823675519</v>
@@ -1077,40 +1111,38 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="L15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="T15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" s="13">
         <v>1942030.2642937601</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="33"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="L16" s="12" t="s">
+      <c r="T16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="14"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>31</v>
-      </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>32</v>
       </c>
       <c r="B17" s="9">
         <v>38972</v>
@@ -1128,19 +1160,19 @@
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="L17" s="3">
+      <c r="T17" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="M17" s="13">
+      <c r="U17" s="13">
         <v>245093</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9">
         <v>31552</v>
@@ -1158,19 +1190,19 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="L18" s="3">
+      <c r="T18" s="3">
         <v>2.04</v>
       </c>
-      <c r="M18" s="13">
+      <c r="U18" s="13">
         <v>7593</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9">
         <v>11633</v>
@@ -1188,19 +1220,19 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="L19" s="3">
+      <c r="T19" s="3">
         <v>2.11</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>38972</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="9">
         <v>1128.5</v>
@@ -1216,19 +1248,19 @@
       <c r="H20" s="11"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="L20" s="3">
+      <c r="T20" s="3">
         <v>3.01</v>
       </c>
-      <c r="M20" s="13">
+      <c r="U20" s="13">
         <v>194971</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9">
         <v>32168</v>
@@ -1246,19 +1278,19 @@
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="L21" s="3" t="s">
+      <c r="T21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="13">
+        <v>793536</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>37</v>
-      </c>
-      <c r="M21" s="13">
-        <v>793536</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>38</v>
       </c>
       <c r="B22" s="9">
         <v>7593</v>
@@ -1277,19 +1309,27 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="3">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="3">
         <v>6.01</v>
       </c>
-      <c r="M22" s="13">
+      <c r="U22" s="13">
         <v>12614</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9">
         <v>27239</v>
@@ -1307,19 +1347,19 @@
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="L23" s="3">
+      <c r="T23" s="3">
         <v>8.01</v>
       </c>
-      <c r="M23" s="13">
+      <c r="U23" s="13">
         <v>103894</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9">
         <v>26392</v>
@@ -1337,19 +1377,19 @@
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="L24" s="3">
+      <c r="T24" s="3">
         <v>12.01</v>
       </c>
-      <c r="M24" s="13">
+      <c r="U24" s="13">
         <v>302083.26429376</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="9">
         <v>24466</v>
@@ -1367,19 +1407,19 @@
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="L25" s="3">
+      <c r="T25" s="3">
         <v>13.01</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>243274</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="9">
         <v>8529.2642937599994</v>
@@ -1397,14 +1437,14 @@
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U26" s="13"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9">
         <v>10727.64</v>
@@ -1420,14 +1460,14 @@
       <c r="H27" s="11"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U27" s="13"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9">
         <v>21949</v>
@@ -1445,14 +1485,14 @@
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U28" s="13"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="9">
         <v>7695</v>
@@ -1470,14 +1510,14 @@
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U29" s="13"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="9">
         <v>23282</v>
@@ -1493,14 +1533,14 @@
       <c r="H30" s="11"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U30" s="13"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="9">
         <v>123694</v>
@@ -1518,14 +1558,14 @@
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U31" s="13"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9">
         <v>109685</v>
@@ -1543,14 +1583,14 @@
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U32" s="13"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="9">
         <v>163856</v>
@@ -1568,14 +1608,14 @@
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U33" s="13"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="9">
         <v>52438</v>
@@ -1593,14 +1633,14 @@
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U34" s="13"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="9">
         <v>60219</v>
@@ -1616,14 +1656,14 @@
       <c r="H35" s="11"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U35" s="13"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="9">
         <v>30350</v>
@@ -1641,14 +1681,14 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U36" s="13"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="9">
         <v>6126</v>
@@ -1666,14 +1706,14 @@
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U37" s="13"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="9">
         <v>12614</v>
@@ -1691,14 +1731,14 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U38" s="13"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="9">
         <v>16277</v>
@@ -1716,14 +1756,14 @@
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U39" s="13"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="9">
         <v>6422</v>
@@ -1739,14 +1779,14 @@
       <c r="H40" s="11"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U40" s="13"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="9">
         <v>96536</v>
@@ -1764,14 +1804,14 @@
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U41" s="13"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="9">
         <v>39132</v>
@@ -1789,14 +1829,14 @@
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U42" s="13"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="9">
         <v>1817.28</v>
@@ -1812,14 +1852,14 @@
       <c r="H43" s="11"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U43" s="13"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="9">
         <v>50683</v>
@@ -1837,14 +1877,14 @@
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U44" s="13"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="9">
         <v>21848</v>
@@ -1862,14 +1902,14 @@
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U45" s="13"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="9">
         <v>1817.28</v>
@@ -1885,14 +1925,14 @@
       <c r="H46" s="11"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U46" s="13"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="9">
         <v>99519</v>
@@ -1910,14 +1950,14 @@
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U47" s="13"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="9">
         <v>16989</v>
@@ -1935,14 +1975,14 @@
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U48" s="13"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="9">
         <v>36997</v>
@@ -1960,14 +2000,14 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U49" s="13"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="9">
         <v>45035</v>
@@ -1983,14 +2023,14 @@
       <c r="H50" s="11"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U50" s="13"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="9">
         <v>70327</v>
@@ -2008,14 +2048,14 @@
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U51" s="13"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="9">
         <v>62439</v>
@@ -2033,14 +2073,14 @@
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U52" s="13"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="9">
         <v>26886</v>
@@ -2058,14 +2098,14 @@
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U53" s="13"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="9">
         <v>30254</v>
@@ -2081,14 +2121,14 @@
       <c r="H54" s="11"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U54" s="13"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="9">
         <v>73579</v>
@@ -2106,14 +2146,14 @@
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U55" s="13"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="9">
         <v>32640</v>
@@ -2131,14 +2171,14 @@
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U56" s="13"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="9">
         <v>14816</v>
@@ -2154,14 +2194,14 @@
       <c r="H57" s="11"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U57" s="13"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="9">
         <v>89230.997700000007</v>
@@ -2179,14 +2219,14 @@
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U58" s="13"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="9">
         <v>58047</v>
@@ -2204,14 +2244,14 @@
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U59" s="13"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="9">
         <v>122667</v>
@@ -2229,14 +2269,14 @@
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U60" s="13"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="9">
         <v>48008</v>
@@ -2254,14 +2294,14 @@
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U61" s="13"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="9">
         <v>47755</v>
@@ -2277,12 +2317,12 @@
       <c r="H62" s="11"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U62" s="13"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B63" s="9">
         <v>1942029.96199376</v>
       </c>
@@ -2295,12 +2335,12 @@
       <c r="H63" s="11"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="U63" s="13"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2309,12 +2349,12 @@
       <c r="H64" s="11"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U64" s="13"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2323,12 +2363,12 @@
       <c r="H65" s="11"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U65" s="13"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -2337,12 +2377,12 @@
       <c r="H66" s="11"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U66" s="13"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -2351,12 +2391,12 @@
       <c r="H67" s="11"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U67" s="13"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2365,12 +2405,12 @@
       <c r="H68" s="11"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U68" s="13"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -2379,12 +2419,12 @@
       <c r="H69" s="11"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U69" s="13"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -2393,12 +2433,12 @@
       <c r="H70" s="11"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U70" s="13"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2407,12 +2447,12 @@
       <c r="H71" s="11"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U71" s="13"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2421,12 +2461,12 @@
       <c r="H72" s="11"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U72" s="13"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -2435,12 +2475,12 @@
       <c r="H73" s="11"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U73" s="13"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -2449,12 +2489,12 @@
       <c r="H74" s="11"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U74" s="13"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2463,12 +2503,12 @@
       <c r="H75" s="11"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U75" s="13"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2477,12 +2517,12 @@
       <c r="H76" s="11"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U76" s="13"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -2491,12 +2531,12 @@
       <c r="H77" s="11"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U77" s="13"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2505,12 +2545,12 @@
       <c r="H78" s="11"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U78" s="13"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2519,12 +2559,12 @@
       <c r="H79" s="11"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U79" s="13"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2533,12 +2573,12 @@
       <c r="H80" s="11"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U80" s="13"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2547,12 +2587,12 @@
       <c r="H81" s="11"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U81" s="13"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2561,12 +2601,12 @@
       <c r="H82" s="11"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U82" s="13"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2575,12 +2615,12 @@
       <c r="H83" s="11"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U83" s="13"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2589,12 +2629,12 @@
       <c r="H84" s="11"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U84" s="13"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2603,12 +2643,12 @@
       <c r="H85" s="11"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U85" s="13"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
@@ -2617,12 +2657,12 @@
       <c r="H86" s="11"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U86" s="13"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -2631,12 +2671,12 @@
       <c r="H87" s="11"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U87" s="13"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2645,12 +2685,12 @@
       <c r="H88" s="11"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U88" s="13"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2659,12 +2699,12 @@
       <c r="H89" s="11"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U89" s="13"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2673,12 +2713,12 @@
       <c r="H90" s="11"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U90" s="13"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2687,12 +2727,12 @@
       <c r="H91" s="11"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U91" s="13"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2701,12 +2741,12 @@
       <c r="H92" s="11"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U92" s="13"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2715,12 +2755,12 @@
       <c r="H93" s="11"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U93" s="13"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2729,12 +2769,12 @@
       <c r="H94" s="11"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U94" s="13"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2743,12 +2783,12 @@
       <c r="H95" s="11"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U95" s="13"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2757,12 +2797,12 @@
       <c r="H96" s="11"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U96" s="13"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2771,12 +2811,12 @@
       <c r="H97" s="11"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U97" s="13"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -2785,12 +2825,12 @@
       <c r="H98" s="11"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U98" s="13"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2799,12 +2839,12 @@
       <c r="H99" s="11"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U99" s="13"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -2813,12 +2853,12 @@
       <c r="H100" s="11"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U100" s="13"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2827,12 +2867,12 @@
       <c r="H101" s="11"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U101" s="13"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2841,12 +2881,12 @@
       <c r="H102" s="11"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U102" s="13"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
@@ -2855,12 +2895,12 @@
       <c r="H103" s="11"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U103" s="13"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2869,12 +2909,12 @@
       <c r="H104" s="11"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U104" s="13"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -2883,12 +2923,12 @@
       <c r="H105" s="11"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U105" s="13"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
@@ -2897,12 +2937,12 @@
       <c r="H106" s="11"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U106" s="13"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -2911,12 +2951,12 @@
       <c r="H107" s="11"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U107" s="13"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2925,12 +2965,12 @@
       <c r="H108" s="11"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U108" s="13"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -2939,12 +2979,12 @@
       <c r="H109" s="11"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U109" s="13"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
@@ -2953,12 +2993,12 @@
       <c r="H110" s="11"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U110" s="13"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
@@ -2967,12 +3007,12 @@
       <c r="H111" s="11"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U111" s="13"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2981,12 +3021,12 @@
       <c r="H112" s="11"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U112" s="13"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -2995,12 +3035,12 @@
       <c r="H113" s="11"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U113" s="13"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+    </row>
+    <row r="114" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
@@ -3009,12 +3049,12 @@
       <c r="H114" s="11"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U114" s="13"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+    </row>
+    <row r="115" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
@@ -3023,12 +3063,12 @@
       <c r="H115" s="11"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U115" s="13"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+    </row>
+    <row r="116" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
@@ -3037,12 +3077,12 @@
       <c r="H116" s="11"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U116" s="13"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+    </row>
+    <row r="117" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
@@ -3051,12 +3091,12 @@
       <c r="H117" s="11"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U117" s="13"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -3065,12 +3105,12 @@
       <c r="H118" s="11"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U118" s="13"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+    </row>
+    <row r="119" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -3079,12 +3119,12 @@
       <c r="H119" s="11"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U119" s="13"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+    </row>
+    <row r="120" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -3093,12 +3133,12 @@
       <c r="H120" s="11"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U120" s="13"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+    </row>
+    <row r="121" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
@@ -3107,12 +3147,12 @@
       <c r="H121" s="11"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U121" s="13"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+    </row>
+    <row r="122" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3121,12 +3161,12 @@
       <c r="H122" s="11"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U122" s="13"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+    </row>
+    <row r="123" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -3135,12 +3175,12 @@
       <c r="H123" s="11"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U123" s="13"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+    </row>
+    <row r="124" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3149,12 +3189,12 @@
       <c r="H124" s="11"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U124" s="13"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+    </row>
+    <row r="125" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -3163,12 +3203,12 @@
       <c r="H125" s="11"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U125" s="13"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -3177,12 +3217,12 @@
       <c r="H126" s="11"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U126" s="13"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -3191,12 +3231,12 @@
       <c r="H127" s="11"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-    </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U127" s="13"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3205,12 +3245,12 @@
       <c r="H128" s="11"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U128" s="13"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+    </row>
+    <row r="129" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
@@ -3219,12 +3259,12 @@
       <c r="H129" s="11"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U129" s="13"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="130" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -3233,12 +3273,12 @@
       <c r="H130" s="11"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-      <c r="M130" s="13"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U130" s="13"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+    </row>
+    <row r="131" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
@@ -3247,12 +3287,12 @@
       <c r="H131" s="11"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-      <c r="M131" s="13"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U131" s="13"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+    </row>
+    <row r="132" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
@@ -3261,12 +3301,12 @@
       <c r="H132" s="11"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
-      <c r="M132" s="13"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U132" s="13"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+    </row>
+    <row r="133" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
@@ -3275,12 +3315,12 @@
       <c r="H133" s="11"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U133" s="13"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+    </row>
+    <row r="134" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
@@ -3289,12 +3329,12 @@
       <c r="H134" s="11"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U134" s="13"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
@@ -3303,12 +3343,12 @@
       <c r="H135" s="11"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U135" s="13"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+    </row>
+    <row r="136" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
@@ -3317,12 +3357,12 @@
       <c r="H136" s="11"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U136" s="13"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -3331,12 +3371,12 @@
       <c r="H137" s="11"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-    </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U137" s="13"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+    </row>
+    <row r="138" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
@@ -3345,12 +3385,12 @@
       <c r="H138" s="11"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U138" s="13"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -3359,12 +3399,12 @@
       <c r="H139" s="11"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U139" s="13"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+    </row>
+    <row r="140" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
@@ -3373,12 +3413,12 @@
       <c r="H140" s="11"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U140" s="13"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -3387,12 +3427,12 @@
       <c r="H141" s="11"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U141" s="13"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -3401,12 +3441,12 @@
       <c r="H142" s="11"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-    </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U142" s="13"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
@@ -3415,12 +3455,12 @@
       <c r="H143" s="11"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
-      <c r="M143" s="13"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U143" s="13"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -3429,12 +3469,12 @@
       <c r="H144" s="11"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-    </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U144" s="13"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -3443,12 +3483,12 @@
       <c r="H145" s="11"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-    </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U145" s="13"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3457,12 +3497,12 @@
       <c r="H146" s="11"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-    </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U146" s="13"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3471,12 +3511,12 @@
       <c r="H147" s="11"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-    </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U147" s="13"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -3485,12 +3525,12 @@
       <c r="H148" s="11"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-    </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U148" s="13"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -3499,12 +3539,12 @@
       <c r="H149" s="11"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-    </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U149" s="13"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -3513,12 +3553,12 @@
       <c r="H150" s="11"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-      <c r="M150" s="13"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-    </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U150" s="13"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
@@ -3527,12 +3567,12 @@
       <c r="H151" s="11"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-    </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U151" s="13"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
@@ -3541,12 +3581,12 @@
       <c r="H152" s="11"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-    </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U152" s="13"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3555,12 +3595,12 @@
       <c r="H153" s="11"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-    </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U153" s="13"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
@@ -3569,12 +3609,12 @@
       <c r="H154" s="11"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-    </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U154" s="13"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
@@ -3583,12 +3623,12 @@
       <c r="H155" s="11"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U155" s="13"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
@@ -3597,12 +3637,12 @@
       <c r="H156" s="11"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U156" s="13"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
@@ -3611,12 +3651,12 @@
       <c r="H157" s="11"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U157" s="13"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+    </row>
+    <row r="158" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
@@ -3625,12 +3665,12 @@
       <c r="H158" s="11"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U158" s="13"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+    </row>
+    <row r="159" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3639,12 +3679,12 @@
       <c r="H159" s="11"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U159" s="13"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -3653,12 +3693,12 @@
       <c r="H160" s="11"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U160" s="13"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+    </row>
+    <row r="161" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
@@ -3667,12 +3707,12 @@
       <c r="H161" s="11"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
-      <c r="M161" s="13"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U161" s="13"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
@@ -3681,12 +3721,12 @@
       <c r="H162" s="11"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-      <c r="M162" s="13"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-    </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U162" s="13"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
@@ -3695,12 +3735,12 @@
       <c r="H163" s="11"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-      <c r="M163" s="13"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-    </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U163" s="13"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -3709,12 +3749,12 @@
       <c r="H164" s="11"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-      <c r="M164" s="13"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-    </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U164" s="13"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
@@ -3723,12 +3763,12 @@
       <c r="H165" s="11"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-      <c r="M165" s="13"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-    </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U165" s="13"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
@@ -3737,12 +3777,12 @@
       <c r="H166" s="11"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-      <c r="M166" s="13"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-    </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U166" s="13"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -3751,12 +3791,12 @@
       <c r="H167" s="11"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="M167" s="13"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-    </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U167" s="13"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -3765,12 +3805,12 @@
       <c r="H168" s="11"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-      <c r="M168" s="13"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-    </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U168" s="13"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+    </row>
+    <row r="169" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -3779,12 +3819,12 @@
       <c r="H169" s="11"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="M169" s="13"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-    </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U169" s="13"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+    </row>
+    <row r="170" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -3793,12 +3833,12 @@
       <c r="H170" s="11"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-    </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U170" s="13"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -3807,12 +3847,12 @@
       <c r="H171" s="11"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-    </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U171" s="13"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -3821,12 +3861,12 @@
       <c r="H172" s="11"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="M172" s="13"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-    </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U172" s="13"/>
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+    </row>
+    <row r="173" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -3835,12 +3875,12 @@
       <c r="H173" s="11"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="M173" s="13"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-    </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U173" s="13"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+    </row>
+    <row r="174" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -3849,12 +3889,12 @@
       <c r="H174" s="11"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-      <c r="M174" s="13"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U174" s="13"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -3863,12 +3903,12 @@
       <c r="H175" s="11"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="M175" s="13"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U175" s="13"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
@@ -3877,12 +3917,12 @@
       <c r="H176" s="11"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="M176" s="13"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U176" s="13"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+    </row>
+    <row r="177" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
@@ -3891,12 +3931,12 @@
       <c r="H177" s="11"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U177" s="13"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
@@ -3905,12 +3945,12 @@
       <c r="H178" s="11"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U178" s="13"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
@@ -3919,12 +3959,12 @@
       <c r="H179" s="11"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-      <c r="M179" s="13"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U179" s="13"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
@@ -3933,12 +3973,12 @@
       <c r="H180" s="11"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="M180" s="13"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U180" s="13"/>
+      <c r="V180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="X180" s="1"/>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -3947,12 +3987,12 @@
       <c r="H181" s="11"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="M181" s="13"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U181" s="13"/>
+      <c r="V181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="X181" s="1"/>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
@@ -3961,12 +4001,12 @@
       <c r="H182" s="11"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="M182" s="13"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U182" s="13"/>
+      <c r="V182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="X182" s="1"/>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
@@ -3975,12 +4015,12 @@
       <c r="H183" s="11"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="M183" s="13"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U183" s="13"/>
+      <c r="V183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="X183" s="1"/>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
@@ -3989,12 +4029,12 @@
       <c r="H184" s="11"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-      <c r="M184" s="13"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U184" s="13"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
@@ -4003,12 +4043,12 @@
       <c r="H185" s="11"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-      <c r="M185" s="13"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U185" s="13"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
@@ -4017,12 +4057,12 @@
       <c r="H186" s="11"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-      <c r="M186" s="13"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U186" s="13"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
@@ -4031,12 +4071,12 @@
       <c r="H187" s="11"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U187" s="13"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -4045,12 +4085,12 @@
       <c r="H188" s="11"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U188" s="13"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+    </row>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
@@ -4059,12 +4099,12 @@
       <c r="H189" s="11"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-      <c r="M189" s="13"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U189" s="13"/>
+      <c r="V189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="X189" s="1"/>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -4073,12 +4113,12 @@
       <c r="H190" s="11"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-      <c r="M190" s="13"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U190" s="13"/>
+      <c r="V190" s="1"/>
+      <c r="W190" s="1"/>
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -4087,12 +4127,12 @@
       <c r="H191" s="11"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-      <c r="M191" s="13"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U191" s="13"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -4101,12 +4141,12 @@
       <c r="H192" s="11"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U192" s="13"/>
+      <c r="V192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="X192" s="1"/>
+    </row>
+    <row r="193" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
@@ -4115,12 +4155,12 @@
       <c r="H193" s="11"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U193" s="13"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+    </row>
+    <row r="194" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
@@ -4129,12 +4169,12 @@
       <c r="H194" s="11"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-      <c r="M194" s="13"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U194" s="13"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+    </row>
+    <row r="195" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
@@ -4143,12 +4183,12 @@
       <c r="H195" s="11"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-      <c r="M195" s="13"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U195" s="13"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+    </row>
+    <row r="196" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -4157,12 +4197,12 @@
       <c r="H196" s="11"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U196" s="13"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+    </row>
+    <row r="197" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -4171,12 +4211,12 @@
       <c r="H197" s="11"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-      <c r="M197" s="13"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-    </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U197" s="13"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+    </row>
+    <row r="198" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
@@ -4185,12 +4225,12 @@
       <c r="H198" s="11"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="M198" s="13"/>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
-    </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U198" s="13"/>
+      <c r="V198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="X198" s="1"/>
+    </row>
+    <row r="199" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -4199,12 +4239,12 @@
       <c r="H199" s="11"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
-    </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U199" s="13"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+    </row>
+    <row r="200" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
@@ -4213,12 +4253,12 @@
       <c r="H200" s="11"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-      <c r="M200" s="13"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-    </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U200" s="13"/>
+      <c r="V200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="X200" s="1"/>
+    </row>
+    <row r="201" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -4227,12 +4267,12 @@
       <c r="H201" s="11"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-      <c r="M201" s="13"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-    </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U201" s="13"/>
+      <c r="V201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="X201" s="1"/>
+    </row>
+    <row r="202" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
@@ -4241,12 +4281,12 @@
       <c r="H202" s="11"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-      <c r="M202" s="13"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-    </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U202" s="13"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+    </row>
+    <row r="203" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -4255,12 +4295,12 @@
       <c r="H203" s="11"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-      <c r="M203" s="13"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-    </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U203" s="13"/>
+      <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="X203" s="1"/>
+    </row>
+    <row r="204" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -4269,12 +4309,12 @@
       <c r="H204" s="11"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="M204" s="13"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-    </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U204" s="13"/>
+      <c r="V204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="X204" s="1"/>
+    </row>
+    <row r="205" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -4283,12 +4323,12 @@
       <c r="H205" s="11"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="M205" s="13"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-    </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U205" s="13"/>
+      <c r="V205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="X205" s="1"/>
+    </row>
+    <row r="206" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
@@ -4297,12 +4337,12 @@
       <c r="H206" s="11"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-      <c r="M206" s="13"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-    </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U206" s="13"/>
+      <c r="V206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="X206" s="1"/>
+    </row>
+    <row r="207" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
@@ -4311,12 +4351,12 @@
       <c r="H207" s="11"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
-      <c r="M207" s="13"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-    </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U207" s="13"/>
+      <c r="V207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="X207" s="1"/>
+    </row>
+    <row r="208" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
@@ -4325,12 +4365,12 @@
       <c r="H208" s="11"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-      <c r="M208" s="13"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-    </row>
-    <row r="209" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U208" s="13"/>
+      <c r="V208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="X208" s="1"/>
+    </row>
+    <row r="209" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -4339,12 +4379,12 @@
       <c r="H209" s="11"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-      <c r="M209" s="13"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-    </row>
-    <row r="210" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U209" s="13"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+    </row>
+    <row r="210" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
@@ -4353,12 +4393,12 @@
       <c r="H210" s="11"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-      <c r="M210" s="13"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-    </row>
-    <row r="211" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U210" s="13"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+    </row>
+    <row r="211" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
@@ -4367,12 +4407,12 @@
       <c r="H211" s="11"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-      <c r="M211" s="13"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-    </row>
-    <row r="212" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U211" s="13"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+    </row>
+    <row r="212" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
@@ -4381,12 +4421,12 @@
       <c r="H212" s="11"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-      <c r="M212" s="13"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-    </row>
-    <row r="213" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U212" s="13"/>
+      <c r="V212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="X212" s="1"/>
+    </row>
+    <row r="213" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
@@ -4395,12 +4435,12 @@
       <c r="H213" s="11"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
-      <c r="M213" s="13"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-    </row>
-    <row r="214" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U213" s="13"/>
+      <c r="V213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="X213" s="1"/>
+    </row>
+    <row r="214" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
@@ -4409,12 +4449,12 @@
       <c r="H214" s="11"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
-      <c r="M214" s="13"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-    </row>
-    <row r="215" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U214" s="13"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+    </row>
+    <row r="215" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
@@ -4423,12 +4463,12 @@
       <c r="H215" s="11"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-      <c r="M215" s="13"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-    </row>
-    <row r="216" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U215" s="13"/>
+      <c r="V215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="X215" s="1"/>
+    </row>
+    <row r="216" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
@@ -4437,12 +4477,12 @@
       <c r="H216" s="11"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-      <c r="M216" s="13"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-    </row>
-    <row r="217" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U216" s="13"/>
+      <c r="V216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="X216" s="1"/>
+    </row>
+    <row r="217" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
@@ -4451,12 +4491,12 @@
       <c r="H217" s="11"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
-      <c r="M217" s="13"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-    </row>
-    <row r="218" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U217" s="13"/>
+      <c r="V217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="X217" s="1"/>
+    </row>
+    <row r="218" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
@@ -4465,12 +4505,12 @@
       <c r="H218" s="11"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
-      <c r="M218" s="13"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-    </row>
-    <row r="219" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U218" s="13"/>
+      <c r="V218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="X218" s="1"/>
+    </row>
+    <row r="219" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
@@ -4479,12 +4519,12 @@
       <c r="H219" s="11"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-      <c r="M219" s="13"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-    </row>
-    <row r="220" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U219" s="13"/>
+      <c r="V219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="X219" s="1"/>
+    </row>
+    <row r="220" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
@@ -4493,12 +4533,12 @@
       <c r="H220" s="11"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-      <c r="M220" s="13"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-    </row>
-    <row r="221" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U220" s="13"/>
+      <c r="V220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="X220" s="1"/>
+    </row>
+    <row r="221" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
@@ -4507,12 +4547,12 @@
       <c r="H221" s="11"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-      <c r="M221" s="13"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-    </row>
-    <row r="222" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U221" s="13"/>
+      <c r="V221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="X221" s="1"/>
+    </row>
+    <row r="222" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
@@ -4521,12 +4561,12 @@
       <c r="H222" s="11"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
-      <c r="M222" s="13"/>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
-      <c r="P222" s="1"/>
-    </row>
-    <row r="223" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U222" s="13"/>
+      <c r="V222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="X222" s="1"/>
+    </row>
+    <row r="223" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
@@ -4535,12 +4575,12 @@
       <c r="H223" s="11"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-      <c r="M223" s="13"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-    </row>
-    <row r="224" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U223" s="13"/>
+      <c r="V223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="X223" s="1"/>
+    </row>
+    <row r="224" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
@@ -4549,12 +4589,12 @@
       <c r="H224" s="11"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-      <c r="M224" s="13"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-    </row>
-    <row r="225" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U224" s="13"/>
+      <c r="V224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="X224" s="1"/>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
@@ -4563,12 +4603,12 @@
       <c r="H225" s="11"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-      <c r="M225" s="13"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-    </row>
-    <row r="226" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U225" s="13"/>
+      <c r="V225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="X225" s="1"/>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
@@ -4577,12 +4617,12 @@
       <c r="H226" s="11"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
-      <c r="M226" s="13"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-    </row>
-    <row r="227" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U226" s="13"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
@@ -4591,12 +4631,12 @@
       <c r="H227" s="11"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
-      <c r="M227" s="13"/>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
-      <c r="P227" s="1"/>
-    </row>
-    <row r="228" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U227" s="13"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
@@ -4605,12 +4645,12 @@
       <c r="H228" s="11"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
-      <c r="M228" s="13"/>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
-      <c r="P228" s="1"/>
-    </row>
-    <row r="229" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U228" s="13"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
@@ -4619,12 +4659,12 @@
       <c r="H229" s="11"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
-      <c r="M229" s="13"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-    </row>
-    <row r="230" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U229" s="13"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
@@ -4633,12 +4673,12 @@
       <c r="H230" s="11"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-    </row>
-    <row r="231" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U230" s="13"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -4647,12 +4687,12 @@
       <c r="H231" s="11"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-      <c r="M231" s="13"/>
-      <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
-      <c r="P231" s="1"/>
-    </row>
-    <row r="232" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U231" s="13"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+    </row>
+    <row r="232" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
@@ -4661,12 +4701,12 @@
       <c r="H232" s="11"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
-      <c r="M232" s="13"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U232" s="13"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
@@ -4675,12 +4715,12 @@
       <c r="H233" s="11"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
-      <c r="M233" s="13"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U233" s="13"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
@@ -4689,12 +4729,12 @@
       <c r="H234" s="11"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
-      <c r="M234" s="13"/>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U234" s="13"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+    </row>
+    <row r="235" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
@@ -4703,12 +4743,12 @@
       <c r="H235" s="11"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
-      <c r="M235" s="13"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U235" s="13"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+    </row>
+    <row r="236" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
@@ -4717,12 +4757,12 @@
       <c r="H236" s="11"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
-      <c r="M236" s="13"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-    </row>
-    <row r="237" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U236" s="13"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+    </row>
+    <row r="237" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -4731,12 +4771,12 @@
       <c r="H237" s="11"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
-      <c r="M237" s="13"/>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
-    </row>
-    <row r="238" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U237" s="13"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+    </row>
+    <row r="238" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
@@ -4745,12 +4785,12 @@
       <c r="H238" s="11"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
-      <c r="M238" s="13"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U238" s="13"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -4759,12 +4799,12 @@
       <c r="H239" s="11"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
-      <c r="M239" s="13"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U239" s="13"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -4773,12 +4813,12 @@
       <c r="H240" s="11"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
-      <c r="M240" s="13"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-    </row>
-    <row r="241" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U240" s="13"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
@@ -4787,12 +4827,12 @@
       <c r="H241" s="11"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
-      <c r="M241" s="13"/>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
-    </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U241" s="13"/>
+      <c r="V241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="X241" s="1"/>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
@@ -4801,12 +4841,12 @@
       <c r="H242" s="11"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
-      <c r="M242" s="13"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-    </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U242" s="13"/>
+      <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="X242" s="1"/>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
@@ -4815,12 +4855,12 @@
       <c r="H243" s="11"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
-      <c r="M243" s="13"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-    </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U243" s="13"/>
+      <c r="V243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="X243" s="1"/>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -4829,12 +4869,12 @@
       <c r="H244" s="11"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
-      <c r="M244" s="13"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
-    </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U244" s="13"/>
+      <c r="V244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="X244" s="1"/>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -4843,12 +4883,12 @@
       <c r="H245" s="11"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
-      <c r="M245" s="13"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-    </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U245" s="13"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
@@ -4857,12 +4897,12 @@
       <c r="H246" s="11"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
-      <c r="M246" s="13"/>
-      <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
-    </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U246" s="13"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
@@ -4871,12 +4911,12 @@
       <c r="H247" s="11"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
-    </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U247" s="13"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
@@ -4885,12 +4925,12 @@
       <c r="H248" s="11"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
-      <c r="M248" s="13"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-    </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U248" s="13"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
@@ -4899,12 +4939,12 @@
       <c r="H249" s="11"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
-      <c r="M249" s="13"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-    </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U249" s="13"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
@@ -4913,12 +4953,12 @@
       <c r="H250" s="11"/>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
-      <c r="M250" s="13"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-    </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U250" s="13"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
@@ -4927,12 +4967,12 @@
       <c r="H251" s="11"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
-      <c r="M251" s="13"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-    </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U251" s="13"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+    </row>
+    <row r="252" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
@@ -4941,12 +4981,12 @@
       <c r="H252" s="11"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
-      <c r="M252" s="13"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-    </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U252" s="13"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
@@ -4955,12 +4995,12 @@
       <c r="H253" s="11"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
-      <c r="M253" s="13"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-    </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U253" s="13"/>
+      <c r="V253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="X253" s="1"/>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
@@ -4969,12 +5009,12 @@
       <c r="H254" s="11"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
-      <c r="M254" s="13"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-    </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U254" s="13"/>
+      <c r="V254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="X254" s="1"/>
+    </row>
+    <row r="255" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
@@ -4983,12 +5023,12 @@
       <c r="H255" s="11"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
-      <c r="M255" s="13"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-    </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U255" s="13"/>
+      <c r="V255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="X255" s="1"/>
+    </row>
+    <row r="256" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
@@ -4997,12 +5037,12 @@
       <c r="H256" s="11"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
-      <c r="M256" s="13"/>
-      <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
-      <c r="P256" s="1"/>
-    </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U256" s="13"/>
+      <c r="V256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="X256" s="1"/>
+    </row>
+    <row r="257" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
@@ -5011,12 +5051,12 @@
       <c r="H257" s="11"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
-      <c r="M257" s="13"/>
-      <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
-      <c r="P257" s="1"/>
-    </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U257" s="13"/>
+      <c r="V257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="X257" s="1"/>
+    </row>
+    <row r="258" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
@@ -5025,12 +5065,12 @@
       <c r="H258" s="11"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
-      <c r="M258" s="13"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-    </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U258" s="13"/>
+      <c r="V258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="X258" s="1"/>
+    </row>
+    <row r="259" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
@@ -5039,12 +5079,12 @@
       <c r="H259" s="11"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
-      <c r="M259" s="13"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-    </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U259" s="13"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="X259" s="1"/>
+    </row>
+    <row r="260" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
@@ -5053,12 +5093,12 @@
       <c r="H260" s="11"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
-      <c r="M260" s="13"/>
-      <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
-      <c r="P260" s="1"/>
-    </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U260" s="13"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1"/>
+    </row>
+    <row r="261" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
@@ -5067,12 +5107,12 @@
       <c r="H261" s="11"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
-      <c r="M261" s="13"/>
-      <c r="N261" s="1"/>
-      <c r="O261" s="1"/>
-      <c r="P261" s="1"/>
-    </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U261" s="13"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="X261" s="1"/>
+    </row>
+    <row r="262" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
@@ -5081,12 +5121,12 @@
       <c r="H262" s="11"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
-      <c r="M262" s="13"/>
-      <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
-      <c r="P262" s="1"/>
-    </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U262" s="13"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="X262" s="1"/>
+    </row>
+    <row r="263" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
@@ -5095,12 +5135,12 @@
       <c r="H263" s="11"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
-      <c r="M263" s="13"/>
-      <c r="N263" s="1"/>
-      <c r="O263" s="1"/>
-      <c r="P263" s="1"/>
-    </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U263" s="13"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="X263" s="1"/>
+    </row>
+    <row r="264" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
@@ -5109,12 +5149,12 @@
       <c r="H264" s="11"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
-      <c r="M264" s="13"/>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
-      <c r="P264" s="1"/>
-    </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U264" s="13"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="X264" s="1"/>
+    </row>
+    <row r="265" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
@@ -5123,12 +5163,12 @@
       <c r="H265" s="11"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
-      <c r="M265" s="13"/>
-      <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
-      <c r="P265" s="1"/>
-    </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="U265" s="13"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="X265" s="1"/>
+    </row>
+    <row r="266" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
@@ -5137,14 +5177,13 @@
       <c r="H266" s="11"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
-      <c r="M266" s="13"/>
-      <c r="N266" s="1"/>
-      <c r="O266" s="1"/>
-      <c r="P266" s="1"/>
+      <c r="U266" s="13"/>
+      <c r="V266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="X266" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="L9:L12"/>
+  <mergeCells count="13">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="I11:K11"/>

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC2D6D-82B9-4F8F-A76F-A97AD6A7212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B1985D-564C-46CD-A912-C6B2BBB82E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5063" yWindow="90" windowWidth="23684" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,24 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Project Name</t>
-  </si>
-  <si>
-    <t>NDER 6 Region 4</t>
   </si>
   <si>
     <t>ESPC Phase</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>ESCO Name</t>
-  </si>
-  <si>
-    <t>ABM</t>
   </si>
   <si>
     <t>Volume 1 Submittal Date</t>
@@ -135,34 +126,7 @@
     <t>Volume 1 Table Aliases</t>
   </si>
   <si>
-    <t>Annual Estimated Energy Savings (MMBtu)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total Utility ($/yr) Cost Savings Year 1 </t>
-  </si>
-  <si>
-    <t>Total Energy (mmBTU) Savings Year 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Project ($) Cost </t>
-  </si>
-  <si>
     <t>Vol. 1 Alias</t>
-  </si>
-  <si>
-    <t>Electricity Consumption  (kWh/yr) Savings Year 1</t>
-  </si>
-  <si>
-    <t>Electricity Demand  (kW/mo) Savings Year 1</t>
-  </si>
-  <si>
-    <t>Nat Gas Consumption  (MMBTU/yr) Savings Year 1</t>
-  </si>
-  <si>
-    <t>Water Sewer Consumption (kGal) Savings Year 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Pay back </t>
   </si>
   <si>
     <t>Volume 2 Table Aliases</t>
@@ -268,153 +232,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>RL TIMBERLAKE TC. 2.11</t>
-  </si>
-  <si>
-    <t>Option D</t>
-  </si>
-  <si>
-    <t>RL TIMBERLAKE TC. 5.01</t>
-  </si>
-  <si>
-    <t>Option A</t>
-  </si>
-  <si>
-    <t>RL TIMBERLAKE TC. 12.01</t>
-  </si>
-  <si>
-    <t>RL TIMBERLAKE TC.13.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.2.01</t>
-  </si>
-  <si>
-    <t>5.01/5.03</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.2.04</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.3.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.5.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.8.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.12.01</t>
-  </si>
-  <si>
-    <t>ROGERS FED. TC.13.01</t>
-  </si>
-  <si>
-    <t>ROGERS AUT TC.5.01</t>
-  </si>
-  <si>
-    <t>ROGERS AUT TC.12.01</t>
-  </si>
-  <si>
-    <t>ROGERS AUT TC.13.01</t>
-  </si>
-  <si>
-    <t>WD FERG. TC.2.01</t>
-  </si>
-  <si>
-    <t>WD FERG. TC.3.01</t>
-  </si>
-  <si>
-    <t>WD FERG. TC.5.01</t>
-  </si>
-  <si>
-    <t>WD FERG. TC.12.01</t>
-  </si>
-  <si>
-    <t>WD FERG. TC.13.01</t>
-  </si>
-  <si>
-    <t>GAINESVILLE TC. 5.01</t>
-  </si>
-  <si>
-    <t>GAINESVILLE TC.5.03</t>
-  </si>
-  <si>
-    <t>GAINESVILLE TC. 6.01</t>
-  </si>
-  <si>
-    <t>GAINESVILLE TC. 12.01</t>
-  </si>
-  <si>
-    <t>GAINESVILLE TC.13.01</t>
-  </si>
-  <si>
-    <t>YOUNG A TC.5.01</t>
-  </si>
-  <si>
-    <t>YOUNG A TC.12.01</t>
-  </si>
-  <si>
-    <t>YOUNG A TC.13.01</t>
-  </si>
-  <si>
-    <t>YOUNG FED TC. 5.01</t>
-  </si>
-  <si>
-    <t>YOUNG FED TC. 12.01</t>
-  </si>
-  <si>
-    <t>YOUNG FED TC.13.01</t>
-  </si>
-  <si>
-    <t>GIBBONS TC. 5.01</t>
-  </si>
-  <si>
-    <t>GIBBONS TC. 8.01</t>
-  </si>
-  <si>
-    <t>GIBBONS TC. 12.01</t>
-  </si>
-  <si>
-    <t>GIBBONS TC.13.01</t>
-  </si>
-  <si>
-    <t>CLAUDE PEPPER TC. 5.01</t>
-  </si>
-  <si>
-    <t>CLAUDE PEPPER TC. 8.01</t>
-  </si>
-  <si>
-    <t>CLAUDE PEPPER TC. 12.01</t>
-  </si>
-  <si>
-    <t>CLAUDE PEPPER TC.13.01</t>
-  </si>
-  <si>
-    <t>BENNETT TC. 5.01</t>
-  </si>
-  <si>
-    <t>BENNETT TC. 12.01</t>
-  </si>
-  <si>
-    <t>BENNETT TC.13.01</t>
-  </si>
-  <si>
-    <t>SIMPSON TC.2.01</t>
-  </si>
-  <si>
-    <t>SIMPSON  TC.3.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIMPSON TC.5.01</t>
-  </si>
-  <si>
-    <t>SIMPSON TC.12.01</t>
-  </si>
-  <si>
-    <t>SIMPSON TC.13.01</t>
   </si>
 </sst>
 </file>
@@ -780,24 +597,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1247,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:CV266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK5" workbookViewId="0">
-      <selection activeCell="CS32" sqref="CS32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AP26" sqref="AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1340,71 +1157,65 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:100" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:100" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20"/>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="15">
         <f>SUM(C9,D9,G9,H9,CP9,CQ9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:100" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18">
         <f t="array" ref="C9">SUM(IF(ROUND(B15:B266,0)&lt;&gt;ROUND(C15:C266,0), 1, 0)) + COUNTBLANK(B15:B266) + COUNTIF(B15:B266, 0) - COUNTBLANK(C15:C266) - COUNTIF(C15:C266, 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="19">
         <f t="array" ref="D9">SUM(IF(ROUND(B15:B266,0)&lt;&gt;ROUND(D15:D266,0), 1, 0)) + COUNTBLANK(B15:B266) + COUNTIF(B15:B266, 0) - COUNTBLANK(D15:D266) - COUNTIF(D15:D266, 0)</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9" s="18">
         <f t="array" ref="H9">SUM(IF(ROUND(G15:G266,0)&lt;&gt;ROUND(H15:H266,0), 1, 0)) + COUNTBLANK(G15:G266) + COUNTIF(G15:G266, 0) - COUNTBLANK(H15:H266) - COUNTIF(H15:H266, 0)</f>
@@ -1415,18 +1226,18 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N9" s="18">
         <f t="array" ref="N9">SUM(IF(ROUND(L15:L266,0)&lt;&gt;ROUND(M15:M266,0), 1, 0)) + COUNTBLANK(L15:L266) + COUNTIF(L15:L266, 0) - COUNTBLANK(M15:M266) - COUNTIF(M15:M266, 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="15">
         <f t="array" ref="O9">SUM(IF(ROUND(L15:L266,0)&lt;&gt;ROUND(N15:N266,0), 1, 0)) + COUNTBLANK(L15:L266) + COUNTIF(L15:L266, 0) - COUNTBLANK(N15:N266) - COUNTIF(N15:N266, 0)</f>
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S9" s="18">
         <f t="array" ref="S9">SUM(IF(ROUND(Q15:Q266,0)&lt;&gt;ROUND(R15:R266,0), 1, 0)) + COUNTBLANK(Q15:Q266) + COUNTIF(Q15:Q266, 0) - COUNTBLANK(R15:R266) - COUNTIF(R15:R266, 0)</f>
@@ -1437,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X9" s="18">
         <f t="array" ref="X9">SUM(IF(ROUND(V15:V266,0)&lt;&gt;ROUND(W15:W266,0), 1, 0)) + COUNTBLANK(V15:V266) + COUNTIF(V15:V266, 0) - COUNTBLANK(W15:W266) - COUNTIF(W15:W266, 0)</f>
@@ -1448,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC9" s="18">
         <f t="array" ref="AC9">SUM(IF(ROUND(AA15:AA266,0)&lt;&gt;ROUND(AB15:AB266,0), 1, 0)) + COUNTBLANK(AA15:AA266) + COUNTIF(AA15:AA266, 0) - COUNTBLANK(AB15:AB266) - COUNTIF(AB15:AB266, 0)</f>
@@ -1459,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AH9" s="18">
         <f t="array" ref="AH9">SUM(IF(ROUND(AF15:AF266,0)&lt;&gt;ROUND(AG15:AG266,0), 1, 0)) + COUNTBLANK(AF15:AF266) + COUNTIF(AF15:AF266, 0) - COUNTBLANK(AG15:AG266) - COUNTIF(AG15:AG266, 0)</f>
@@ -1470,18 +1281,18 @@
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AM9" s="18">
         <f t="array" ref="AM9">SUM(IF(ROUND(AK15:AK266,0)&lt;&gt;ROUND(AL15:AL266,0), 1, 0)) + COUNTBLANK(AK15:AK266) + COUNTIF(AK15:AK266, 0) - COUNTBLANK(AL15:AL266) - COUNTIF(AL15:AL266, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="15">
         <f t="array" ref="AN9">SUM(IF(ROUND(AK15:AK266,0)&lt;&gt;ROUND(AM15:AM266,0), 1, 0)) + COUNTBLANK(AK15:AK266) + COUNTIF(AK15:AK266, 0) - COUNTBLANK(AM15:AM266) - COUNTIF(AM15:AM266, 0)</f>
         <v>0</v>
       </c>
       <c r="AQ9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR9" s="18">
         <f t="array" ref="AR9">SUM(IF(ROUND(AP15:AP266,0)&lt;&gt;ROUND(AQ15:AQ266,0), 1, 0)) + COUNTBLANK(AP15:AP266) + COUNTIF(AP15:AP266, 0) - COUNTBLANK(AQ15:AQ266) - COUNTIF(AQ15:AQ266, 0)</f>
@@ -1492,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="AV9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW9" s="18">
         <f t="array" ref="AW9">SUM(IF(ROUND(AU15:AU266,0)&lt;&gt;ROUND(AV15:AV266,0), 1, 0)) + COUNTBLANK(AU15:AU266) + COUNTIF(AU15:AU266, 0) - COUNTBLANK(AV15:AV266) - COUNTIF(AV15:AV266, 0)</f>
@@ -1503,18 +1314,18 @@
         <v>0</v>
       </c>
       <c r="BA9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB9" s="18">
         <f t="array" ref="BB9">SUM(IF(ROUND(AZ15:AZ266,0)&lt;&gt;ROUND(BA15:BA266,0), 1, 0)) + COUNTBLANK(AZ15:AZ266) + COUNTIF(AZ15:AZ266, 0) - COUNTBLANK(BA15:BA266) - COUNTIF(BA15:BA266, 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="15">
         <f t="array" ref="BC9">SUM(IF(ROUND(AZ15:AZ266,0)&lt;&gt;ROUND(BB15:BB266,0), 1, 0)) + COUNTBLANK(AZ15:AZ266) + COUNTIF(AZ15:AZ266, 0) - COUNTBLANK(BB15:BB266) - COUNTIF(BB15:BB266, 0)</f>
         <v>0</v>
       </c>
       <c r="BF9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BG9" s="18">
         <f t="array" ref="BG9">SUM(IF(ROUND(BE15:BE266,0)&lt;&gt;ROUND(BF15:BF266,0), 1, 0)) + COUNTBLANK(BE15:BE266) + COUNTIF(BE15:BE266, 0) - COUNTBLANK(BF15:BF266) - COUNTIF(BF15:BF266, 0)</f>
@@ -1525,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="BK9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BL9" s="18">
         <f t="array" ref="BL9">SUM(IF(ROUND(BJ15:BJ266,0)&lt;&gt;ROUND(BK15:BK266,0), 1, 0)) + COUNTBLANK(BJ15:BJ266) + COUNTIF(BJ15:BJ266, 0) - COUNTBLANK(BK15:BK266) - COUNTIF(BK15:BK266, 0)</f>
@@ -1536,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BP9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BQ9" s="18">
         <f t="array" ref="BQ9">SUM(IF(ROUND(BO15:BO266,0)&lt;&gt;ROUND(BP15:BP266,0), 1, 0)) + COUNTBLANK(BO15:BO266) + COUNTIF(BO15:BO266, 0) - COUNTBLANK(BP15:BP266) - COUNTIF(BP15:BP266, 0)</f>
@@ -1547,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="BU9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BV9" s="18">
         <f t="array" ref="BV9">SUM(IF(ROUND(BT15:BT266,0)&lt;&gt;ROUND(BU15:BU266,0), 1, 0)) + COUNTBLANK(BT15:BT266) + COUNTIF(BT15:BT266, 0) - COUNTBLANK(BU15:BU266) - COUNTIF(BU15:BU266, 0)</f>
@@ -1558,18 +1369,18 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="CA9" s="18" t="e">
+      <c r="CA9" s="18">
         <f t="array" ref="CA9">SUM(IF(ROUND(BY15:BY266,0)&lt;&gt;ROUND(BZ15:BZ266,0), 1, 0)) + COUNTBLANK(BY15:BY266) + COUNTIF(BY15:BY266, 0) - COUNTBLANK(BZ15:BZ266) - COUNTIF(BZ15:BZ266, 0)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
-      <c r="CB9" s="15" t="e">
+      <c r="CB9" s="15">
         <f t="array" ref="CB9">SUM(IF(ROUND(BY15:BY266,0)&lt;&gt;ROUND(CA15:CA266,0), 1, 0)) + COUNTBLANK(BY15:BY266) + COUNTIF(BY15:BY266, 0) - COUNTBLANK(CA15:CA266) - COUNTIF(CA15:CA266, 0)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CF9" s="18">
         <f t="array" ref="CF9">SUM(IF(ROUND(CD15:CD266,0)&lt;&gt;ROUND(CE15:CE266,0), 1, 0)) + COUNTBLANK(CD15:CD266) + COUNTIF(CD15:CD266, 0) - COUNTBLANK(CE15:CE266) - COUNTIF(CE15:CE266, 0)</f>
@@ -1580,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CK9" s="18">
         <f t="array" ref="CK9">SUM(IF(ROUND(CI15:CI266,0)&lt;&gt;ROUND(CJ15:CJ266,0), 1, 0)) + COUNTBLANK(CI15:CI266) + COUNTIF(CI15:CI266, 0) - COUNTBLANK(CJ15:CJ266) - COUNTIF(CJ15:CJ266, 0)</f>
@@ -1591,11 +1402,11 @@
         <v>0</v>
       </c>
       <c r="CO9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CP9" s="18">
         <f t="array" ref="CP9">SUM(IF(ROUND(CN15:CN266,0)&lt;&gt;ROUND(CO15:CO266,0), 1, 0)) + COUNTBLANK(CN15:CN266) + COUNTIF(CN15:CN266, 0) - COUNTBLANK(CO15:CO266) - COUNTIF(CO15:CO266, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ9" s="15">
         <f t="array" ref="CQ9">SUM(IF(ROUND(CN15:CN266,0)&lt;&gt;ROUND(CP15:CP266,0), 1, 0)) + COUNTBLANK(CN15:CN266) + COUNTIF(CN15:CN266, 0) - COUNTBLANK(CP15:CP266) - COUNTIF(CP15:CP266, 0)</f>
@@ -1604,364 +1415,346 @@
     </row>
     <row r="10" spans="1:100" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41"/>
       <c r="G10" s="39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="41"/>
       <c r="I10" s="39" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="41"/>
       <c r="L10" s="39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="41"/>
       <c r="Q10" s="39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R10" s="40"/>
       <c r="S10" s="41"/>
       <c r="V10" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="W10" s="40"/>
       <c r="X10" s="41"/>
       <c r="AA10" s="39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB10" s="40"/>
       <c r="AC10" s="41"/>
       <c r="AF10" s="39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="41"/>
       <c r="AK10" s="39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL10" s="40"/>
       <c r="AM10" s="41"/>
       <c r="AP10" s="39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ10" s="40"/>
       <c r="AR10" s="41"/>
       <c r="AU10" s="39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AV10" s="40"/>
       <c r="AW10" s="41"/>
       <c r="AZ10" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA10" s="40"/>
       <c r="BB10" s="41"/>
       <c r="BE10" s="39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BF10" s="40"/>
       <c r="BG10" s="41"/>
       <c r="BJ10" s="39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BK10" s="40"/>
       <c r="BL10" s="41"/>
       <c r="BO10" s="39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BP10" s="40"/>
       <c r="BQ10" s="41"/>
       <c r="BT10" s="39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BU10" s="40"/>
       <c r="BV10" s="41"/>
       <c r="BY10" s="39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BZ10" s="40"/>
       <c r="CA10" s="41"/>
       <c r="CD10" s="39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="CE10" s="40"/>
       <c r="CF10" s="41"/>
       <c r="CI10" s="39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="CJ10" s="40"/>
       <c r="CK10" s="41"/>
       <c r="CN10" s="39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="CO10" s="40"/>
       <c r="CP10" s="41"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="44" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="49"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="45" t="s">
-        <v>35</v>
-      </c>
+      <c r="G11" s="42"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="45" t="s">
-        <v>36</v>
-      </c>
+      <c r="I11" s="42"/>
       <c r="J11" s="40"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="45" t="s">
-        <v>37</v>
-      </c>
+      <c r="L11" s="42"/>
       <c r="M11" s="40"/>
       <c r="N11" s="41"/>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="Q11" s="45"/>
+      <c r="Q11" s="42"/>
       <c r="R11" s="40"/>
       <c r="S11" s="41"/>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="V11" s="45"/>
+      <c r="V11" s="42"/>
       <c r="W11" s="40"/>
       <c r="X11" s="41"/>
       <c r="Y11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AA11" s="45"/>
+      <c r="AA11" s="42"/>
       <c r="AB11" s="40"/>
       <c r="AC11" s="41"/>
       <c r="AD11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AF11" s="45"/>
+      <c r="AF11" s="42"/>
       <c r="AG11" s="40"/>
       <c r="AH11" s="41"/>
       <c r="AI11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AK11" s="45" t="s">
-        <v>39</v>
-      </c>
+      <c r="AK11" s="42"/>
       <c r="AL11" s="40"/>
       <c r="AM11" s="41"/>
       <c r="AN11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AP11" s="45" t="s">
-        <v>40</v>
-      </c>
+      <c r="AP11" s="42"/>
       <c r="AQ11" s="40"/>
       <c r="AR11" s="41"/>
       <c r="AS11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AU11" s="45" t="s">
-        <v>41</v>
-      </c>
+      <c r="AU11" s="42"/>
       <c r="AV11" s="40"/>
       <c r="AW11" s="41"/>
       <c r="AX11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="AZ11" s="45" t="s">
-        <v>42</v>
-      </c>
+      <c r="AZ11" s="42"/>
       <c r="BA11" s="40"/>
       <c r="BB11" s="41"/>
       <c r="BC11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="BE11" s="45"/>
+      <c r="BE11" s="42"/>
       <c r="BF11" s="40"/>
       <c r="BG11" s="41"/>
       <c r="BH11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="BJ11" s="45"/>
+      <c r="BJ11" s="42"/>
       <c r="BK11" s="40"/>
       <c r="BL11" s="41"/>
       <c r="BM11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="BO11" s="45"/>
+      <c r="BO11" s="42"/>
       <c r="BP11" s="40"/>
       <c r="BQ11" s="41"/>
       <c r="BR11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="BT11" s="45"/>
+      <c r="BT11" s="42"/>
       <c r="BU11" s="40"/>
       <c r="BV11" s="41"/>
       <c r="BW11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="BY11" s="45"/>
+      <c r="BY11" s="42"/>
       <c r="BZ11" s="40"/>
       <c r="CA11" s="41"/>
       <c r="CB11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="CD11" s="45"/>
+      <c r="CD11" s="42"/>
       <c r="CE11" s="40"/>
       <c r="CF11" s="41"/>
       <c r="CG11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="CI11" s="45"/>
+      <c r="CI11" s="42"/>
       <c r="CJ11" s="40"/>
       <c r="CK11" s="41"/>
       <c r="CL11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
-      <c r="CN11" s="45" t="s">
-        <v>43</v>
-      </c>
+      <c r="CN11" s="42"/>
       <c r="CO11" s="40"/>
       <c r="CP11" s="41"/>
       <c r="CQ11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:100" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="43"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="47"/>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="Q12" s="45"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="40"/>
       <c r="S12" s="41"/>
       <c r="T12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="V12" s="45"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="40"/>
       <c r="X12" s="41"/>
       <c r="Y12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AA12" s="45"/>
+      <c r="AA12" s="42"/>
       <c r="AB12" s="40"/>
       <c r="AC12" s="41"/>
       <c r="AD12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AF12" s="45"/>
+      <c r="AF12" s="42"/>
       <c r="AG12" s="40"/>
       <c r="AH12" s="41"/>
       <c r="AI12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AK12" s="45"/>
+      <c r="AK12" s="42"/>
       <c r="AL12" s="40"/>
       <c r="AM12" s="41"/>
       <c r="AN12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AP12" s="45"/>
+      <c r="AP12" s="42"/>
       <c r="AQ12" s="40"/>
       <c r="AR12" s="41"/>
       <c r="AS12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AU12" s="45"/>
+      <c r="AU12" s="42"/>
       <c r="AV12" s="40"/>
       <c r="AW12" s="41"/>
       <c r="AX12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="AZ12" s="45"/>
+      <c r="AZ12" s="42"/>
       <c r="BA12" s="40"/>
       <c r="BB12" s="41"/>
       <c r="BC12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="BE12" s="45"/>
+      <c r="BE12" s="42"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="41"/>
       <c r="BH12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="BJ12" s="45"/>
+      <c r="BJ12" s="42"/>
       <c r="BK12" s="40"/>
       <c r="BL12" s="41"/>
       <c r="BM12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="BO12" s="45"/>
+      <c r="BO12" s="42"/>
       <c r="BP12" s="40"/>
       <c r="BQ12" s="41"/>
       <c r="BR12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="BT12" s="45"/>
+      <c r="BT12" s="42"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="41"/>
       <c r="BW12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="BY12" s="45"/>
+      <c r="BY12" s="42"/>
       <c r="BZ12" s="40"/>
       <c r="CA12" s="41"/>
       <c r="CB12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="CD12" s="45"/>
+      <c r="CD12" s="42"/>
       <c r="CE12" s="40"/>
       <c r="CF12" s="41"/>
       <c r="CG12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="CI12" s="45"/>
+      <c r="CI12" s="42"/>
       <c r="CJ12" s="40"/>
       <c r="CK12" s="41"/>
       <c r="CL12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
-      <c r="CN12" s="45"/>
+      <c r="CN12" s="42"/>
       <c r="CO12" s="40"/>
       <c r="CP12" s="41"/>
       <c r="CQ12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:100" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2048,7 +1841,7 @@
       <c r="CF13" s="5"/>
       <c r="CG13" s="5"/>
       <c r="CH13" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5"/>
@@ -2060,7 +1853,7 @@
       <c r="CP13" s="5"/>
       <c r="CQ13" s="5"/>
       <c r="CR13" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="CS13" s="5"/>
       <c r="CT13" s="5"/>
@@ -2068,288 +1861,282 @@
     </row>
     <row r="14" spans="1:100" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="27" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J14" s="28"/>
       <c r="K14" s="36" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="O14" s="33"/>
       <c r="P14" s="27" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="V14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="X14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Y14" s="29"/>
       <c r="Z14" s="27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AC14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AD14" s="29"/>
       <c r="AE14" s="27" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AG14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AH14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AI14" s="29"/>
       <c r="AJ14" s="27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="AK14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AL14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AM14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AN14" s="29"/>
       <c r="AO14" s="27" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="AP14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AQ14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AR14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AS14" s="29"/>
       <c r="AT14" s="27" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AU14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AV14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AW14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="AX14" s="29"/>
       <c r="AY14" s="27" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AZ14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BA14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BB14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BC14" s="29"/>
       <c r="BD14" s="27" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="BE14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BF14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BG14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BH14" s="29"/>
       <c r="BI14" s="27" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BJ14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BK14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BL14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BM14" s="29"/>
       <c r="BN14" s="27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="BO14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BP14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BQ14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BR14" s="29"/>
       <c r="BS14" s="27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="BT14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BU14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="BV14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="BW14" s="29"/>
       <c r="BX14" s="27" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="BY14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="BZ14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="CA14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="CB14" s="29"/>
       <c r="CC14" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="CD14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="CE14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="CF14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="CG14" s="5"/>
       <c r="CH14" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="CI14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="CJ14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="CK14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="CL14" s="5"/>
       <c r="CM14" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="CN14" s="28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="CO14" s="28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="CP14" s="28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="CQ14" s="5"/>
       <c r="CR14" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="CS14" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="CT14" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="CU14" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
-      <c r="B15" s="31">
-        <v>1942029.96199376</v>
-      </c>
+      <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="8"/>
       <c r="F15" s="34" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
-      <c r="G15" s="23">
-        <v>57171.01823675519</v>
-      </c>
-      <c r="H15" s="37">
-        <v>57171</v>
-      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
@@ -2421,11 +2208,9 @@
       <c r="CP15" s="6"/>
       <c r="CQ15" s="6"/>
       <c r="CR15" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
-      <c r="CS15" s="12">
-        <v>1942030.2642937601</v>
-      </c>
+      <c r="CS15" s="12"/>
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
@@ -2516,44 +2301,25 @@
       <c r="CU16" s="2"/>
       <c r="CV16" s="2"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="8">
-        <v>38972</v>
-      </c>
-      <c r="C17" s="8">
-        <v>38972</v>
-      </c>
+    <row r="17" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="6">
-        <v>1332.386</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1332</v>
-      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="12">
-        <v>1033791</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1033792.34</v>
-      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="6"/>
-      <c r="Q17" s="6">
-        <v>1242313</v>
-      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="10"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="V17" s="6">
-        <v>35</v>
-      </c>
+      <c r="V17" s="6"/>
       <c r="W17" s="10"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -2565,20 +2331,12 @@
       <c r="AG17" s="10"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
-      <c r="AK17" s="6">
-        <v>390500</v>
-      </c>
-      <c r="AL17" s="10">
-        <v>390500</v>
-      </c>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="10"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
-      <c r="AP17" s="6">
-        <v>30</v>
-      </c>
-      <c r="AQ17" s="10">
-        <v>30</v>
-      </c>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="10"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AU17" s="6"/>
@@ -2610,9 +2368,7 @@
       <c r="BU17" s="38"/>
       <c r="BV17" s="38"/>
       <c r="BW17" s="38"/>
-      <c r="BY17" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY17" s="6"/>
       <c r="BZ17" s="10"/>
       <c r="CA17" s="6"/>
       <c r="CB17" s="6"/>
@@ -2625,62 +2381,35 @@
       <c r="CJ17" s="38"/>
       <c r="CK17" s="38"/>
       <c r="CL17" s="38"/>
-      <c r="CN17" s="6">
-        <v>26.526506209586369</v>
-      </c>
-      <c r="CO17" s="10">
-        <v>27</v>
-      </c>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="10"/>
       <c r="CP17" s="6"/>
       <c r="CQ17" s="6"/>
-      <c r="CR17" s="3">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="CS17" s="12">
-        <v>245093</v>
-      </c>
+      <c r="CR17" s="3"/>
+      <c r="CS17" s="12"/>
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="8">
-        <v>31552</v>
-      </c>
-      <c r="C18" s="8">
-        <v>31552</v>
-      </c>
+    <row r="18" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="G18" s="6">
-        <v>1015.47944</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1015</v>
-      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="12">
-        <v>335982.51138816</v>
-      </c>
-      <c r="M18" s="12">
-        <v>335982.51</v>
-      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="6"/>
-      <c r="Q18" s="6">
-        <v>411805</v>
-      </c>
+      <c r="Q18" s="6"/>
       <c r="R18" s="10"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="V18" s="6">
-        <v>75</v>
-      </c>
+      <c r="V18" s="6"/>
       <c r="W18" s="10"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -2692,20 +2421,12 @@
       <c r="AG18" s="10"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
-      <c r="AK18" s="6">
-        <v>297620</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>297620</v>
-      </c>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="10"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
-      <c r="AP18" s="6">
-        <v>68</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>68</v>
-      </c>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="10"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
       <c r="AU18" s="6"/>
@@ -2716,9 +2437,7 @@
       <c r="BA18" s="10"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
-      <c r="BE18" s="38">
-        <v>29702</v>
-      </c>
+      <c r="BE18" s="38"/>
       <c r="BF18" s="38"/>
       <c r="BG18" s="38"/>
       <c r="BH18" s="38"/>
@@ -2737,15 +2456,11 @@
       <c r="BU18" s="38"/>
       <c r="BV18" s="38"/>
       <c r="BW18" s="38"/>
-      <c r="BY18" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY18" s="6"/>
       <c r="BZ18" s="10"/>
       <c r="CA18" s="6"/>
       <c r="CB18" s="6"/>
-      <c r="CD18" s="38">
-        <v>1850</v>
-      </c>
+      <c r="CD18" s="38"/>
       <c r="CE18" s="38"/>
       <c r="CF18" s="38"/>
       <c r="CG18" s="38"/>
@@ -2754,62 +2469,35 @@
       <c r="CJ18" s="38"/>
       <c r="CK18" s="38"/>
       <c r="CL18" s="38"/>
-      <c r="CN18" s="6">
-        <v>10.64853294206897</v>
-      </c>
-      <c r="CO18" s="10">
-        <v>11</v>
-      </c>
+      <c r="CN18" s="6"/>
+      <c r="CO18" s="10"/>
       <c r="CP18" s="6"/>
       <c r="CQ18" s="6"/>
-      <c r="CR18" s="3">
-        <v>2.04</v>
-      </c>
-      <c r="CS18" s="12">
-        <v>7593</v>
-      </c>
+      <c r="CR18" s="3"/>
+      <c r="CS18" s="12"/>
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="8">
-        <v>11633</v>
-      </c>
-      <c r="C19" s="8">
-        <v>11633</v>
-      </c>
+    <row r="19" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="G19" s="6">
-        <v>397.71978000000001</v>
-      </c>
-      <c r="H19" s="10">
-        <v>398</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="12">
-        <v>218025.2847994905</v>
-      </c>
-      <c r="M19" s="12">
-        <v>218025.28</v>
-      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="6"/>
-      <c r="Q19" s="6">
-        <v>1721883</v>
-      </c>
+      <c r="Q19" s="6"/>
       <c r="R19" s="10"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="V19" s="6">
-        <v>398.89</v>
-      </c>
+      <c r="V19" s="6"/>
       <c r="W19" s="10"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -2821,20 +2509,12 @@
       <c r="AG19" s="10"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
-      <c r="AK19" s="6">
-        <v>116565</v>
-      </c>
-      <c r="AL19" s="10">
-        <v>116565</v>
-      </c>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="10"/>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
-      <c r="AP19" s="6">
-        <v>180</v>
-      </c>
-      <c r="AQ19" s="10">
-        <v>180</v>
-      </c>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="10"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
       <c r="AU19" s="6"/>
@@ -2845,9 +2525,7 @@
       <c r="BA19" s="10"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
-      <c r="BE19" s="38">
-        <v>11633</v>
-      </c>
+      <c r="BE19" s="38"/>
       <c r="BF19" s="38"/>
       <c r="BG19" s="38"/>
       <c r="BH19" s="38"/>
@@ -2866,9 +2544,7 @@
       <c r="BU19" s="38"/>
       <c r="BV19" s="38"/>
       <c r="BW19" s="38"/>
-      <c r="BY19" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY19" s="6"/>
       <c r="BZ19" s="10"/>
       <c r="CA19" s="6"/>
       <c r="CB19" s="6"/>
@@ -2881,49 +2557,28 @@
       <c r="CJ19" s="38"/>
       <c r="CK19" s="38"/>
       <c r="CL19" s="38"/>
-      <c r="CN19" s="6">
-        <v>18.741965511861991</v>
-      </c>
-      <c r="CO19" s="10">
-        <v>19</v>
-      </c>
+      <c r="CN19" s="6"/>
+      <c r="CO19" s="10"/>
       <c r="CP19" s="6"/>
       <c r="CQ19" s="6"/>
-      <c r="CR19" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="CS19" s="12">
-        <v>38972</v>
-      </c>
+      <c r="CR19" s="3"/>
+      <c r="CS19" s="12"/>
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1128.5</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1129</v>
-      </c>
+    <row r="20" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="10"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="12">
-        <v>3048.7124995891199</v>
-      </c>
-      <c r="M20" s="12">
-        <v>3049</v>
-      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="6"/>
       <c r="Q20" s="6"/>
@@ -2938,9 +2593,7 @@
       <c r="AB20" s="10"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AF20" s="6">
-        <v>3394</v>
-      </c>
+      <c r="AF20" s="6"/>
       <c r="AG20" s="10"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
@@ -2956,12 +2609,8 @@
       <c r="AV20" s="10"/>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6"/>
-      <c r="AZ20" s="6">
-        <v>305</v>
-      </c>
-      <c r="BA20" s="10">
-        <v>305</v>
-      </c>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="10"/>
       <c r="BB20" s="6"/>
       <c r="BC20" s="6"/>
       <c r="BE20" s="38"/>
@@ -2979,15 +2628,11 @@
       <c r="BQ20" s="38"/>
       <c r="BR20" s="38"/>
       <c r="BS20" s="38"/>
-      <c r="BT20" s="38">
-        <v>1128.5</v>
-      </c>
+      <c r="BT20" s="38"/>
       <c r="BU20" s="38"/>
       <c r="BV20" s="38"/>
       <c r="BW20" s="38"/>
-      <c r="BY20" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY20" s="6"/>
       <c r="BZ20" s="10"/>
       <c r="CA20" s="6"/>
       <c r="CB20" s="6"/>
@@ -3000,62 +2645,35 @@
       <c r="CJ20" s="38"/>
       <c r="CK20" s="38"/>
       <c r="CL20" s="38"/>
-      <c r="CN20" s="6">
-        <v>2.701561807345255</v>
-      </c>
-      <c r="CO20" s="10">
-        <v>3</v>
-      </c>
+      <c r="CN20" s="6"/>
+      <c r="CO20" s="10"/>
       <c r="CP20" s="6"/>
       <c r="CQ20" s="6"/>
-      <c r="CR20" s="3">
-        <v>3.01</v>
-      </c>
-      <c r="CS20" s="12">
-        <v>194971</v>
-      </c>
+      <c r="CR20" s="3"/>
+      <c r="CS20" s="12"/>
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="8">
-        <v>32168</v>
-      </c>
-      <c r="C21" s="8">
-        <v>32168</v>
-      </c>
+    <row r="21" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="6">
-        <v>1178.9142400000001</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1179</v>
-      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="12">
-        <v>2341235.5997183998</v>
-      </c>
-      <c r="M21" s="12">
-        <v>2341235.6</v>
-      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="6"/>
-      <c r="Q21" s="6">
-        <v>998646</v>
-      </c>
+      <c r="Q21" s="6"/>
       <c r="R21" s="10"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-      <c r="V21" s="6">
-        <v>215</v>
-      </c>
+      <c r="V21" s="6"/>
       <c r="W21" s="10"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -3067,20 +2685,12 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
-      <c r="AK21" s="6">
-        <v>345520</v>
-      </c>
-      <c r="AL21" s="10">
-        <v>345520</v>
-      </c>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="10"/>
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
-      <c r="AP21" s="6">
-        <v>95</v>
-      </c>
-      <c r="AQ21" s="10">
-        <v>95</v>
-      </c>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="10"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
       <c r="AU21" s="6"/>
@@ -3091,9 +2701,7 @@
       <c r="BA21" s="10"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
-      <c r="BE21" s="38">
-        <v>32168</v>
-      </c>
+      <c r="BE21" s="38"/>
       <c r="BF21" s="38"/>
       <c r="BG21" s="38"/>
       <c r="BH21" s="38"/>
@@ -3112,9 +2720,7 @@
       <c r="BU21" s="38"/>
       <c r="BV21" s="38"/>
       <c r="BW21" s="38"/>
-      <c r="BY21" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY21" s="6"/>
       <c r="BZ21" s="10"/>
       <c r="CA21" s="6"/>
       <c r="CB21" s="6"/>
@@ -3127,57 +2733,32 @@
       <c r="CJ21" s="38"/>
       <c r="CK21" s="38"/>
       <c r="CL21" s="38"/>
-      <c r="CN21" s="6">
-        <v>72.781509565978624</v>
-      </c>
-      <c r="CO21" s="10">
-        <v>73</v>
-      </c>
+      <c r="CN21" s="6"/>
+      <c r="CO21" s="10"/>
       <c r="CP21" s="6"/>
       <c r="CQ21" s="6"/>
-      <c r="CR21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CS21" s="12">
-        <v>793536</v>
-      </c>
+      <c r="CR21" s="3"/>
+      <c r="CS21" s="12"/>
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="8">
-        <v>7593</v>
-      </c>
-      <c r="C22" s="8">
-        <v>7593</v>
-      </c>
+    <row r="22" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="6">
-        <v>278.28271999999998</v>
-      </c>
-      <c r="H22" s="10">
-        <v>278</v>
-      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="12">
-        <v>638518.79992319993</v>
-      </c>
-      <c r="M22" s="12">
-        <v>638518.80000000005</v>
-      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="6"/>
       <c r="P22" s="14"/>
-      <c r="Q22" s="6">
-        <v>148578.23999999999</v>
-      </c>
+      <c r="Q22" s="6"/>
       <c r="R22" s="10"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -3197,12 +2778,8 @@
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="14"/>
-      <c r="AK22" s="6">
-        <v>81560</v>
-      </c>
-      <c r="AL22" s="10">
-        <v>81560</v>
-      </c>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="10"/>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="14"/>
@@ -3221,9 +2798,7 @@
       <c r="BB22" s="6"/>
       <c r="BC22" s="6"/>
       <c r="BD22" s="14"/>
-      <c r="BE22" s="38">
-        <v>7593</v>
-      </c>
+      <c r="BE22" s="38"/>
       <c r="BF22" s="38"/>
       <c r="BG22" s="38"/>
       <c r="BH22" s="38"/>
@@ -3243,9 +2818,7 @@
       <c r="BV22" s="38"/>
       <c r="BW22" s="38"/>
       <c r="BX22" s="14"/>
-      <c r="BY22" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY22" s="6"/>
       <c r="BZ22" s="10"/>
       <c r="CA22" s="6"/>
       <c r="CB22" s="6"/>
@@ -3260,56 +2833,31 @@
       <c r="CK22" s="38"/>
       <c r="CL22" s="38"/>
       <c r="CM22" s="14"/>
-      <c r="CN22" s="6">
-        <v>84.093085726748313</v>
-      </c>
-      <c r="CO22" s="10">
-        <v>84</v>
-      </c>
+      <c r="CN22" s="6"/>
+      <c r="CO22" s="10"/>
       <c r="CP22" s="6"/>
       <c r="CQ22" s="6"/>
-      <c r="CR22" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="CS22" s="12">
-        <v>12614</v>
-      </c>
+      <c r="CR22" s="3"/>
+      <c r="CS22" s="12"/>
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="8">
-        <v>27239</v>
-      </c>
-      <c r="C23" s="8">
-        <v>27239</v>
-      </c>
+    <row r="23" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="6">
-        <v>998.26248799999996</v>
-      </c>
-      <c r="H23" s="10">
-        <v>998</v>
-      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="12">
-        <v>714532.94277119997</v>
-      </c>
-      <c r="M23" s="12">
-        <v>714532.94</v>
-      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="6"/>
-      <c r="Q23" s="6">
-        <v>1272343.231072</v>
-      </c>
+      <c r="Q23" s="6"/>
       <c r="R23" s="10"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -3325,12 +2873,8 @@
       <c r="AG23" s="10"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AK23" s="6">
-        <v>292574</v>
-      </c>
-      <c r="AL23" s="10">
-        <v>292574</v>
-      </c>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="10"/>
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
       <c r="AP23" s="6"/>
@@ -3345,9 +2889,7 @@
       <c r="BA23" s="10"/>
       <c r="BB23" s="6"/>
       <c r="BC23" s="6"/>
-      <c r="BE23" s="38">
-        <v>27239</v>
-      </c>
+      <c r="BE23" s="38"/>
       <c r="BF23" s="38"/>
       <c r="BG23" s="38"/>
       <c r="BH23" s="38"/>
@@ -3366,9 +2908,7 @@
       <c r="BU23" s="38"/>
       <c r="BV23" s="38"/>
       <c r="BW23" s="38"/>
-      <c r="BY23" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY23" s="6"/>
       <c r="BZ23" s="10"/>
       <c r="CA23" s="6"/>
       <c r="CB23" s="6"/>
@@ -3381,62 +2921,35 @@
       <c r="CJ23" s="38"/>
       <c r="CK23" s="38"/>
       <c r="CL23" s="38"/>
-      <c r="CN23" s="6">
-        <v>26.231981452006309</v>
-      </c>
-      <c r="CO23" s="10">
-        <v>26</v>
-      </c>
+      <c r="CN23" s="6"/>
+      <c r="CO23" s="10"/>
       <c r="CP23" s="6"/>
       <c r="CQ23" s="6"/>
-      <c r="CR23" s="3">
-        <v>8.01</v>
-      </c>
-      <c r="CS23" s="12">
-        <v>103894</v>
-      </c>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="12"/>
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="8">
-        <v>26392</v>
-      </c>
-      <c r="C24" s="8">
-        <v>26392</v>
-      </c>
+    <row r="24" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="6">
-        <v>904.76686400000006</v>
-      </c>
-      <c r="H24" s="10">
-        <v>905</v>
-      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="12">
-        <v>317739.11710464</v>
-      </c>
-      <c r="M24" s="12">
-        <v>317739.12</v>
-      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="6"/>
-      <c r="Q24" s="6">
-        <v>883908.48</v>
-      </c>
+      <c r="Q24" s="6"/>
       <c r="R24" s="10"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="V24" s="6">
-        <v>90.72</v>
-      </c>
+      <c r="V24" s="6"/>
       <c r="W24" s="10"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -3448,20 +2961,12 @@
       <c r="AG24" s="10"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
-      <c r="AK24" s="6">
-        <v>265172</v>
-      </c>
-      <c r="AL24" s="10">
-        <v>265172</v>
-      </c>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="10"/>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
-      <c r="AP24" s="6">
-        <v>51</v>
-      </c>
-      <c r="AQ24" s="10">
-        <v>51</v>
-      </c>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="10"/>
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
       <c r="AU24" s="6"/>
@@ -3472,9 +2977,7 @@
       <c r="BA24" s="10"/>
       <c r="BB24" s="6"/>
       <c r="BC24" s="6"/>
-      <c r="BE24" s="38">
-        <v>24687</v>
-      </c>
+      <c r="BE24" s="38"/>
       <c r="BF24" s="38"/>
       <c r="BG24" s="38"/>
       <c r="BH24" s="38"/>
@@ -3493,15 +2996,11 @@
       <c r="BU24" s="38"/>
       <c r="BV24" s="38"/>
       <c r="BW24" s="38"/>
-      <c r="BY24" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY24" s="6"/>
       <c r="BZ24" s="10"/>
       <c r="CA24" s="6"/>
       <c r="CB24" s="6"/>
-      <c r="CD24" s="38">
-        <v>1705</v>
-      </c>
+      <c r="CD24" s="38"/>
       <c r="CE24" s="38"/>
       <c r="CF24" s="38"/>
       <c r="CG24" s="38"/>
@@ -3510,56 +3009,31 @@
       <c r="CJ24" s="38"/>
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
-      <c r="CN24" s="6">
-        <v>12.03922086634738</v>
-      </c>
-      <c r="CO24" s="10">
-        <v>12</v>
-      </c>
+      <c r="CN24" s="6"/>
+      <c r="CO24" s="10"/>
       <c r="CP24" s="6"/>
       <c r="CQ24" s="6"/>
-      <c r="CR24" s="3">
-        <v>12.01</v>
-      </c>
-      <c r="CS24" s="12">
-        <v>302083.26429376</v>
-      </c>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="12"/>
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="8">
-        <v>24466</v>
-      </c>
-      <c r="C25" s="8">
-        <v>24466</v>
-      </c>
+    <row r="25" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="6">
-        <v>896.67359999999996</v>
-      </c>
-      <c r="H25" s="10">
-        <v>897</v>
-      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="12">
-        <v>197469.54029053441</v>
-      </c>
-      <c r="M25" s="12">
-        <v>197469.54</v>
-      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="6"/>
-      <c r="Q25" s="6">
-        <v>1156923</v>
-      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="10"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -3575,12 +3049,8 @@
       <c r="AG25" s="10"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
-      <c r="AK25" s="6">
-        <v>262800</v>
-      </c>
-      <c r="AL25" s="10">
-        <v>262800</v>
-      </c>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="10"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
       <c r="AP25" s="6"/>
@@ -3595,9 +3065,7 @@
       <c r="BA25" s="10"/>
       <c r="BB25" s="6"/>
       <c r="BC25" s="6"/>
-      <c r="BE25" s="38">
-        <v>24466</v>
-      </c>
+      <c r="BE25" s="38"/>
       <c r="BF25" s="38"/>
       <c r="BG25" s="38"/>
       <c r="BH25" s="38"/>
@@ -3616,9 +3084,7 @@
       <c r="BU25" s="38"/>
       <c r="BV25" s="38"/>
       <c r="BW25" s="38"/>
-      <c r="BY25" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY25" s="6"/>
       <c r="BZ25" s="10"/>
       <c r="CA25" s="6"/>
       <c r="CB25" s="6"/>
@@ -3631,62 +3097,35 @@
       <c r="CJ25" s="38"/>
       <c r="CK25" s="38"/>
       <c r="CL25" s="38"/>
-      <c r="CN25" s="6">
-        <v>8.0711820604322089</v>
-      </c>
-      <c r="CO25" s="10">
-        <v>8</v>
-      </c>
+      <c r="CN25" s="6"/>
+      <c r="CO25" s="10"/>
       <c r="CP25" s="6"/>
       <c r="CQ25" s="6"/>
-      <c r="CR25" s="3">
-        <v>13.01</v>
-      </c>
-      <c r="CS25" s="12">
-        <v>243274</v>
-      </c>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="12"/>
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="8">
-        <v>8529.2642937599994</v>
-      </c>
-      <c r="C26" s="8">
-        <v>8529.26</v>
-      </c>
+    <row r="26" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="6">
-        <v>312.58700075520011</v>
-      </c>
-      <c r="H26" s="10">
-        <v>313</v>
-      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="12">
-        <v>175185.2341732147</v>
-      </c>
-      <c r="M26" s="12">
-        <v>175185.23</v>
-      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="6"/>
-      <c r="Q26" s="6">
-        <v>3053800.32</v>
-      </c>
+      <c r="Q26" s="6"/>
       <c r="R26" s="10"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="V26" s="6">
-        <v>480.96</v>
-      </c>
+      <c r="V26" s="6"/>
       <c r="W26" s="10"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -3698,20 +3137,12 @@
       <c r="AG26" s="10"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
-      <c r="AK26" s="6">
-        <v>91614.009600000005</v>
-      </c>
-      <c r="AL26" s="10">
-        <v>91614</v>
-      </c>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="10"/>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
-      <c r="AP26" s="6">
-        <v>9.6191999999999993</v>
-      </c>
-      <c r="AQ26" s="10">
-        <v>10</v>
-      </c>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="10"/>
       <c r="AR26" s="6"/>
       <c r="AS26" s="6"/>
       <c r="AU26" s="6"/>
@@ -3722,9 +3153,7 @@
       <c r="BA26" s="10"/>
       <c r="BB26" s="6"/>
       <c r="BC26" s="6"/>
-      <c r="BE26" s="38">
-        <v>8529.2642937599994</v>
-      </c>
+      <c r="BE26" s="38"/>
       <c r="BF26" s="38"/>
       <c r="BG26" s="38"/>
       <c r="BH26" s="38"/>
@@ -3743,9 +3172,7 @@
       <c r="BU26" s="38"/>
       <c r="BV26" s="38"/>
       <c r="BW26" s="38"/>
-      <c r="BY26" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY26" s="6"/>
       <c r="BZ26" s="10"/>
       <c r="CA26" s="6"/>
       <c r="CB26" s="6"/>
@@ -3758,12 +3185,8 @@
       <c r="CJ26" s="38"/>
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
-      <c r="CN26" s="6">
-        <v>20.53931360778444</v>
-      </c>
-      <c r="CO26" s="10">
-        <v>21</v>
-      </c>
+      <c r="CN26" s="6"/>
+      <c r="CO26" s="10"/>
       <c r="CP26" s="6"/>
       <c r="CQ26" s="6"/>
       <c r="CS26" s="12"/>
@@ -3771,31 +3194,18 @@
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="8">
-        <v>10727.64</v>
-      </c>
-      <c r="C27" s="8">
-        <v>23282</v>
-      </c>
+    <row r="27" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="10"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="12">
-        <v>73288.771806781398</v>
-      </c>
-      <c r="M27" s="12">
-        <v>61824</v>
-      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="6"/>
       <c r="Q27" s="6"/>
@@ -3810,9 +3220,7 @@
       <c r="AB27" s="10"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AF27" s="6">
-        <v>5152</v>
-      </c>
+      <c r="AF27" s="6"/>
       <c r="AG27" s="10"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
@@ -3828,12 +3236,8 @@
       <c r="AV27" s="10"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
-      <c r="AZ27" s="6">
-        <v>516</v>
-      </c>
-      <c r="BA27" s="10">
-        <v>1122</v>
-      </c>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="10"/>
       <c r="BB27" s="6"/>
       <c r="BC27" s="6"/>
       <c r="BE27" s="38"/>
@@ -3851,15 +3255,11 @@
       <c r="BQ27" s="38"/>
       <c r="BR27" s="38"/>
       <c r="BS27" s="38"/>
-      <c r="BT27" s="38">
-        <v>10727.64</v>
-      </c>
+      <c r="BT27" s="38"/>
       <c r="BU27" s="38"/>
       <c r="BV27" s="38"/>
       <c r="BW27" s="38"/>
-      <c r="BY27" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY27" s="6"/>
       <c r="BZ27" s="10"/>
       <c r="CA27" s="6"/>
       <c r="CB27" s="6"/>
@@ -3872,12 +3272,8 @@
       <c r="CJ27" s="38"/>
       <c r="CK27" s="38"/>
       <c r="CL27" s="38"/>
-      <c r="CN27" s="6">
-        <v>6.8317702501930899</v>
-      </c>
-      <c r="CO27" s="10">
-        <v>3</v>
-      </c>
+      <c r="CN27" s="6"/>
+      <c r="CO27" s="10"/>
       <c r="CP27" s="6"/>
       <c r="CQ27" s="6"/>
       <c r="CS27" s="12"/>
@@ -3885,44 +3281,25 @@
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="8">
-        <v>21949</v>
-      </c>
-      <c r="C28" s="8">
-        <v>21949</v>
-      </c>
+    <row r="28" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="6">
-        <v>775.44524000000001</v>
-      </c>
-      <c r="H28" s="10">
-        <v>775</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="12">
-        <v>214359.88283136001</v>
-      </c>
-      <c r="M28" s="12">
-        <v>214359.88</v>
-      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="6"/>
-      <c r="Q28" s="6">
-        <v>757567</v>
-      </c>
+      <c r="Q28" s="6"/>
       <c r="R28" s="10"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-      <c r="V28" s="6">
-        <v>68</v>
-      </c>
+      <c r="V28" s="6"/>
       <c r="W28" s="10"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -3934,20 +3311,12 @@
       <c r="AG28" s="10"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
-      <c r="AK28" s="6">
-        <v>227270</v>
-      </c>
-      <c r="AL28" s="10">
-        <v>227270</v>
-      </c>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="10"/>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
-      <c r="AP28" s="6">
-        <v>14</v>
-      </c>
-      <c r="AQ28" s="10">
-        <v>14</v>
-      </c>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="10"/>
       <c r="AR28" s="6"/>
       <c r="AS28" s="6"/>
       <c r="AU28" s="6"/>
@@ -3958,9 +3327,7 @@
       <c r="BA28" s="10"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="6"/>
-      <c r="BE28" s="38">
-        <v>21159</v>
-      </c>
+      <c r="BE28" s="38"/>
       <c r="BF28" s="38"/>
       <c r="BG28" s="38"/>
       <c r="BH28" s="38"/>
@@ -3979,15 +3346,11 @@
       <c r="BU28" s="38"/>
       <c r="BV28" s="38"/>
       <c r="BW28" s="38"/>
-      <c r="BY28" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY28" s="6"/>
       <c r="BZ28" s="10"/>
       <c r="CA28" s="6"/>
       <c r="CB28" s="6"/>
-      <c r="CD28" s="38">
-        <v>790</v>
-      </c>
+      <c r="CD28" s="38"/>
       <c r="CE28" s="38"/>
       <c r="CF28" s="38"/>
       <c r="CG28" s="38"/>
@@ -3996,12 +3359,8 @@
       <c r="CJ28" s="38"/>
       <c r="CK28" s="38"/>
       <c r="CL28" s="38"/>
-      <c r="CN28" s="6">
-        <v>9.7662710297216275</v>
-      </c>
-      <c r="CO28" s="10">
-        <v>10</v>
-      </c>
+      <c r="CN28" s="6"/>
+      <c r="CO28" s="10"/>
       <c r="CP28" s="6"/>
       <c r="CQ28" s="6"/>
       <c r="CS28" s="12"/>
@@ -4009,44 +3368,25 @@
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="8">
-        <v>7695</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7695</v>
-      </c>
+    <row r="29" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="6">
-        <v>270.39758799999998</v>
-      </c>
-      <c r="H29" s="10">
-        <v>270</v>
-      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="12">
-        <v>163691.8957745971</v>
-      </c>
-      <c r="M29" s="12">
-        <v>163691.9</v>
-      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="6"/>
-      <c r="Q29" s="6">
-        <v>3308283.68</v>
-      </c>
+      <c r="Q29" s="6"/>
       <c r="R29" s="10"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-      <c r="V29" s="6">
-        <v>521.04</v>
-      </c>
+      <c r="V29" s="6"/>
       <c r="W29" s="10"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -4058,20 +3398,12 @@
       <c r="AG29" s="10"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
-      <c r="AK29" s="6">
-        <v>79249</v>
-      </c>
-      <c r="AL29" s="10">
-        <v>79249</v>
-      </c>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="10"/>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
-      <c r="AP29" s="6">
-        <v>10.4208</v>
-      </c>
-      <c r="AQ29" s="10">
-        <v>10</v>
-      </c>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="10"/>
       <c r="AR29" s="6"/>
       <c r="AS29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4082,9 +3414,7 @@
       <c r="BA29" s="10"/>
       <c r="BB29" s="6"/>
       <c r="BC29" s="6"/>
-      <c r="BE29" s="38">
-        <v>7695</v>
-      </c>
+      <c r="BE29" s="38"/>
       <c r="BF29" s="38"/>
       <c r="BG29" s="38"/>
       <c r="BH29" s="38"/>
@@ -4103,9 +3433,7 @@
       <c r="BU29" s="38"/>
       <c r="BV29" s="38"/>
       <c r="BW29" s="38"/>
-      <c r="BY29" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY29" s="6"/>
       <c r="BZ29" s="10"/>
       <c r="CA29" s="6"/>
       <c r="CB29" s="6"/>
@@ -4118,12 +3446,8 @@
       <c r="CJ29" s="38"/>
       <c r="CK29" s="38"/>
       <c r="CL29" s="38"/>
-      <c r="CN29" s="6">
-        <v>21.272501075321259</v>
-      </c>
-      <c r="CO29" s="10">
-        <v>21</v>
-      </c>
+      <c r="CN29" s="6"/>
+      <c r="CO29" s="10"/>
       <c r="CP29" s="6"/>
       <c r="CQ29" s="6"/>
       <c r="CS29" s="12"/>
@@ -4131,31 +3455,18 @@
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="8">
-        <v>23282</v>
-      </c>
-      <c r="C30" s="8">
-        <v>10728</v>
-      </c>
+    <row r="30" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="10"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="12">
-        <v>61823.628007464999</v>
-      </c>
-      <c r="M30" s="12">
-        <v>73289</v>
-      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="6"/>
       <c r="Q30" s="6"/>
@@ -4170,9 +3481,7 @@
       <c r="AB30" s="10"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6"/>
-      <c r="AF30" s="6">
-        <v>5152</v>
-      </c>
+      <c r="AF30" s="6"/>
       <c r="AG30" s="10"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
@@ -4188,12 +3497,8 @@
       <c r="AV30" s="10"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
-      <c r="AZ30" s="6">
-        <v>1122</v>
-      </c>
-      <c r="BA30" s="10">
-        <v>516</v>
-      </c>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="10"/>
       <c r="BB30" s="6"/>
       <c r="BC30" s="6"/>
       <c r="BE30" s="38"/>
@@ -4211,15 +3516,11 @@
       <c r="BQ30" s="38"/>
       <c r="BR30" s="38"/>
       <c r="BS30" s="38"/>
-      <c r="BT30" s="38">
-        <v>23282</v>
-      </c>
+      <c r="BT30" s="38"/>
       <c r="BU30" s="38"/>
       <c r="BV30" s="38"/>
       <c r="BW30" s="38"/>
-      <c r="BY30" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY30" s="6"/>
       <c r="BZ30" s="10"/>
       <c r="CA30" s="6"/>
       <c r="CB30" s="6"/>
@@ -4232,9 +3533,7 @@
       <c r="CJ30" s="38"/>
       <c r="CK30" s="38"/>
       <c r="CL30" s="38"/>
-      <c r="CN30" s="6">
-        <v>2.6554259946510181</v>
-      </c>
+      <c r="CN30" s="6"/>
       <c r="CO30" s="10"/>
       <c r="CP30" s="6"/>
       <c r="CQ30" s="6"/>
@@ -4243,44 +3542,25 @@
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="8">
-        <v>123694</v>
-      </c>
-      <c r="C31" s="8">
-        <v>123694</v>
-      </c>
+    <row r="31" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="6">
-        <v>4710.3376520000002</v>
-      </c>
-      <c r="H31" s="10">
-        <v>4710</v>
-      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="12">
-        <v>6005117.2849920001</v>
-      </c>
-      <c r="M31" s="12">
-        <v>6005117.2800000003</v>
-      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="6"/>
-      <c r="Q31" s="6">
-        <v>4131825</v>
-      </c>
+      <c r="Q31" s="6"/>
       <c r="R31" s="10"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-      <c r="V31" s="6">
-        <v>472</v>
-      </c>
+      <c r="V31" s="6"/>
       <c r="W31" s="10"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -4292,20 +3572,12 @@
       <c r="AG31" s="10"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
-      <c r="AK31" s="6">
-        <v>1380521</v>
-      </c>
-      <c r="AL31" s="10">
-        <v>1380521</v>
-      </c>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="10"/>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6"/>
-      <c r="AP31" s="6">
-        <v>132.4</v>
-      </c>
-      <c r="AQ31" s="10">
-        <v>132</v>
-      </c>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="10"/>
       <c r="AR31" s="6"/>
       <c r="AS31" s="6"/>
       <c r="AU31" s="6"/>
@@ -4316,9 +3588,7 @@
       <c r="BA31" s="10"/>
       <c r="BB31" s="6"/>
       <c r="BC31" s="6"/>
-      <c r="BE31" s="38">
-        <v>123694</v>
-      </c>
+      <c r="BE31" s="38"/>
       <c r="BF31" s="38"/>
       <c r="BG31" s="38"/>
       <c r="BH31" s="38"/>
@@ -4337,9 +3607,7 @@
       <c r="BU31" s="38"/>
       <c r="BV31" s="38"/>
       <c r="BW31" s="38"/>
-      <c r="BY31" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY31" s="6"/>
       <c r="BZ31" s="10"/>
       <c r="CA31" s="6"/>
       <c r="CB31" s="6"/>
@@ -4352,12 +3620,8 @@
       <c r="CJ31" s="38"/>
       <c r="CK31" s="38"/>
       <c r="CL31" s="38"/>
-      <c r="CN31" s="6">
-        <v>48.548169555451359</v>
-      </c>
-      <c r="CO31" s="10">
-        <v>49</v>
-      </c>
+      <c r="CN31" s="6"/>
+      <c r="CO31" s="10"/>
       <c r="CP31" s="6"/>
       <c r="CQ31" s="6"/>
       <c r="CS31" s="12"/>
@@ -4365,38 +3629,21 @@
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="8">
-        <v>109685</v>
-      </c>
-      <c r="C32" s="8">
-        <v>109685</v>
-      </c>
+    <row r="32" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="6">
-        <v>4176.7861519999997</v>
-      </c>
-      <c r="H32" s="10">
-        <v>4177</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="12">
-        <v>2584480.856832</v>
-      </c>
-      <c r="M32" s="12">
-        <v>2584480.86</v>
-      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="6"/>
-      <c r="Q32" s="6">
-        <v>5296568.1612</v>
-      </c>
+      <c r="Q32" s="6"/>
       <c r="R32" s="10"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -4412,12 +3659,8 @@
       <c r="AG32" s="10"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
-      <c r="AK32" s="6">
-        <v>1224146</v>
-      </c>
-      <c r="AL32" s="10">
-        <v>1224146</v>
-      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="10"/>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6"/>
       <c r="AP32" s="6"/>
@@ -4432,9 +3675,7 @@
       <c r="BA32" s="10"/>
       <c r="BB32" s="6"/>
       <c r="BC32" s="6"/>
-      <c r="BE32" s="38">
-        <v>109685</v>
-      </c>
+      <c r="BE32" s="38"/>
       <c r="BF32" s="38"/>
       <c r="BG32" s="38"/>
       <c r="BH32" s="38"/>
@@ -4453,9 +3694,7 @@
       <c r="BU32" s="38"/>
       <c r="BV32" s="38"/>
       <c r="BW32" s="38"/>
-      <c r="BY32" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY32" s="6"/>
       <c r="BZ32" s="10"/>
       <c r="CA32" s="6"/>
       <c r="CB32" s="6"/>
@@ -4468,12 +3707,8 @@
       <c r="CJ32" s="38"/>
       <c r="CK32" s="38"/>
       <c r="CL32" s="38"/>
-      <c r="CN32" s="6">
-        <v>23.562755680649129</v>
-      </c>
-      <c r="CO32" s="10">
-        <v>24</v>
-      </c>
+      <c r="CN32" s="6"/>
+      <c r="CO32" s="10"/>
       <c r="CP32" s="6"/>
       <c r="CQ32" s="6"/>
       <c r="CS32" s="12"/>
@@ -4481,44 +3716,25 @@
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="8">
-        <v>163856</v>
-      </c>
-      <c r="C33" s="8">
-        <v>163856</v>
-      </c>
+    <row r="33" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="6">
-        <v>5733.9376519999996</v>
-      </c>
-      <c r="H33" s="10">
-        <v>5734</v>
-      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="12">
-        <v>1856265.3683481601</v>
-      </c>
-      <c r="M33" s="12">
-        <v>1856265.37</v>
-      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="6"/>
-      <c r="Q33" s="6">
-        <v>4131825</v>
-      </c>
+      <c r="Q33" s="6"/>
       <c r="R33" s="10"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-      <c r="V33" s="6">
-        <v>472</v>
-      </c>
+      <c r="V33" s="6"/>
       <c r="W33" s="10"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
@@ -4530,20 +3746,12 @@
       <c r="AG33" s="10"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
-      <c r="AK33" s="6">
-        <v>1680521</v>
-      </c>
-      <c r="AL33" s="10">
-        <v>1680521</v>
-      </c>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="10"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6"/>
-      <c r="AP33" s="6">
-        <v>300</v>
-      </c>
-      <c r="AQ33" s="10">
-        <v>300</v>
-      </c>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="10"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
       <c r="AU33" s="6"/>
@@ -4554,9 +3762,7 @@
       <c r="BA33" s="10"/>
       <c r="BB33" s="6"/>
       <c r="BC33" s="6"/>
-      <c r="BE33" s="38">
-        <v>156456</v>
-      </c>
+      <c r="BE33" s="38"/>
       <c r="BF33" s="38"/>
       <c r="BG33" s="38"/>
       <c r="BH33" s="38"/>
@@ -4575,15 +3781,11 @@
       <c r="BU33" s="38"/>
       <c r="BV33" s="38"/>
       <c r="BW33" s="38"/>
-      <c r="BY33" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY33" s="6"/>
       <c r="BZ33" s="10"/>
       <c r="CA33" s="6"/>
       <c r="CB33" s="6"/>
-      <c r="CD33" s="38">
-        <v>7400</v>
-      </c>
+      <c r="CD33" s="38"/>
       <c r="CE33" s="38"/>
       <c r="CF33" s="38"/>
       <c r="CG33" s="38"/>
@@ -4592,12 +3794,8 @@
       <c r="CJ33" s="38"/>
       <c r="CK33" s="38"/>
       <c r="CL33" s="38"/>
-      <c r="CN33" s="6">
-        <v>11.328638367518799</v>
-      </c>
-      <c r="CO33" s="10">
-        <v>11</v>
-      </c>
+      <c r="CN33" s="6"/>
+      <c r="CO33" s="10"/>
       <c r="CP33" s="6"/>
       <c r="CQ33" s="6"/>
       <c r="CS33" s="12"/>
@@ -4605,44 +3803,25 @@
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="8">
-        <v>52438</v>
-      </c>
-      <c r="C34" s="8">
-        <v>52438</v>
-      </c>
+    <row r="34" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="6">
-        <v>1921.785116</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1922</v>
-      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="12">
-        <v>1124122.9892447919</v>
-      </c>
-      <c r="M34" s="12">
-        <v>1124122.99</v>
-      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="6"/>
-      <c r="Q34" s="6">
-        <v>13441454</v>
-      </c>
+      <c r="Q34" s="6"/>
       <c r="R34" s="10"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-      <c r="V34" s="6">
-        <v>2625</v>
-      </c>
+      <c r="V34" s="6"/>
       <c r="W34" s="10"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -4654,20 +3833,12 @@
       <c r="AG34" s="10"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
-      <c r="AK34" s="6">
-        <v>563243</v>
-      </c>
-      <c r="AL34" s="10">
-        <v>563243</v>
-      </c>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="10"/>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6"/>
-      <c r="AP34" s="6">
-        <v>52.5</v>
-      </c>
-      <c r="AQ34" s="10">
-        <v>53</v>
-      </c>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="10"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
       <c r="AU34" s="6"/>
@@ -4678,9 +3849,7 @@
       <c r="BA34" s="10"/>
       <c r="BB34" s="6"/>
       <c r="BC34" s="6"/>
-      <c r="BE34" s="38">
-        <v>52438</v>
-      </c>
+      <c r="BE34" s="38"/>
       <c r="BF34" s="38"/>
       <c r="BG34" s="38"/>
       <c r="BH34" s="38"/>
@@ -4699,9 +3868,7 @@
       <c r="BU34" s="38"/>
       <c r="BV34" s="38"/>
       <c r="BW34" s="38"/>
-      <c r="BY34" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY34" s="6"/>
       <c r="BZ34" s="10"/>
       <c r="CA34" s="6"/>
       <c r="CB34" s="6"/>
@@ -4714,12 +3881,8 @@
       <c r="CJ34" s="38"/>
       <c r="CK34" s="38"/>
       <c r="CL34" s="38"/>
-      <c r="CN34" s="6">
-        <v>21.437182753819599</v>
-      </c>
-      <c r="CO34" s="10">
-        <v>21</v>
-      </c>
+      <c r="CN34" s="6"/>
+      <c r="CO34" s="10"/>
       <c r="CP34" s="6"/>
       <c r="CQ34" s="6"/>
       <c r="CS34" s="12"/>
@@ -4727,31 +3890,18 @@
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="8">
-        <v>60219</v>
-      </c>
-      <c r="C35" s="8">
-        <v>60219</v>
-      </c>
+    <row r="35" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="10"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="12">
-        <v>475416.72338614298</v>
-      </c>
-      <c r="M35" s="12">
-        <v>475417</v>
-      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="6"/>
       <c r="Q35" s="6"/>
@@ -4766,9 +3916,7 @@
       <c r="AB35" s="10"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AF35" s="6">
-        <v>14060</v>
-      </c>
+      <c r="AF35" s="6"/>
       <c r="AG35" s="10"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
@@ -4784,12 +3932,8 @@
       <c r="AV35" s="10"/>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
-      <c r="AZ35" s="6">
-        <v>2965</v>
-      </c>
-      <c r="BA35" s="10">
-        <v>2965</v>
-      </c>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="10"/>
       <c r="BB35" s="6"/>
       <c r="BC35" s="6"/>
       <c r="BE35" s="38"/>
@@ -4807,15 +3951,11 @@
       <c r="BQ35" s="38"/>
       <c r="BR35" s="38"/>
       <c r="BS35" s="38"/>
-      <c r="BT35" s="38">
-        <v>60219</v>
-      </c>
+      <c r="BT35" s="38"/>
       <c r="BU35" s="38"/>
       <c r="BV35" s="38"/>
       <c r="BW35" s="38"/>
-      <c r="BY35" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY35" s="6"/>
       <c r="BZ35" s="10"/>
       <c r="CA35" s="6"/>
       <c r="CB35" s="6"/>
@@ -4828,12 +3968,8 @@
       <c r="CJ35" s="38"/>
       <c r="CK35" s="38"/>
       <c r="CL35" s="38"/>
-      <c r="CN35" s="6">
-        <v>7.8947960508501147</v>
-      </c>
-      <c r="CO35" s="10">
-        <v>8</v>
-      </c>
+      <c r="CN35" s="6"/>
+      <c r="CO35" s="10"/>
       <c r="CP35" s="6"/>
       <c r="CQ35" s="6"/>
       <c r="CS35" s="12"/>
@@ -4841,44 +3977,25 @@
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="8">
-        <v>30350</v>
-      </c>
-      <c r="C36" s="8">
-        <v>30350</v>
-      </c>
+    <row r="36" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="G36" s="6">
-        <v>591.94788000000005</v>
-      </c>
-      <c r="H36" s="10">
-        <v>592</v>
-      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="12">
-        <v>287333.45996543998</v>
-      </c>
-      <c r="M36" s="12">
-        <v>287333.46000000002</v>
-      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="6"/>
-      <c r="Q36" s="6">
-        <v>301691</v>
-      </c>
+      <c r="Q36" s="6"/>
       <c r="R36" s="10"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="V36" s="6">
-        <v>88</v>
-      </c>
+      <c r="V36" s="6"/>
       <c r="W36" s="10"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
@@ -4890,20 +4007,12 @@
       <c r="AG36" s="10"/>
       <c r="AH36" s="6"/>
       <c r="AI36" s="6"/>
-      <c r="AK36" s="6">
-        <v>173490</v>
-      </c>
-      <c r="AL36" s="10">
-        <v>173490</v>
-      </c>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="10"/>
       <c r="AM36" s="6"/>
       <c r="AN36" s="6"/>
-      <c r="AP36" s="6">
-        <v>63</v>
-      </c>
-      <c r="AQ36" s="10">
-        <v>63</v>
-      </c>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="10"/>
       <c r="AR36" s="6"/>
       <c r="AS36" s="6"/>
       <c r="AU36" s="6"/>
@@ -4914,9 +4023,7 @@
       <c r="BA36" s="10"/>
       <c r="BB36" s="6"/>
       <c r="BC36" s="6"/>
-      <c r="BE36" s="38">
-        <v>29060</v>
-      </c>
+      <c r="BE36" s="38"/>
       <c r="BF36" s="38"/>
       <c r="BG36" s="38"/>
       <c r="BH36" s="38"/>
@@ -4935,15 +4042,11 @@
       <c r="BU36" s="38"/>
       <c r="BV36" s="38"/>
       <c r="BW36" s="38"/>
-      <c r="BY36" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY36" s="6"/>
       <c r="BZ36" s="10"/>
       <c r="CA36" s="6"/>
       <c r="CB36" s="6"/>
-      <c r="CD36" s="38">
-        <v>1290</v>
-      </c>
+      <c r="CD36" s="38"/>
       <c r="CE36" s="38"/>
       <c r="CF36" s="38"/>
       <c r="CG36" s="38"/>
@@ -4952,12 +4055,8 @@
       <c r="CJ36" s="38"/>
       <c r="CK36" s="38"/>
       <c r="CL36" s="38"/>
-      <c r="CN36" s="6">
-        <v>9.4673298176421739</v>
-      </c>
-      <c r="CO36" s="10">
-        <v>9</v>
-      </c>
+      <c r="CN36" s="6"/>
+      <c r="CO36" s="10"/>
       <c r="CP36" s="6"/>
       <c r="CQ36" s="6"/>
       <c r="CS36" s="12"/>
@@ -4965,44 +4064,25 @@
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="8">
-        <v>6126</v>
-      </c>
-      <c r="C37" s="8">
-        <v>6126</v>
-      </c>
+    <row r="37" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="G37" s="6">
-        <v>204.54939999999999</v>
-      </c>
-      <c r="H37" s="10">
-        <v>205</v>
-      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="12">
-        <v>85083.742808063995</v>
-      </c>
-      <c r="M37" s="12">
-        <v>85084</v>
-      </c>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="6"/>
-      <c r="Q37" s="6">
-        <v>100564</v>
-      </c>
+      <c r="Q37" s="6"/>
       <c r="R37" s="10"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-      <c r="V37" s="6">
-        <v>29</v>
-      </c>
+      <c r="V37" s="6"/>
       <c r="W37" s="10"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
@@ -5014,20 +4094,12 @@
       <c r="AG37" s="10"/>
       <c r="AH37" s="6"/>
       <c r="AI37" s="6"/>
-      <c r="AK37" s="6">
-        <v>59950</v>
-      </c>
-      <c r="AL37" s="10">
-        <v>59950</v>
-      </c>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="10"/>
       <c r="AM37" s="6"/>
       <c r="AN37" s="6"/>
-      <c r="AP37" s="6">
-        <v>21</v>
-      </c>
-      <c r="AQ37" s="10">
-        <v>21</v>
-      </c>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="10"/>
       <c r="AR37" s="6"/>
       <c r="AS37" s="6"/>
       <c r="AU37" s="6"/>
@@ -5038,9 +4110,7 @@
       <c r="BA37" s="10"/>
       <c r="BB37" s="6"/>
       <c r="BC37" s="6"/>
-      <c r="BE37" s="38">
-        <v>6126</v>
-      </c>
+      <c r="BE37" s="38"/>
       <c r="BF37" s="38"/>
       <c r="BG37" s="38"/>
       <c r="BH37" s="38"/>
@@ -5059,9 +4129,7 @@
       <c r="BU37" s="38"/>
       <c r="BV37" s="38"/>
       <c r="BW37" s="38"/>
-      <c r="BY37" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY37" s="6"/>
       <c r="BZ37" s="10"/>
       <c r="CA37" s="6"/>
       <c r="CB37" s="6"/>
@@ -5074,12 +4142,8 @@
       <c r="CJ37" s="38"/>
       <c r="CK37" s="38"/>
       <c r="CL37" s="38"/>
-      <c r="CN37" s="6">
-        <v>13.888955730993141</v>
-      </c>
-      <c r="CO37" s="10">
-        <v>14</v>
-      </c>
+      <c r="CN37" s="6"/>
+      <c r="CO37" s="10"/>
       <c r="CP37" s="6"/>
       <c r="CQ37" s="6"/>
       <c r="CS37" s="12"/>
@@ -5087,38 +4151,21 @@
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="8">
-        <v>12614</v>
-      </c>
-      <c r="C38" s="8">
-        <v>12614</v>
-      </c>
+    <row r="38" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="G38" s="6">
-        <v>421.12268799999998</v>
-      </c>
-      <c r="H38" s="10">
-        <v>421</v>
-      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="12">
-        <v>80267.681894399997</v>
-      </c>
-      <c r="M38" s="12">
-        <v>80268</v>
-      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="6"/>
-      <c r="Q38" s="6">
-        <v>3344660.83</v>
-      </c>
+      <c r="Q38" s="6"/>
       <c r="R38" s="10"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -5134,12 +4181,8 @@
       <c r="AG38" s="10"/>
       <c r="AH38" s="6"/>
       <c r="AI38" s="6"/>
-      <c r="AK38" s="6">
-        <v>123424</v>
-      </c>
-      <c r="AL38" s="10">
-        <v>123425</v>
-      </c>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="10"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
       <c r="AP38" s="6"/>
@@ -5154,9 +4197,7 @@
       <c r="BA38" s="10"/>
       <c r="BB38" s="6"/>
       <c r="BC38" s="6"/>
-      <c r="BE38" s="38">
-        <v>12614</v>
-      </c>
+      <c r="BE38" s="38"/>
       <c r="BF38" s="38"/>
       <c r="BG38" s="38"/>
       <c r="BH38" s="38"/>
@@ -5175,9 +4216,7 @@
       <c r="BU38" s="38"/>
       <c r="BV38" s="38"/>
       <c r="BW38" s="38"/>
-      <c r="BY38" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY38" s="6"/>
       <c r="BZ38" s="10"/>
       <c r="CA38" s="6"/>
       <c r="CB38" s="6"/>
@@ -5190,12 +4229,8 @@
       <c r="CJ38" s="38"/>
       <c r="CK38" s="38"/>
       <c r="CL38" s="38"/>
-      <c r="CN38" s="6">
-        <v>6.3633805211986676</v>
-      </c>
-      <c r="CO38" s="10">
-        <v>6</v>
-      </c>
+      <c r="CN38" s="6"/>
+      <c r="CO38" s="10"/>
       <c r="CP38" s="6"/>
       <c r="CQ38" s="6"/>
       <c r="CS38" s="12"/>
@@ -5203,44 +4238,25 @@
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="8">
-        <v>16277</v>
-      </c>
-      <c r="C39" s="8">
-        <v>16277</v>
-      </c>
+    <row r="39" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="G39" s="6">
-        <v>331.574748</v>
-      </c>
-      <c r="H39" s="10">
-        <v>332</v>
-      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="12">
-        <v>194059.5458423731</v>
-      </c>
-      <c r="M39" s="12">
-        <v>194059.55</v>
-      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="6"/>
-      <c r="Q39" s="6">
-        <v>5991289</v>
-      </c>
+      <c r="Q39" s="6"/>
       <c r="R39" s="10"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-      <c r="V39" s="6">
-        <v>484.78</v>
-      </c>
+      <c r="V39" s="6"/>
       <c r="W39" s="10"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -5252,20 +4268,12 @@
       <c r="AG39" s="10"/>
       <c r="AH39" s="6"/>
       <c r="AI39" s="6"/>
-      <c r="AK39" s="6">
-        <v>97179</v>
-      </c>
-      <c r="AL39" s="10">
-        <v>97179</v>
-      </c>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="10"/>
       <c r="AM39" s="6"/>
       <c r="AN39" s="6"/>
-      <c r="AP39" s="6">
-        <v>9.6956000000000007</v>
-      </c>
-      <c r="AQ39" s="10">
-        <v>10</v>
-      </c>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="10"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
       <c r="AU39" s="6"/>
@@ -5276,9 +4284,7 @@
       <c r="BA39" s="10"/>
       <c r="BB39" s="6"/>
       <c r="BC39" s="6"/>
-      <c r="BE39" s="38">
-        <v>16277</v>
-      </c>
+      <c r="BE39" s="38"/>
       <c r="BF39" s="38"/>
       <c r="BG39" s="38"/>
       <c r="BH39" s="38"/>
@@ -5297,9 +4303,7 @@
       <c r="BU39" s="38"/>
       <c r="BV39" s="38"/>
       <c r="BW39" s="38"/>
-      <c r="BY39" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY39" s="6"/>
       <c r="BZ39" s="10"/>
       <c r="CA39" s="6"/>
       <c r="CB39" s="6"/>
@@ -5312,12 +4316,8 @@
       <c r="CJ39" s="38"/>
       <c r="CK39" s="38"/>
       <c r="CL39" s="38"/>
-      <c r="CN39" s="6">
-        <v>11.922316510559259</v>
-      </c>
-      <c r="CO39" s="10">
-        <v>12</v>
-      </c>
+      <c r="CN39" s="6"/>
+      <c r="CO39" s="10"/>
       <c r="CP39" s="6"/>
       <c r="CQ39" s="6"/>
       <c r="CS39" s="12"/>
@@ -5325,31 +4325,18 @@
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="8">
-        <v>6422</v>
-      </c>
-      <c r="C40" s="8">
-        <v>6422</v>
-      </c>
+    <row r="40" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
+      <c r="G40" s="6"/>
       <c r="H40" s="10"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="12">
-        <v>86792.714726215694</v>
-      </c>
-      <c r="M40" s="12">
-        <v>86793</v>
-      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="6"/>
       <c r="Q40" s="6"/>
@@ -5364,9 +4351,7 @@
       <c r="AB40" s="10"/>
       <c r="AC40" s="6"/>
       <c r="AD40" s="6"/>
-      <c r="AF40" s="6">
-        <v>2316</v>
-      </c>
+      <c r="AF40" s="6"/>
       <c r="AG40" s="10"/>
       <c r="AH40" s="6"/>
       <c r="AI40" s="6"/>
@@ -5382,12 +4367,8 @@
       <c r="AV40" s="10"/>
       <c r="AW40" s="6"/>
       <c r="AX40" s="6"/>
-      <c r="AZ40" s="6">
-        <v>760</v>
-      </c>
-      <c r="BA40" s="10">
-        <v>760</v>
-      </c>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="10"/>
       <c r="BB40" s="6"/>
       <c r="BC40" s="6"/>
       <c r="BE40" s="38"/>
@@ -5405,15 +4386,11 @@
       <c r="BQ40" s="38"/>
       <c r="BR40" s="38"/>
       <c r="BS40" s="38"/>
-      <c r="BT40" s="38">
-        <v>6422</v>
-      </c>
+      <c r="BT40" s="38"/>
       <c r="BU40" s="38"/>
       <c r="BV40" s="38"/>
       <c r="BW40" s="38"/>
-      <c r="BY40" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY40" s="6"/>
       <c r="BZ40" s="10"/>
       <c r="CA40" s="6"/>
       <c r="CB40" s="6"/>
@@ -5426,12 +4403,8 @@
       <c r="CJ40" s="38"/>
       <c r="CK40" s="38"/>
       <c r="CL40" s="38"/>
-      <c r="CN40" s="6">
-        <v>13.514904192808419</v>
-      </c>
-      <c r="CO40" s="10">
-        <v>14</v>
-      </c>
+      <c r="CN40" s="6"/>
+      <c r="CO40" s="10"/>
       <c r="CP40" s="6"/>
       <c r="CQ40" s="6"/>
       <c r="CS40" s="12"/>
@@ -5439,44 +4412,25 @@
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="8">
-        <v>96536</v>
-      </c>
-      <c r="C41" s="8">
-        <v>96536</v>
-      </c>
+    <row r="41" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="G41" s="6">
-        <v>3025.5909999999999</v>
-      </c>
-      <c r="H41" s="10">
-        <v>3026</v>
-      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="12">
-        <v>1318085.23698432</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1318085.24</v>
-      </c>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="6"/>
-      <c r="Q41" s="6">
-        <v>2749099</v>
-      </c>
+      <c r="Q41" s="6"/>
       <c r="R41" s="10"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
-      <c r="V41" s="6">
-        <v>314</v>
-      </c>
+      <c r="V41" s="6"/>
       <c r="W41" s="10"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -5488,20 +4442,12 @@
       <c r="AG41" s="10"/>
       <c r="AH41" s="6"/>
       <c r="AI41" s="6"/>
-      <c r="AK41" s="6">
-        <v>886750</v>
-      </c>
-      <c r="AL41" s="10">
-        <v>886750</v>
-      </c>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="10"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="6"/>
-      <c r="AP41" s="6">
-        <v>105</v>
-      </c>
-      <c r="AQ41" s="10">
-        <v>105</v>
-      </c>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="10"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
       <c r="AU41" s="6"/>
@@ -5512,9 +4458,7 @@
       <c r="BA41" s="10"/>
       <c r="BB41" s="6"/>
       <c r="BC41" s="6"/>
-      <c r="BE41" s="38">
-        <v>90626</v>
-      </c>
+      <c r="BE41" s="38"/>
       <c r="BF41" s="38"/>
       <c r="BG41" s="38"/>
       <c r="BH41" s="38"/>
@@ -5533,15 +4477,11 @@
       <c r="BU41" s="38"/>
       <c r="BV41" s="38"/>
       <c r="BW41" s="38"/>
-      <c r="BY41" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY41" s="6"/>
       <c r="BZ41" s="10"/>
       <c r="CA41" s="6"/>
       <c r="CB41" s="6"/>
-      <c r="CD41" s="38">
-        <v>5910</v>
-      </c>
+      <c r="CD41" s="38"/>
       <c r="CE41" s="38"/>
       <c r="CF41" s="38"/>
       <c r="CG41" s="38"/>
@@ -5550,12 +4490,8 @@
       <c r="CJ41" s="38"/>
       <c r="CK41" s="38"/>
       <c r="CL41" s="38"/>
-      <c r="CN41" s="6">
-        <v>13.653820719569071</v>
-      </c>
-      <c r="CO41" s="10">
-        <v>14</v>
-      </c>
+      <c r="CN41" s="6"/>
+      <c r="CO41" s="10"/>
       <c r="CP41" s="6"/>
       <c r="CQ41" s="6"/>
       <c r="CS41" s="12"/>
@@ -5563,44 +4499,25 @@
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="8">
-        <v>39132</v>
-      </c>
-      <c r="C42" s="8">
-        <v>39132</v>
-      </c>
+    <row r="42" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="G42" s="6">
-        <v>1306.458212</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1306</v>
-      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="12">
-        <v>890026.79436437809</v>
-      </c>
-      <c r="M42" s="12">
-        <v>890026.79</v>
-      </c>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="6"/>
-      <c r="Q42" s="6">
-        <v>7572543</v>
-      </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="10"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-      <c r="V42" s="6">
-        <v>1590</v>
-      </c>
+      <c r="V42" s="6"/>
       <c r="W42" s="10"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -5612,20 +4529,12 @@
       <c r="AG42" s="10"/>
       <c r="AH42" s="6"/>
       <c r="AI42" s="6"/>
-      <c r="AK42" s="6">
-        <v>382901</v>
-      </c>
-      <c r="AL42" s="10">
-        <v>382901</v>
-      </c>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="10"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="6"/>
-      <c r="AP42" s="6">
-        <v>297</v>
-      </c>
-      <c r="AQ42" s="10">
-        <v>297</v>
-      </c>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="10"/>
       <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
       <c r="AU42" s="6"/>
@@ -5636,9 +4545,7 @@
       <c r="BA42" s="10"/>
       <c r="BB42" s="6"/>
       <c r="BC42" s="6"/>
-      <c r="BE42" s="38">
-        <v>39132</v>
-      </c>
+      <c r="BE42" s="38"/>
       <c r="BF42" s="38"/>
       <c r="BG42" s="38"/>
       <c r="BH42" s="38"/>
@@ -5657,9 +4564,7 @@
       <c r="BU42" s="38"/>
       <c r="BV42" s="38"/>
       <c r="BW42" s="38"/>
-      <c r="BY42" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY42" s="6"/>
       <c r="BZ42" s="10"/>
       <c r="CA42" s="6"/>
       <c r="CB42" s="6"/>
@@ -5672,12 +4577,8 @@
       <c r="CJ42" s="38"/>
       <c r="CK42" s="38"/>
       <c r="CL42" s="38"/>
-      <c r="CN42" s="6">
-        <v>22.74421942053506</v>
-      </c>
-      <c r="CO42" s="10">
-        <v>23</v>
-      </c>
+      <c r="CN42" s="6"/>
+      <c r="CO42" s="10"/>
       <c r="CP42" s="6"/>
       <c r="CQ42" s="6"/>
       <c r="CS42" s="12"/>
@@ -5685,36 +4586,21 @@
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="8">
-        <v>1817.28</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1817</v>
-      </c>
+    <row r="43" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
+      <c r="G43" s="6"/>
       <c r="H43" s="10"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="12">
-        <v>5242.2093339033599</v>
-      </c>
-      <c r="M43" s="12">
-        <v>5242</v>
-      </c>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="6"/>
-      <c r="Q43" s="6">
-        <v>0</v>
-      </c>
+      <c r="Q43" s="6"/>
       <c r="R43" s="10"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -5726,9 +4612,7 @@
       <c r="AB43" s="10"/>
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
-      <c r="AF43" s="6">
-        <v>3284</v>
-      </c>
+      <c r="AF43" s="6"/>
       <c r="AG43" s="10"/>
       <c r="AH43" s="6"/>
       <c r="AI43" s="6"/>
@@ -5744,12 +4628,8 @@
       <c r="AV43" s="10"/>
       <c r="AW43" s="6"/>
       <c r="AX43" s="6"/>
-      <c r="AZ43" s="6">
-        <v>288</v>
-      </c>
-      <c r="BA43" s="10">
-        <v>288</v>
-      </c>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="10"/>
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
       <c r="BE43" s="38"/>
@@ -5767,15 +4647,11 @@
       <c r="BQ43" s="38"/>
       <c r="BR43" s="38"/>
       <c r="BS43" s="38"/>
-      <c r="BT43" s="38">
-        <v>1817.28</v>
-      </c>
+      <c r="BT43" s="38"/>
       <c r="BU43" s="38"/>
       <c r="BV43" s="38"/>
       <c r="BW43" s="38"/>
-      <c r="BY43" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY43" s="6"/>
       <c r="BZ43" s="10"/>
       <c r="CA43" s="6"/>
       <c r="CB43" s="6"/>
@@ -5788,12 +4664,8 @@
       <c r="CJ43" s="38"/>
       <c r="CK43" s="38"/>
       <c r="CL43" s="38"/>
-      <c r="CN43" s="6">
-        <v>2.8846459180221871</v>
-      </c>
-      <c r="CO43" s="10">
-        <v>3</v>
-      </c>
+      <c r="CN43" s="6"/>
+      <c r="CO43" s="10"/>
       <c r="CP43" s="6"/>
       <c r="CQ43" s="6"/>
       <c r="CS43" s="12"/>
@@ -5801,44 +4673,25 @@
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="8">
-        <v>50683</v>
-      </c>
-      <c r="C44" s="8">
-        <v>50683</v>
-      </c>
+    <row r="44" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="G44" s="6">
-        <v>1724.73188</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1725</v>
-      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="12">
-        <v>586829.18278655992</v>
-      </c>
-      <c r="M44" s="12">
-        <v>586829.18000000005</v>
-      </c>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="6"/>
-      <c r="Q44" s="6">
-        <v>1280105</v>
-      </c>
+      <c r="Q44" s="6"/>
       <c r="R44" s="10"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-      <c r="V44" s="6">
-        <v>146</v>
-      </c>
+      <c r="V44" s="6"/>
       <c r="W44" s="10"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
@@ -5850,20 +4703,12 @@
       <c r="AG44" s="10"/>
       <c r="AH44" s="6"/>
       <c r="AI44" s="6"/>
-      <c r="AK44" s="6">
-        <v>505490</v>
-      </c>
-      <c r="AL44" s="10">
-        <v>505490</v>
-      </c>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="10"/>
       <c r="AM44" s="6"/>
       <c r="AN44" s="6"/>
-      <c r="AP44" s="6">
-        <v>46.8</v>
-      </c>
-      <c r="AQ44" s="10">
-        <v>47</v>
-      </c>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="10"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
       <c r="AU44" s="6"/>
@@ -5874,9 +4719,7 @@
       <c r="BA44" s="10"/>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
-      <c r="BE44" s="38">
-        <v>49083</v>
-      </c>
+      <c r="BE44" s="38"/>
       <c r="BF44" s="38"/>
       <c r="BG44" s="38"/>
       <c r="BH44" s="38"/>
@@ -5895,15 +4738,11 @@
       <c r="BU44" s="38"/>
       <c r="BV44" s="38"/>
       <c r="BW44" s="38"/>
-      <c r="BY44" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY44" s="6"/>
       <c r="BZ44" s="10"/>
       <c r="CA44" s="6"/>
       <c r="CB44" s="6"/>
-      <c r="CD44" s="38">
-        <v>1600</v>
-      </c>
+      <c r="CD44" s="38"/>
       <c r="CE44" s="38"/>
       <c r="CF44" s="38"/>
       <c r="CG44" s="38"/>
@@ -5912,12 +4751,8 @@
       <c r="CJ44" s="38"/>
       <c r="CK44" s="38"/>
       <c r="CL44" s="38"/>
-      <c r="CN44" s="6">
-        <v>11.57842240566975</v>
-      </c>
-      <c r="CO44" s="10">
-        <v>12</v>
-      </c>
+      <c r="CN44" s="6"/>
+      <c r="CO44" s="10"/>
       <c r="CP44" s="6"/>
       <c r="CQ44" s="6"/>
       <c r="CS44" s="12"/>
@@ -5925,44 +4760,25 @@
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="8">
-        <v>21848</v>
-      </c>
-      <c r="C45" s="8">
-        <v>21848</v>
-      </c>
+    <row r="45" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="G45" s="6">
-        <v>767.7</v>
-      </c>
-      <c r="H45" s="10">
-        <v>768</v>
-      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="12">
-        <v>396501.93135802401</v>
-      </c>
-      <c r="M45" s="12">
-        <v>396501.93</v>
-      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="6"/>
-      <c r="Q45" s="6">
-        <v>3766158</v>
-      </c>
+      <c r="Q45" s="6"/>
       <c r="R45" s="10"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-      <c r="V45" s="6">
-        <v>889.54</v>
-      </c>
+      <c r="V45" s="6"/>
       <c r="W45" s="10"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
@@ -5974,20 +4790,12 @@
       <c r="AG45" s="10"/>
       <c r="AH45" s="6"/>
       <c r="AI45" s="6"/>
-      <c r="AK45" s="6">
-        <v>225000</v>
-      </c>
-      <c r="AL45" s="10">
-        <v>225000</v>
-      </c>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="10"/>
       <c r="AM45" s="6"/>
       <c r="AN45" s="6"/>
-      <c r="AP45" s="6">
-        <v>356</v>
-      </c>
-      <c r="AQ45" s="10">
-        <v>356</v>
-      </c>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="10"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
       <c r="AU45" s="6"/>
@@ -5998,9 +4806,7 @@
       <c r="BA45" s="10"/>
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
-      <c r="BE45" s="38">
-        <v>21848</v>
-      </c>
+      <c r="BE45" s="38"/>
       <c r="BF45" s="38"/>
       <c r="BG45" s="38"/>
       <c r="BH45" s="38"/>
@@ -6019,9 +4825,7 @@
       <c r="BU45" s="38"/>
       <c r="BV45" s="38"/>
       <c r="BW45" s="38"/>
-      <c r="BY45" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY45" s="6"/>
       <c r="BZ45" s="10"/>
       <c r="CA45" s="6"/>
       <c r="CB45" s="6"/>
@@ -6034,12 +4838,8 @@
       <c r="CJ45" s="38"/>
       <c r="CK45" s="38"/>
       <c r="CL45" s="38"/>
-      <c r="CN45" s="6">
-        <v>18.148202643629801</v>
-      </c>
-      <c r="CO45" s="10">
-        <v>18</v>
-      </c>
+      <c r="CN45" s="6"/>
+      <c r="CO45" s="10"/>
       <c r="CP45" s="6"/>
       <c r="CQ45" s="6"/>
       <c r="CS45" s="12"/>
@@ -6047,31 +4847,18 @@
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
     </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="8">
-        <v>1817.28</v>
-      </c>
-      <c r="C46" s="8">
-        <v>1817</v>
-      </c>
+    <row r="46" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
+      <c r="G46" s="6"/>
       <c r="H46" s="10"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="12">
-        <v>5242.2093339033599</v>
-      </c>
-      <c r="M46" s="12">
-        <v>5242</v>
-      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="6"/>
       <c r="Q46" s="6"/>
@@ -6086,9 +4873,7 @@
       <c r="AB46" s="10"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
-      <c r="AF46" s="6">
-        <v>5961</v>
-      </c>
+      <c r="AF46" s="6"/>
       <c r="AG46" s="10"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
@@ -6104,17 +4889,11 @@
       <c r="AV46" s="10"/>
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
-      <c r="AZ46" s="6">
-        <v>288</v>
-      </c>
-      <c r="BA46" s="10">
-        <v>288</v>
-      </c>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="10"/>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
-      <c r="BE46" s="38">
-        <v>0</v>
-      </c>
+      <c r="BE46" s="38"/>
       <c r="BF46" s="38"/>
       <c r="BG46" s="38"/>
       <c r="BH46" s="38"/>
@@ -6129,15 +4908,11 @@
       <c r="BQ46" s="38"/>
       <c r="BR46" s="38"/>
       <c r="BS46" s="38"/>
-      <c r="BT46" s="38">
-        <v>1817.28</v>
-      </c>
+      <c r="BT46" s="38"/>
       <c r="BU46" s="38"/>
       <c r="BV46" s="38"/>
       <c r="BW46" s="38"/>
-      <c r="BY46" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY46" s="6"/>
       <c r="BZ46" s="10"/>
       <c r="CA46" s="6"/>
       <c r="CB46" s="6"/>
@@ -6150,12 +4925,8 @@
       <c r="CJ46" s="38"/>
       <c r="CK46" s="38"/>
       <c r="CL46" s="38"/>
-      <c r="CN46" s="6">
-        <v>2.8846459180221871</v>
-      </c>
-      <c r="CO46" s="10">
-        <v>3</v>
-      </c>
+      <c r="CN46" s="6"/>
+      <c r="CO46" s="10"/>
       <c r="CP46" s="6"/>
       <c r="CQ46" s="6"/>
       <c r="CS46" s="12"/>
@@ -6163,44 +4934,25 @@
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
     </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="8">
-        <v>99519</v>
-      </c>
-      <c r="C47" s="8">
-        <v>99519</v>
-      </c>
+    <row r="47" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="G47" s="6">
-        <v>3409.7822000000001</v>
-      </c>
-      <c r="H47" s="10">
-        <v>3410</v>
-      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="12">
-        <v>1266395.61984768</v>
-      </c>
-      <c r="M47" s="12">
-        <v>1266395.6200000001</v>
-      </c>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="6"/>
-      <c r="Q47" s="6">
-        <v>1741312</v>
-      </c>
+      <c r="Q47" s="6"/>
       <c r="R47" s="10"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-      <c r="V47" s="6">
-        <v>204</v>
-      </c>
+      <c r="V47" s="6"/>
       <c r="W47" s="10"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
@@ -6212,20 +4964,12 @@
       <c r="AG47" s="10"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
-      <c r="AK47" s="6">
-        <v>999350</v>
-      </c>
-      <c r="AL47" s="10">
-        <v>999350</v>
-      </c>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="10"/>
       <c r="AM47" s="6"/>
       <c r="AN47" s="6"/>
-      <c r="AP47" s="6">
-        <v>97.2</v>
-      </c>
-      <c r="AQ47" s="10">
-        <v>97</v>
-      </c>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="10"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
       <c r="AU47" s="6"/>
@@ -6236,9 +4980,7 @@
       <c r="BA47" s="10"/>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
-      <c r="BE47" s="38">
-        <v>94039</v>
-      </c>
+      <c r="BE47" s="38"/>
       <c r="BF47" s="38"/>
       <c r="BG47" s="38"/>
       <c r="BH47" s="38"/>
@@ -6257,15 +4999,11 @@
       <c r="BU47" s="38"/>
       <c r="BV47" s="38"/>
       <c r="BW47" s="38"/>
-      <c r="BY47" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY47" s="6"/>
       <c r="BZ47" s="10"/>
       <c r="CA47" s="6"/>
       <c r="CB47" s="6"/>
-      <c r="CD47" s="38">
-        <v>5480</v>
-      </c>
+      <c r="CD47" s="38"/>
       <c r="CE47" s="38"/>
       <c r="CF47" s="38"/>
       <c r="CG47" s="38"/>
@@ -6274,12 +5012,8 @@
       <c r="CJ47" s="38"/>
       <c r="CK47" s="38"/>
       <c r="CL47" s="38"/>
-      <c r="CN47" s="6">
-        <v>12.72516423846381</v>
-      </c>
-      <c r="CO47" s="10">
-        <v>13</v>
-      </c>
+      <c r="CN47" s="6"/>
+      <c r="CO47" s="10"/>
       <c r="CP47" s="6"/>
       <c r="CQ47" s="6"/>
       <c r="CS47" s="12"/>
@@ -6287,44 +5021,25 @@
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
     </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="8">
-        <v>16989</v>
-      </c>
-      <c r="C48" s="8">
-        <v>16989</v>
-      </c>
+    <row r="48" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="G48" s="6">
-        <v>616.02636399999994</v>
-      </c>
-      <c r="H48" s="10">
-        <v>616</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="12">
-        <v>205238.18568960001</v>
-      </c>
-      <c r="M48" s="12">
-        <v>205238.19</v>
-      </c>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="6"/>
-      <c r="Q48" s="6">
-        <v>722108</v>
-      </c>
+      <c r="Q48" s="6"/>
       <c r="R48" s="10"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-      <c r="V48" s="6">
-        <v>329</v>
-      </c>
+      <c r="V48" s="6"/>
       <c r="W48" s="10"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
@@ -6336,20 +5051,12 @@
       <c r="AG48" s="10"/>
       <c r="AH48" s="6"/>
       <c r="AI48" s="6"/>
-      <c r="AK48" s="6">
-        <v>180547</v>
-      </c>
-      <c r="AL48" s="10">
-        <v>180547</v>
-      </c>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="10"/>
       <c r="AM48" s="6"/>
       <c r="AN48" s="6"/>
-      <c r="AP48" s="6">
-        <v>166</v>
-      </c>
-      <c r="AQ48" s="10">
-        <v>166</v>
-      </c>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="10"/>
       <c r="AR48" s="6"/>
       <c r="AS48" s="6"/>
       <c r="AU48" s="6"/>
@@ -6360,9 +5067,7 @@
       <c r="BA48" s="10"/>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
-      <c r="BE48" s="38">
-        <v>16989</v>
-      </c>
+      <c r="BE48" s="38"/>
       <c r="BF48" s="38"/>
       <c r="BG48" s="38"/>
       <c r="BH48" s="38"/>
@@ -6381,9 +5086,7 @@
       <c r="BU48" s="38"/>
       <c r="BV48" s="38"/>
       <c r="BW48" s="38"/>
-      <c r="BY48" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY48" s="6"/>
       <c r="BZ48" s="10"/>
       <c r="CA48" s="6"/>
       <c r="CB48" s="6"/>
@@ -6396,12 +5099,8 @@
       <c r="CJ48" s="38"/>
       <c r="CK48" s="38"/>
       <c r="CL48" s="38"/>
-      <c r="CN48" s="6">
-        <v>12.08065134437577</v>
-      </c>
-      <c r="CO48" s="10">
-        <v>12</v>
-      </c>
+      <c r="CN48" s="6"/>
+      <c r="CO48" s="10"/>
       <c r="CP48" s="6"/>
       <c r="CQ48" s="6"/>
       <c r="CS48" s="12"/>
@@ -6409,44 +5108,25 @@
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
     </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="8">
-        <v>36997</v>
-      </c>
-      <c r="C49" s="8">
-        <v>36997</v>
-      </c>
+    <row r="49" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="G49" s="6">
-        <v>1341.4789800000001</v>
-      </c>
-      <c r="H49" s="10">
-        <v>1341</v>
-      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="12">
-        <v>824157.49902087194</v>
-      </c>
-      <c r="M49" s="12">
-        <v>824157</v>
-      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="12"/>
       <c r="O49" s="6"/>
-      <c r="Q49" s="6">
-        <v>6047453</v>
-      </c>
+      <c r="Q49" s="6"/>
       <c r="R49" s="10"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="V49" s="6">
-        <v>1352</v>
-      </c>
+      <c r="V49" s="6"/>
       <c r="W49" s="10"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
@@ -6458,20 +5138,12 @@
       <c r="AG49" s="10"/>
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
-      <c r="AK49" s="6">
-        <v>393165</v>
-      </c>
-      <c r="AL49" s="10">
-        <v>393165</v>
-      </c>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="10"/>
       <c r="AM49" s="6"/>
       <c r="AN49" s="6"/>
-      <c r="AP49" s="6">
-        <v>450</v>
-      </c>
-      <c r="AQ49" s="10">
-        <v>450</v>
-      </c>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="10"/>
       <c r="AR49" s="6"/>
       <c r="AS49" s="6"/>
       <c r="AU49" s="6"/>
@@ -6482,9 +5154,7 @@
       <c r="BA49" s="10"/>
       <c r="BB49" s="6"/>
       <c r="BC49" s="6"/>
-      <c r="BE49" s="38">
-        <v>36997</v>
-      </c>
+      <c r="BE49" s="38"/>
       <c r="BF49" s="38"/>
       <c r="BG49" s="38"/>
       <c r="BH49" s="38"/>
@@ -6503,9 +5173,7 @@
       <c r="BU49" s="38"/>
       <c r="BV49" s="38"/>
       <c r="BW49" s="38"/>
-      <c r="BY49" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY49" s="6"/>
       <c r="BZ49" s="10"/>
       <c r="CA49" s="6"/>
       <c r="CB49" s="6"/>
@@ -6518,12 +5186,8 @@
       <c r="CJ49" s="38"/>
       <c r="CK49" s="38"/>
       <c r="CL49" s="38"/>
-      <c r="CN49" s="6">
-        <v>22.276333189741649</v>
-      </c>
-      <c r="CO49" s="10">
-        <v>22</v>
-      </c>
+      <c r="CN49" s="6"/>
+      <c r="CO49" s="10"/>
       <c r="CP49" s="6"/>
       <c r="CQ49" s="6"/>
       <c r="CS49" s="12"/>
@@ -6531,31 +5195,18 @@
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
     </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="8">
-        <v>45035</v>
-      </c>
-      <c r="C50" s="8">
-        <v>45035</v>
-      </c>
+    <row r="50" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="10"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="12">
-        <v>321708.490795561</v>
-      </c>
-      <c r="M50" s="12">
-        <v>321708</v>
-      </c>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="6"/>
       <c r="Q50" s="6"/>
@@ -6570,9 +5221,7 @@
       <c r="AB50" s="10"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
-      <c r="AF50" s="6">
-        <v>17577</v>
-      </c>
+      <c r="AF50" s="6"/>
       <c r="AG50" s="10"/>
       <c r="AH50" s="6"/>
       <c r="AI50" s="6"/>
@@ -6588,12 +5237,8 @@
       <c r="AV50" s="10"/>
       <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
-      <c r="AZ50" s="6">
-        <v>6613</v>
-      </c>
-      <c r="BA50" s="10">
-        <v>6613</v>
-      </c>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="10"/>
       <c r="BB50" s="6"/>
       <c r="BC50" s="6"/>
       <c r="BE50" s="38"/>
@@ -6611,15 +5256,11 @@
       <c r="BQ50" s="38"/>
       <c r="BR50" s="38"/>
       <c r="BS50" s="38"/>
-      <c r="BT50" s="38">
-        <v>45035</v>
-      </c>
+      <c r="BT50" s="38"/>
       <c r="BU50" s="38"/>
       <c r="BV50" s="38"/>
       <c r="BW50" s="38"/>
-      <c r="BY50" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY50" s="6"/>
       <c r="BZ50" s="10"/>
       <c r="CA50" s="6"/>
       <c r="CB50" s="6"/>
@@ -6632,12 +5273,8 @@
       <c r="CJ50" s="38"/>
       <c r="CK50" s="38"/>
       <c r="CL50" s="38"/>
-      <c r="CN50" s="6">
-        <v>7.143521500956167</v>
-      </c>
-      <c r="CO50" s="10">
-        <v>7</v>
-      </c>
+      <c r="CN50" s="6"/>
+      <c r="CO50" s="10"/>
       <c r="CP50" s="6"/>
       <c r="CQ50" s="6"/>
       <c r="CS50" s="12"/>
@@ -6645,44 +5282,25 @@
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
     </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="8">
-        <v>70327</v>
-      </c>
-      <c r="C51" s="8">
-        <v>70327</v>
-      </c>
+    <row r="51" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="G51" s="6">
-        <v>2525.9036000000001</v>
-      </c>
-      <c r="H51" s="10">
-        <v>2526</v>
-      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="12">
-        <v>922811.69417471997</v>
-      </c>
-      <c r="M51" s="12">
-        <v>922811.69</v>
-      </c>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
       <c r="N51" s="12"/>
       <c r="O51" s="6"/>
-      <c r="Q51" s="6">
-        <v>2428928</v>
-      </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="10"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="V51" s="6">
-        <v>277</v>
-      </c>
+      <c r="V51" s="6"/>
       <c r="W51" s="10"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -6694,20 +5312,12 @@
       <c r="AG51" s="10"/>
       <c r="AH51" s="6"/>
       <c r="AI51" s="6"/>
-      <c r="AK51" s="6">
-        <v>740300</v>
-      </c>
-      <c r="AL51" s="10">
-        <v>740300</v>
-      </c>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="10"/>
       <c r="AM51" s="6"/>
       <c r="AN51" s="6"/>
-      <c r="AP51" s="6">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="AQ51" s="10">
-        <v>72</v>
-      </c>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="10"/>
       <c r="AR51" s="6"/>
       <c r="AS51" s="6"/>
       <c r="AU51" s="6"/>
@@ -6718,9 +5328,7 @@
       <c r="BA51" s="10"/>
       <c r="BB51" s="6"/>
       <c r="BC51" s="6"/>
-      <c r="BE51" s="38">
-        <v>68627</v>
-      </c>
+      <c r="BE51" s="38"/>
       <c r="BF51" s="38"/>
       <c r="BG51" s="38"/>
       <c r="BH51" s="38"/>
@@ -6739,15 +5347,11 @@
       <c r="BU51" s="38"/>
       <c r="BV51" s="38"/>
       <c r="BW51" s="38"/>
-      <c r="BY51" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY51" s="6"/>
       <c r="BZ51" s="10"/>
       <c r="CA51" s="6"/>
       <c r="CB51" s="6"/>
-      <c r="CD51" s="38">
-        <v>1700</v>
-      </c>
+      <c r="CD51" s="38"/>
       <c r="CE51" s="38"/>
       <c r="CF51" s="38"/>
       <c r="CG51" s="38"/>
@@ -6756,12 +5360,8 @@
       <c r="CJ51" s="38"/>
       <c r="CK51" s="38"/>
       <c r="CL51" s="38"/>
-      <c r="CN51" s="6">
-        <v>13.12172699211853</v>
-      </c>
-      <c r="CO51" s="10">
-        <v>13</v>
-      </c>
+      <c r="CN51" s="6"/>
+      <c r="CO51" s="10"/>
       <c r="CP51" s="6"/>
       <c r="CQ51" s="6"/>
       <c r="CS51" s="12"/>
@@ -6769,44 +5369,25 @@
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
     </row>
-    <row r="52" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="8">
-        <v>62439</v>
-      </c>
-      <c r="C52" s="8">
-        <v>62439</v>
-      </c>
+    <row r="52" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="G52" s="6">
-        <v>2298.16966</v>
-      </c>
-      <c r="H52" s="10">
-        <v>2298</v>
-      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="10"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="12">
-        <v>638519</v>
-      </c>
-      <c r="M52" s="12">
-        <v>638519</v>
-      </c>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
       <c r="N52" s="12"/>
       <c r="O52" s="6"/>
-      <c r="Q52" s="6">
-        <v>2120652</v>
-      </c>
+      <c r="Q52" s="6"/>
       <c r="R52" s="10"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="V52" s="6">
-        <v>242</v>
-      </c>
+      <c r="V52" s="6"/>
       <c r="W52" s="10"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -6818,20 +5399,12 @@
       <c r="AG52" s="10"/>
       <c r="AH52" s="6"/>
       <c r="AI52" s="6"/>
-      <c r="AK52" s="6">
-        <v>673555</v>
-      </c>
-      <c r="AL52" s="10">
-        <v>673555</v>
-      </c>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="10"/>
       <c r="AM52" s="6"/>
       <c r="AN52" s="6"/>
-      <c r="AP52" s="6">
-        <v>80</v>
-      </c>
-      <c r="AQ52" s="10">
-        <v>80</v>
-      </c>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="10"/>
       <c r="AR52" s="6"/>
       <c r="AS52" s="6"/>
       <c r="AU52" s="6"/>
@@ -6842,9 +5415,7 @@
       <c r="BA52" s="10"/>
       <c r="BB52" s="6"/>
       <c r="BC52" s="6"/>
-      <c r="BE52" s="38">
-        <v>62439</v>
-      </c>
+      <c r="BE52" s="38"/>
       <c r="BF52" s="38"/>
       <c r="BG52" s="38"/>
       <c r="BH52" s="38"/>
@@ -6863,9 +5434,7 @@
       <c r="BU52" s="38"/>
       <c r="BV52" s="38"/>
       <c r="BW52" s="38"/>
-      <c r="BY52" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY52" s="6"/>
       <c r="BZ52" s="10"/>
       <c r="CA52" s="6"/>
       <c r="CB52" s="6"/>
@@ -6878,12 +5447,8 @@
       <c r="CJ52" s="38"/>
       <c r="CK52" s="38"/>
       <c r="CL52" s="38"/>
-      <c r="CN52" s="6">
-        <v>10.22628485401752</v>
-      </c>
-      <c r="CO52" s="10">
-        <v>10</v>
-      </c>
+      <c r="CN52" s="6"/>
+      <c r="CO52" s="10"/>
       <c r="CP52" s="6"/>
       <c r="CQ52" s="6"/>
       <c r="CS52" s="12"/>
@@ -6891,44 +5456,25 @@
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
     </row>
-    <row r="53" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="8">
-        <v>26886</v>
-      </c>
-      <c r="C53" s="8">
-        <v>26886</v>
-      </c>
+    <row r="53" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="G53" s="6">
-        <v>989.60283200000003</v>
-      </c>
-      <c r="H53" s="10">
-        <v>990</v>
-      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="12">
-        <v>557613.90712435998</v>
-      </c>
-      <c r="M53" s="12">
-        <v>557613.91</v>
-      </c>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
       <c r="N53" s="12"/>
       <c r="O53" s="6"/>
-      <c r="Q53" s="6">
-        <v>9167882</v>
-      </c>
+      <c r="Q53" s="6"/>
       <c r="R53" s="10"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="V53" s="6">
-        <v>1298</v>
-      </c>
+      <c r="V53" s="6"/>
       <c r="W53" s="10"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -6940,20 +5486,12 @@
       <c r="AG53" s="10"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
-      <c r="AK53" s="6">
-        <v>290036</v>
-      </c>
-      <c r="AL53" s="10">
-        <v>290036</v>
-      </c>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="10"/>
       <c r="AM53" s="6"/>
       <c r="AN53" s="6"/>
-      <c r="AP53" s="6">
-        <v>126</v>
-      </c>
-      <c r="AQ53" s="10">
-        <v>126</v>
-      </c>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="10"/>
       <c r="AR53" s="6"/>
       <c r="AS53" s="6"/>
       <c r="AU53" s="6"/>
@@ -6964,9 +5502,7 @@
       <c r="BA53" s="10"/>
       <c r="BB53" s="6"/>
       <c r="BC53" s="6"/>
-      <c r="BE53" s="38">
-        <v>26886</v>
-      </c>
+      <c r="BE53" s="38"/>
       <c r="BF53" s="38"/>
       <c r="BG53" s="38"/>
       <c r="BH53" s="38"/>
@@ -6985,9 +5521,7 @@
       <c r="BU53" s="38"/>
       <c r="BV53" s="38"/>
       <c r="BW53" s="38"/>
-      <c r="BY53" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY53" s="6"/>
       <c r="BZ53" s="10"/>
       <c r="CA53" s="6"/>
       <c r="CB53" s="6"/>
@@ -7000,12 +5534,8 @@
       <c r="CJ53" s="38"/>
       <c r="CK53" s="38"/>
       <c r="CL53" s="38"/>
-      <c r="CN53" s="6">
-        <v>20.739935547287061</v>
-      </c>
-      <c r="CO53" s="10">
-        <v>21</v>
-      </c>
+      <c r="CN53" s="6"/>
+      <c r="CO53" s="10"/>
       <c r="CP53" s="6"/>
       <c r="CQ53" s="6"/>
       <c r="CS53" s="12"/>
@@ -7013,31 +5543,18 @@
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
     </row>
-    <row r="54" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="8">
-        <v>30254</v>
-      </c>
-      <c r="C54" s="8">
-        <v>30254</v>
-      </c>
+    <row r="54" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="10"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="12">
-        <v>271373.35718578182</v>
-      </c>
-      <c r="M54" s="12">
-        <v>271373</v>
-      </c>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
       <c r="N54" s="12"/>
       <c r="O54" s="6"/>
       <c r="Q54" s="6"/>
@@ -7052,9 +5569,7 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="6"/>
       <c r="AD54" s="6"/>
-      <c r="AF54" s="6">
-        <v>3431</v>
-      </c>
+      <c r="AF54" s="6"/>
       <c r="AG54" s="10"/>
       <c r="AH54" s="6"/>
       <c r="AI54" s="6"/>
@@ -7070,12 +5585,8 @@
       <c r="AV54" s="10"/>
       <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
-      <c r="AZ54" s="6">
-        <v>1458</v>
-      </c>
-      <c r="BA54" s="10">
-        <v>1458</v>
-      </c>
+      <c r="AZ54" s="6"/>
+      <c r="BA54" s="10"/>
       <c r="BB54" s="6"/>
       <c r="BC54" s="6"/>
       <c r="BE54" s="38"/>
@@ -7093,15 +5604,11 @@
       <c r="BQ54" s="38"/>
       <c r="BR54" s="38"/>
       <c r="BS54" s="38"/>
-      <c r="BT54" s="38">
-        <v>30254</v>
-      </c>
+      <c r="BT54" s="38"/>
       <c r="BU54" s="38"/>
       <c r="BV54" s="38"/>
       <c r="BW54" s="38"/>
-      <c r="BY54" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY54" s="6"/>
       <c r="BZ54" s="10"/>
       <c r="CA54" s="6"/>
       <c r="CB54" s="6"/>
@@ -7110,18 +5617,12 @@
       <c r="CF54" s="38"/>
       <c r="CG54" s="38"/>
       <c r="CH54" s="38"/>
-      <c r="CI54" s="38">
-        <v>0</v>
-      </c>
+      <c r="CI54" s="38"/>
       <c r="CJ54" s="38"/>
       <c r="CK54" s="38"/>
       <c r="CL54" s="38"/>
-      <c r="CN54" s="6">
-        <v>8.9698339785080261</v>
-      </c>
-      <c r="CO54" s="10">
-        <v>9</v>
-      </c>
+      <c r="CN54" s="6"/>
+      <c r="CO54" s="10"/>
       <c r="CP54" s="6"/>
       <c r="CQ54" s="6"/>
       <c r="CS54" s="12"/>
@@ -7129,44 +5630,25 @@
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
     </row>
-    <row r="55" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="8">
-        <v>73579</v>
-      </c>
-      <c r="C55" s="8">
-        <v>73579</v>
-      </c>
+    <row r="55" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="G55" s="6">
-        <v>2305.3519200000001</v>
-      </c>
-      <c r="H55" s="10">
-        <v>2305</v>
-      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="12">
-        <v>1111327.0629964799</v>
-      </c>
-      <c r="M55" s="12">
-        <v>1111326.77</v>
-      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
       <c r="N55" s="12"/>
       <c r="O55" s="6"/>
-      <c r="Q55" s="6">
-        <v>1029725</v>
-      </c>
+      <c r="Q55" s="6"/>
       <c r="R55" s="10"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
-      <c r="V55" s="6">
-        <v>117.6</v>
-      </c>
+      <c r="V55" s="6"/>
       <c r="W55" s="10"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -7178,20 +5660,12 @@
       <c r="AG55" s="10"/>
       <c r="AH55" s="6"/>
       <c r="AI55" s="6"/>
-      <c r="AK55" s="6">
-        <v>675660</v>
-      </c>
-      <c r="AL55" s="10">
-        <v>675660</v>
-      </c>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="10"/>
       <c r="AM55" s="6"/>
       <c r="AN55" s="6"/>
-      <c r="AP55" s="6">
-        <v>74.8</v>
-      </c>
-      <c r="AQ55" s="10">
-        <v>75</v>
-      </c>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="10"/>
       <c r="AR55" s="6"/>
       <c r="AS55" s="6"/>
       <c r="AU55" s="6"/>
@@ -7202,9 +5676,7 @@
       <c r="BA55" s="10"/>
       <c r="BB55" s="6"/>
       <c r="BC55" s="6"/>
-      <c r="BE55" s="38">
-        <v>73579</v>
-      </c>
+      <c r="BE55" s="38"/>
       <c r="BF55" s="38"/>
       <c r="BG55" s="38"/>
       <c r="BH55" s="38"/>
@@ -7223,9 +5695,7 @@
       <c r="BU55" s="38"/>
       <c r="BV55" s="38"/>
       <c r="BW55" s="38"/>
-      <c r="BY55" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY55" s="6"/>
       <c r="BZ55" s="10"/>
       <c r="CA55" s="6"/>
       <c r="CB55" s="6"/>
@@ -7238,12 +5708,8 @@
       <c r="CJ55" s="38"/>
       <c r="CK55" s="38"/>
       <c r="CL55" s="38"/>
-      <c r="CN55" s="6">
-        <v>15.10386201221109</v>
-      </c>
-      <c r="CO55" s="10">
-        <v>15</v>
-      </c>
+      <c r="CN55" s="6"/>
+      <c r="CO55" s="10"/>
       <c r="CP55" s="6"/>
       <c r="CQ55" s="6"/>
       <c r="CS55" s="12"/>
@@ -7251,44 +5717,25 @@
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
     </row>
-    <row r="56" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="8">
-        <v>32640</v>
-      </c>
-      <c r="C56" s="8">
-        <v>32640</v>
-      </c>
+    <row r="56" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="G56" s="6">
-        <v>1014.28524</v>
-      </c>
-      <c r="H56" s="10">
-        <v>1014</v>
-      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="12">
-        <v>635087.52151504101</v>
-      </c>
-      <c r="M56" s="12">
-        <v>635088</v>
-      </c>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
       <c r="N56" s="12"/>
       <c r="O56" s="6"/>
-      <c r="Q56" s="6">
-        <v>4275678</v>
-      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="10"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
-      <c r="V56" s="6">
-        <v>872.3</v>
-      </c>
+      <c r="V56" s="6"/>
       <c r="W56" s="10"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
@@ -7300,20 +5747,12 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
-      <c r="AK56" s="6">
-        <v>297270</v>
-      </c>
-      <c r="AL56" s="10">
-        <v>297270</v>
-      </c>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="10"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="6"/>
-      <c r="AP56" s="6">
-        <v>217</v>
-      </c>
-      <c r="AQ56" s="10">
-        <v>217</v>
-      </c>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="10"/>
       <c r="AR56" s="6"/>
       <c r="AS56" s="6"/>
       <c r="AU56" s="6"/>
@@ -7324,9 +5763,7 @@
       <c r="BA56" s="10"/>
       <c r="BB56" s="6"/>
       <c r="BC56" s="6"/>
-      <c r="BE56" s="38">
-        <v>32640</v>
-      </c>
+      <c r="BE56" s="38"/>
       <c r="BF56" s="38"/>
       <c r="BG56" s="38"/>
       <c r="BH56" s="38"/>
@@ -7345,9 +5782,7 @@
       <c r="BU56" s="38"/>
       <c r="BV56" s="38"/>
       <c r="BW56" s="38"/>
-      <c r="BY56" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY56" s="6"/>
       <c r="BZ56" s="10"/>
       <c r="CA56" s="6"/>
       <c r="CB56" s="6"/>
@@ -7360,12 +5795,8 @@
       <c r="CJ56" s="38"/>
       <c r="CK56" s="38"/>
       <c r="CL56" s="38"/>
-      <c r="CN56" s="6">
-        <v>19.457338281710811</v>
-      </c>
-      <c r="CO56" s="10">
-        <v>19</v>
-      </c>
+      <c r="CN56" s="6"/>
+      <c r="CO56" s="10"/>
       <c r="CP56" s="6"/>
       <c r="CQ56" s="6"/>
       <c r="CS56" s="12"/>
@@ -7373,31 +5804,18 @@
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
     </row>
-    <row r="57" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="8">
-        <v>14816</v>
-      </c>
-      <c r="C57" s="8">
-        <v>14816</v>
-      </c>
+    <row r="57" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="10"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="12">
-        <v>186305.66791409659</v>
-      </c>
-      <c r="M57" s="12">
-        <v>186306</v>
-      </c>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="6"/>
       <c r="Q57" s="6"/>
@@ -7412,9 +5830,7 @@
       <c r="AB57" s="10"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
-      <c r="AF57" s="6">
-        <v>4507</v>
-      </c>
+      <c r="AF57" s="6"/>
       <c r="AG57" s="10"/>
       <c r="AH57" s="6"/>
       <c r="AI57" s="6"/>
@@ -7430,12 +5846,8 @@
       <c r="AV57" s="10"/>
       <c r="AW57" s="6"/>
       <c r="AX57" s="6"/>
-      <c r="AZ57" s="6">
-        <v>1676</v>
-      </c>
-      <c r="BA57" s="10">
-        <v>1676</v>
-      </c>
+      <c r="AZ57" s="6"/>
+      <c r="BA57" s="10"/>
       <c r="BB57" s="6"/>
       <c r="BC57" s="6"/>
       <c r="BE57" s="38"/>
@@ -7453,15 +5865,11 @@
       <c r="BQ57" s="38"/>
       <c r="BR57" s="38"/>
       <c r="BS57" s="38"/>
-      <c r="BT57" s="38">
-        <v>14816</v>
-      </c>
+      <c r="BT57" s="38"/>
       <c r="BU57" s="38"/>
       <c r="BV57" s="38"/>
       <c r="BW57" s="38"/>
-      <c r="BY57" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY57" s="6"/>
       <c r="BZ57" s="10"/>
       <c r="CA57" s="6"/>
       <c r="CB57" s="6"/>
@@ -7474,12 +5882,8 @@
       <c r="CJ57" s="38"/>
       <c r="CK57" s="38"/>
       <c r="CL57" s="38"/>
-      <c r="CN57" s="6">
-        <v>12.5746266140724</v>
-      </c>
-      <c r="CO57" s="10">
-        <v>13</v>
-      </c>
+      <c r="CN57" s="6"/>
+      <c r="CO57" s="10"/>
       <c r="CP57" s="6"/>
       <c r="CQ57" s="6"/>
       <c r="CS57" s="12"/>
@@ -7487,44 +5891,25 @@
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
     </row>
-    <row r="58" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="8">
-        <v>89230.997700000007</v>
-      </c>
-      <c r="C58" s="8">
-        <v>89231</v>
-      </c>
+    <row r="58" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="G58" s="6">
-        <v>2365.1984000000002</v>
-      </c>
-      <c r="H58" s="10">
-        <v>2365</v>
-      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="10"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="12">
-        <v>4895310.7994112</v>
-      </c>
-      <c r="M58" s="12">
-        <v>4895311</v>
-      </c>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="6"/>
-      <c r="Q58" s="6">
-        <v>1785607</v>
-      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="10"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="V58" s="6">
-        <v>575</v>
-      </c>
+      <c r="V58" s="6"/>
       <c r="W58" s="10"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -7536,37 +5921,23 @@
       <c r="AG58" s="10"/>
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
-      <c r="AK58" s="6">
-        <v>693200</v>
-      </c>
-      <c r="AL58" s="10">
-        <v>693200</v>
-      </c>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="10"/>
       <c r="AM58" s="6"/>
       <c r="AN58" s="6"/>
-      <c r="AP58" s="6">
-        <v>140</v>
-      </c>
-      <c r="AQ58" s="10">
-        <v>140</v>
-      </c>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="10"/>
       <c r="AR58" s="6"/>
       <c r="AS58" s="6"/>
       <c r="AU58" s="6"/>
       <c r="AV58" s="10"/>
       <c r="AW58" s="6"/>
       <c r="AX58" s="6"/>
-      <c r="AZ58" s="6">
-        <v>353.79</v>
-      </c>
-      <c r="BA58" s="10">
-        <v>354</v>
-      </c>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="10"/>
       <c r="BB58" s="6"/>
       <c r="BC58" s="6"/>
-      <c r="BE58" s="38">
-        <v>85824</v>
-      </c>
+      <c r="BE58" s="38"/>
       <c r="BF58" s="38"/>
       <c r="BG58" s="38"/>
       <c r="BH58" s="38"/>
@@ -7581,15 +5952,11 @@
       <c r="BQ58" s="38"/>
       <c r="BR58" s="38"/>
       <c r="BS58" s="38"/>
-      <c r="BT58" s="38">
-        <v>3406.9976999999999</v>
-      </c>
+      <c r="BT58" s="38"/>
       <c r="BU58" s="38"/>
       <c r="BV58" s="38"/>
       <c r="BW58" s="38"/>
-      <c r="BY58" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY58" s="6"/>
       <c r="BZ58" s="10"/>
       <c r="CA58" s="6"/>
       <c r="CB58" s="6"/>
@@ -7602,9 +5969,7 @@
       <c r="CJ58" s="38"/>
       <c r="CK58" s="38"/>
       <c r="CL58" s="38"/>
-      <c r="CN58" s="6">
-        <v>54.86110124947308</v>
-      </c>
+      <c r="CN58" s="6"/>
       <c r="CO58" s="10"/>
       <c r="CP58" s="6"/>
       <c r="CQ58" s="6"/>
@@ -7613,38 +5978,21 @@
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
     </row>
-    <row r="59" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="8">
-        <v>58047</v>
-      </c>
-      <c r="C59" s="8">
-        <v>58047</v>
-      </c>
+    <row r="59" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="G59" s="6">
-        <v>1830.4527</v>
-      </c>
-      <c r="H59" s="10">
-        <v>1830</v>
-      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="10"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="12">
-        <v>1079400.8284416001</v>
-      </c>
-      <c r="M59" s="12">
-        <v>1079400.83</v>
-      </c>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
       <c r="N59" s="12"/>
       <c r="O59" s="6"/>
-      <c r="Q59" s="6">
-        <v>2727969.3657999998</v>
-      </c>
+      <c r="Q59" s="6"/>
       <c r="R59" s="10"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -7660,12 +6008,8 @@
       <c r="AG59" s="10"/>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
-      <c r="AK59" s="6">
-        <v>536475</v>
-      </c>
-      <c r="AL59" s="10">
-        <v>536475</v>
-      </c>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="10"/>
       <c r="AM59" s="6"/>
       <c r="AN59" s="6"/>
       <c r="AP59" s="6"/>
@@ -7680,9 +6024,7 @@
       <c r="BA59" s="10"/>
       <c r="BB59" s="6"/>
       <c r="BC59" s="6"/>
-      <c r="BE59" s="38">
-        <v>58047</v>
-      </c>
+      <c r="BE59" s="38"/>
       <c r="BF59" s="38"/>
       <c r="BG59" s="38"/>
       <c r="BH59" s="38"/>
@@ -7701,9 +6043,7 @@
       <c r="BU59" s="38"/>
       <c r="BV59" s="38"/>
       <c r="BW59" s="38"/>
-      <c r="BY59" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="BY59" s="6"/>
       <c r="BZ59" s="10"/>
       <c r="CA59" s="6"/>
       <c r="CB59" s="6"/>
@@ -7716,9 +6056,7 @@
       <c r="CJ59" s="38"/>
       <c r="CK59" s="38"/>
       <c r="CL59" s="38"/>
-      <c r="CN59" s="6">
-        <v>18.595290513576931</v>
-      </c>
+      <c r="CN59" s="6"/>
       <c r="CO59" s="10"/>
       <c r="CP59" s="6"/>
       <c r="CQ59" s="6"/>
@@ -7727,44 +6065,25 @@
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
     </row>
-    <row r="60" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="8">
-        <v>122667</v>
-      </c>
-      <c r="C60" s="8">
-        <v>122667</v>
-      </c>
+    <row r="60" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="G60" s="6">
-        <v>3683.4245999999998</v>
-      </c>
-      <c r="H60" s="10">
-        <v>3683</v>
-      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="12">
-        <v>1543087.0998144001</v>
-      </c>
-      <c r="M60" s="12">
-        <v>1543087.1</v>
-      </c>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
       <c r="N60" s="12"/>
       <c r="O60" s="6"/>
-      <c r="Q60" s="6">
-        <v>3317194</v>
-      </c>
+      <c r="Q60" s="6"/>
       <c r="R60" s="10"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
-      <c r="V60" s="6">
-        <v>379</v>
-      </c>
+      <c r="V60" s="6"/>
       <c r="W60" s="10"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
@@ -7776,20 +6095,12 @@
       <c r="AG60" s="10"/>
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
-      <c r="AK60" s="6">
-        <v>1079550</v>
-      </c>
-      <c r="AL60" s="10">
-        <v>1079550</v>
-      </c>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="10"/>
       <c r="AM60" s="6"/>
       <c r="AN60" s="6"/>
-      <c r="AP60" s="6">
-        <v>104</v>
-      </c>
-      <c r="AQ60" s="10">
-        <v>104</v>
-      </c>
+      <c r="AP60" s="6"/>
+      <c r="AQ60" s="10"/>
       <c r="AR60" s="6"/>
       <c r="AS60" s="6"/>
       <c r="AU60" s="6"/>
@@ -7800,9 +6111,7 @@
       <c r="BA60" s="10"/>
       <c r="BB60" s="6"/>
       <c r="BC60" s="6"/>
-      <c r="BE60" s="38">
-        <v>116807</v>
-      </c>
+      <c r="BE60" s="38"/>
       <c r="BF60" s="38"/>
       <c r="BG60" s="38"/>
       <c r="BH60" s="38"/>
@@ -7821,15 +6130,11 @@
       <c r="BU60" s="38"/>
       <c r="BV60" s="38"/>
       <c r="BW60" s="38"/>
-      <c r="BY60" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY60" s="6"/>
       <c r="BZ60" s="10"/>
       <c r="CA60" s="6"/>
       <c r="CB60" s="6"/>
-      <c r="CD60" s="38">
-        <v>5860</v>
-      </c>
+      <c r="CD60" s="38"/>
       <c r="CE60" s="38"/>
       <c r="CF60" s="38"/>
       <c r="CG60" s="38"/>
@@ -7838,9 +6143,7 @@
       <c r="CJ60" s="38"/>
       <c r="CK60" s="38"/>
       <c r="CL60" s="38"/>
-      <c r="CN60" s="6">
-        <v>12.57948021729071</v>
-      </c>
+      <c r="CN60" s="6"/>
       <c r="CO60" s="10"/>
       <c r="CP60" s="6"/>
       <c r="CQ60" s="6"/>
@@ -7849,44 +6152,25 @@
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
     </row>
-    <row r="61" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" s="8">
-        <v>48008</v>
-      </c>
-      <c r="C61" s="8">
-        <v>48008</v>
-      </c>
+    <row r="61" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="G61" s="6">
-        <v>1513.9043999999999</v>
-      </c>
-      <c r="H61" s="10">
-        <v>1514</v>
-      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="10"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="12">
-        <v>882083.31643676199</v>
-      </c>
-      <c r="M61" s="12">
-        <v>882083.32</v>
-      </c>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="6"/>
-      <c r="Q61" s="6">
-        <v>7168617</v>
-      </c>
+      <c r="Q61" s="6"/>
       <c r="R61" s="10"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
-      <c r="V61" s="6">
-        <v>1286.1600000000001</v>
-      </c>
+      <c r="V61" s="6"/>
       <c r="W61" s="10"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
@@ -7898,20 +6182,12 @@
       <c r="AG61" s="10"/>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
-      <c r="AK61" s="6">
-        <v>443700</v>
-      </c>
-      <c r="AL61" s="10">
-        <v>443700</v>
-      </c>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="10"/>
       <c r="AM61" s="6"/>
       <c r="AN61" s="6"/>
-      <c r="AP61" s="6">
-        <v>300</v>
-      </c>
-      <c r="AQ61" s="10">
-        <v>300</v>
-      </c>
+      <c r="AP61" s="6"/>
+      <c r="AQ61" s="10"/>
       <c r="AR61" s="6"/>
       <c r="AS61" s="6"/>
       <c r="AU61" s="6"/>
@@ -7922,9 +6198,7 @@
       <c r="BA61" s="10"/>
       <c r="BB61" s="6"/>
       <c r="BC61" s="6"/>
-      <c r="BE61" s="38">
-        <v>48008</v>
-      </c>
+      <c r="BE61" s="38"/>
       <c r="BF61" s="38"/>
       <c r="BG61" s="38"/>
       <c r="BH61" s="38"/>
@@ -7943,9 +6217,7 @@
       <c r="BU61" s="38"/>
       <c r="BV61" s="38"/>
       <c r="BW61" s="38"/>
-      <c r="BY61" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY61" s="6"/>
       <c r="BZ61" s="10"/>
       <c r="CA61" s="6"/>
       <c r="CB61" s="6"/>
@@ -7958,9 +6230,7 @@
       <c r="CJ61" s="38"/>
       <c r="CK61" s="38"/>
       <c r="CL61" s="38"/>
-      <c r="CN61" s="6">
-        <v>18.37367348018584</v>
-      </c>
+      <c r="CN61" s="6"/>
       <c r="CO61" s="10"/>
       <c r="CP61" s="6"/>
       <c r="CQ61" s="6"/>
@@ -7969,31 +6239,18 @@
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
     </row>
-    <row r="62" spans="1:100" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="8">
-        <v>47755</v>
-      </c>
-      <c r="C62" s="8">
-        <v>47755</v>
-      </c>
+    <row r="62" spans="2:100" x14ac:dyDescent="0.45">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="10"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="12">
-        <v>431844.50682906603</v>
-      </c>
-      <c r="M62" s="12">
-        <v>431845</v>
-      </c>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
       <c r="N62" s="12"/>
       <c r="O62" s="6"/>
       <c r="Q62" s="6"/>
@@ -8008,9 +6265,7 @@
       <c r="AB62" s="10"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
-      <c r="AF62" s="6">
-        <v>13439</v>
-      </c>
+      <c r="AF62" s="6"/>
       <c r="AG62" s="10"/>
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
@@ -8026,17 +6281,11 @@
       <c r="AV62" s="10"/>
       <c r="AW62" s="6"/>
       <c r="AX62" s="6"/>
-      <c r="AZ62" s="6">
-        <v>4595</v>
-      </c>
-      <c r="BA62" s="10">
-        <v>4595</v>
-      </c>
+      <c r="AZ62" s="6"/>
+      <c r="BA62" s="10"/>
       <c r="BB62" s="6"/>
       <c r="BC62" s="6"/>
-      <c r="BE62" s="38">
-        <v>0</v>
-      </c>
+      <c r="BE62" s="38"/>
       <c r="BF62" s="38"/>
       <c r="BG62" s="38"/>
       <c r="BH62" s="38"/>
@@ -8051,15 +6300,11 @@
       <c r="BQ62" s="38"/>
       <c r="BR62" s="38"/>
       <c r="BS62" s="38"/>
-      <c r="BT62" s="38">
-        <v>47755</v>
-      </c>
+      <c r="BT62" s="38"/>
       <c r="BU62" s="38"/>
       <c r="BV62" s="38"/>
       <c r="BW62" s="38"/>
-      <c r="BY62" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="BY62" s="6"/>
       <c r="BZ62" s="10"/>
       <c r="CA62" s="6"/>
       <c r="CB62" s="6"/>
@@ -8072,9 +6317,7 @@
       <c r="CJ62" s="38"/>
       <c r="CK62" s="38"/>
       <c r="CL62" s="38"/>
-      <c r="CN62" s="6">
-        <v>9.0429171150469259</v>
-      </c>
+      <c r="CN62" s="6"/>
       <c r="CO62" s="10"/>
       <c r="CP62" s="6"/>
       <c r="CQ62" s="6"/>
@@ -8083,7 +6326,7 @@
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
     </row>
-    <row r="63" spans="1:100" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:100" x14ac:dyDescent="0.45">
       <c r="B63" s="8">
         <v>1942029.96199376</v>
       </c>
@@ -8174,7 +6417,7 @@
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
     </row>
-    <row r="64" spans="1:100" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:100" x14ac:dyDescent="0.45">
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -25837,6 +24080,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="BT10:BV10"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="BO12:BQ12"/>
+    <mergeCell ref="BE12:BG12"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="AZ11:BB11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="BE10:BG10"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="CN12:CP12"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="CD10:CF10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="BO10:BQ10"/>
@@ -25853,54 +24144,6 @@
     <mergeCell ref="AU10:AW10"/>
     <mergeCell ref="CI10:CK10"/>
     <mergeCell ref="CN11:CP11"/>
-    <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="BO12:BQ12"/>
-    <mergeCell ref="BE12:BG12"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="AZ11:BB11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="BE10:BG10"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="BT10:BV10"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C266 H15:H266">
     <cfRule type="expression" dxfId="17" priority="18">

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B1985D-564C-46CD-A912-C6B2BBB82E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE1FEC-87CE-40E4-86D1-9EE27863C055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5063" yWindow="90" windowWidth="23684" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="225" windowWidth="23175" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -600,21 +600,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1065,10 @@
   <dimension ref="A2:CV266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AP26" sqref="AP26"/>
+      <pane xSplit="1" ySplit="14" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1157,7 +1160,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.45">
@@ -1414,105 +1417,105 @@
       </c>
     </row>
     <row r="10" spans="1:100" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="43" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="43" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="41"/>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="43" t="s">
         <v>12</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="43" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="41"/>
-      <c r="Q10" s="39" t="s">
+      <c r="Q10" s="43" t="s">
         <v>14</v>
       </c>
       <c r="R10" s="40"/>
       <c r="S10" s="41"/>
-      <c r="V10" s="39" t="s">
+      <c r="V10" s="43" t="s">
         <v>15</v>
       </c>
       <c r="W10" s="40"/>
       <c r="X10" s="41"/>
-      <c r="AA10" s="39" t="s">
+      <c r="AA10" s="43" t="s">
         <v>16</v>
       </c>
       <c r="AB10" s="40"/>
       <c r="AC10" s="41"/>
-      <c r="AF10" s="39" t="s">
+      <c r="AF10" s="43" t="s">
         <v>17</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="41"/>
-      <c r="AK10" s="39" t="s">
+      <c r="AK10" s="43" t="s">
         <v>18</v>
       </c>
       <c r="AL10" s="40"/>
       <c r="AM10" s="41"/>
-      <c r="AP10" s="39" t="s">
+      <c r="AP10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="AQ10" s="40"/>
       <c r="AR10" s="41"/>
-      <c r="AU10" s="39" t="s">
+      <c r="AU10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="AV10" s="40"/>
       <c r="AW10" s="41"/>
-      <c r="AZ10" s="39" t="s">
+      <c r="AZ10" s="43" t="s">
         <v>21</v>
       </c>
       <c r="BA10" s="40"/>
       <c r="BB10" s="41"/>
-      <c r="BE10" s="39" t="s">
+      <c r="BE10" s="43" t="s">
         <v>22</v>
       </c>
       <c r="BF10" s="40"/>
       <c r="BG10" s="41"/>
-      <c r="BJ10" s="39" t="s">
+      <c r="BJ10" s="43" t="s">
         <v>23</v>
       </c>
       <c r="BK10" s="40"/>
       <c r="BL10" s="41"/>
-      <c r="BO10" s="39" t="s">
+      <c r="BO10" s="43" t="s">
         <v>24</v>
       </c>
       <c r="BP10" s="40"/>
       <c r="BQ10" s="41"/>
-      <c r="BT10" s="39" t="s">
+      <c r="BT10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="BU10" s="40"/>
       <c r="BV10" s="41"/>
-      <c r="BY10" s="39" t="s">
+      <c r="BY10" s="43" t="s">
         <v>26</v>
       </c>
       <c r="BZ10" s="40"/>
       <c r="CA10" s="41"/>
-      <c r="CD10" s="39" t="s">
+      <c r="CD10" s="43" t="s">
         <v>27</v>
       </c>
       <c r="CE10" s="40"/>
       <c r="CF10" s="41"/>
-      <c r="CI10" s="39" t="s">
+      <c r="CI10" s="43" t="s">
         <v>28</v>
       </c>
       <c r="CJ10" s="40"/>
       <c r="CK10" s="41"/>
-      <c r="CN10" s="39" t="s">
+      <c r="CN10" s="43" t="s">
         <v>29</v>
       </c>
       <c r="CO10" s="40"/>
@@ -1524,7 +1527,7 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="49"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41"/>
       <c r="G11" s="42"/>
@@ -1639,19 +1642,19 @@
       <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="45"/>
-      <c r="N12" s="47"/>
+      <c r="N12" s="46"/>
       <c r="O12" t="s">
         <v>33</v>
       </c>
@@ -6327,9 +6330,7 @@
       <c r="CV62" s="1"/>
     </row>
     <row r="63" spans="2:100" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
-        <v>1942029.96199376</v>
-      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -24080,22 +24081,38 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="BO11:BQ11"/>
-    <mergeCell ref="BT12:BV12"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="BT10:BV10"/>
-    <mergeCell ref="CI11:CK11"/>
-    <mergeCell ref="CD12:CF12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="BJ11:BL11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="BY12:CA12"/>
-    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="CD10:CF10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="BO10:BQ10"/>
+    <mergeCell ref="BY11:CA11"/>
+    <mergeCell ref="CN10:CP10"/>
+    <mergeCell ref="BY10:CA10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="AZ10:BB10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="CD11:CF11"/>
+    <mergeCell ref="BT11:BV11"/>
+    <mergeCell ref="BJ10:BL10"/>
+    <mergeCell ref="AU10:AW10"/>
+    <mergeCell ref="CI10:CK10"/>
+    <mergeCell ref="CN11:CP11"/>
+    <mergeCell ref="CN12:CP12"/>
+    <mergeCell ref="AU11:AW11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="BE11:BG11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="BJ12:BL12"/>
+    <mergeCell ref="AZ12:BB12"/>
+    <mergeCell ref="CI12:CK12"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="BO12:BQ12"/>
     <mergeCell ref="BE12:BG12"/>
@@ -24112,38 +24129,22 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="V10:X10"/>
-    <mergeCell ref="CN12:CP12"/>
-    <mergeCell ref="AU11:AW11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="BE11:BG11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="BJ12:BL12"/>
-    <mergeCell ref="AZ12:BB12"/>
-    <mergeCell ref="CI12:CK12"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="CD10:CF10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="BO10:BQ10"/>
-    <mergeCell ref="BY11:CA11"/>
-    <mergeCell ref="CN10:CP10"/>
-    <mergeCell ref="BY10:CA10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="AZ10:BB10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="CD11:CF11"/>
-    <mergeCell ref="BT11:BV11"/>
-    <mergeCell ref="BJ10:BL10"/>
-    <mergeCell ref="AU10:AW10"/>
-    <mergeCell ref="CI10:CK10"/>
-    <mergeCell ref="CN11:CP11"/>
+    <mergeCell ref="CI11:CK11"/>
+    <mergeCell ref="CD12:CF12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="BJ11:BL11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="BY12:CA12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="BO11:BQ11"/>
+    <mergeCell ref="BT12:BV12"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="BT10:BV10"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C266 H15:H266">
     <cfRule type="expression" dxfId="17" priority="18">

--- a/Comparator.xlsx
+++ b/Comparator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coder\Desktop\WordExcelComparator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32382BA-7EFF-4CA2-B522-6C7396751FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B4B16-31C7-4526-B925-1A0A8AB6BB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="308" yWindow="300" windowWidth="26092" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1267" yWindow="255" windowWidth="22305" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comparator" sheetId="1" r:id="rId1"/>
@@ -30,30 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Project Name</t>
   </si>
@@ -76,6 +54,9 @@
     <t>Total Discrepancies Found</t>
   </si>
   <si>
+    <t>Error per alias/data point</t>
+  </si>
+  <si>
     <t>Discrepancies</t>
   </si>
   <si>
@@ -83,6 +64,9 @@
   </si>
   <si>
     <t>Total energy savings (MBTU/yr) from Y258</t>
+  </si>
+  <si>
+    <t>Annual Estimated Energy Savings (MMBtu)</t>
   </si>
   <si>
     <t>ECM cost savings from column AE</t>
@@ -142,6 +126,30 @@
     <t>Simple Payback Period column AG</t>
   </si>
   <si>
+    <t xml:space="preserve"> Total Utility ($/yr) Cost Savings Year 1 </t>
+  </si>
+  <si>
+    <t>Total Energy (mmBTU) Savings Year 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project ($) Cost </t>
+  </si>
+  <si>
+    <t>Electricity Consumption  (kWh/yr) Savings Year 1</t>
+  </si>
+  <si>
+    <t>Electricity Demand  (kW/mo) Savings Year 1</t>
+  </si>
+  <si>
+    <t>Nat Gas Consumption  (MMBTU/yr) Savings Year 1</t>
+  </si>
+  <si>
+    <t>Water Sewer Consumption (kGal) Savings Year 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Pay back </t>
+  </si>
+  <si>
     <t>ECMs by Building</t>
   </si>
   <si>
@@ -155,6 +163,21 @@
   </si>
   <si>
     <t>ePB Sch 4 Savings</t>
+  </si>
+  <si>
+    <t>Alias 1</t>
+  </si>
+  <si>
+    <t>Alias 2</t>
+  </si>
+  <si>
+    <t>Alias 3</t>
+  </si>
+  <si>
+    <t>Alias 4</t>
+  </si>
+  <si>
+    <t>Alias 5</t>
   </si>
   <si>
     <t>MBTU/yr Savings</t>
@@ -172,7 +195,7 @@
     <t>Baseline kW</t>
   </si>
   <si>
-    <t>Baseline Gas Mbtu</t>
+    <t>Baseline Gas MBTU</t>
   </si>
   <si>
     <t>Baseline Kgal</t>
@@ -228,24 +251,6 @@
   <si>
     <t>Total</t>
   </si>
-  <si>
-    <t>Alias 1</t>
-  </si>
-  <si>
-    <t>Alias 2</t>
-  </si>
-  <si>
-    <t>Alias 3</t>
-  </si>
-  <si>
-    <t>Alias 4</t>
-  </si>
-  <si>
-    <t>Alias 5</t>
-  </si>
-  <si>
-    <t>Error per alias/data point</t>
-  </si>
 </sst>
 </file>
 
@@ -255,7 +260,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +286,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4C4E52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4C4E52"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -533,21 +553,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -558,7 +589,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -619,47 +650,45 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +699,14 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1113,7 +1149,7 @@
       <pane xSplit="1" ySplit="15" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1132,7 +1168,7 @@
     <col min="13" max="13" width="18.59765625" customWidth="1"/>
     <col min="14" max="14" width="20.796875" customWidth="1"/>
     <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="16" max="16" width="15.1328125" customWidth="1"/>
     <col min="17" max="17" width="16.3984375" customWidth="1"/>
     <col min="18" max="19" width="14.9296875" customWidth="1"/>
     <col min="20" max="20" width="16.59765625" customWidth="1"/>
@@ -1147,11 +1183,11 @@
     <col min="32" max="32" width="16.3984375" customWidth="1"/>
     <col min="33" max="34" width="14.9296875" customWidth="1"/>
     <col min="35" max="35" width="13.9296875" customWidth="1"/>
-    <col min="36" max="36" width="12.19921875" customWidth="1"/>
+    <col min="36" max="36" width="16.1328125" customWidth="1"/>
     <col min="37" max="37" width="16.3984375" customWidth="1"/>
     <col min="38" max="41" width="14.9296875" customWidth="1"/>
     <col min="42" max="42" width="18.06640625" customWidth="1"/>
-    <col min="43" max="43" width="10.3984375" customWidth="1"/>
+    <col min="43" max="43" width="12.06640625" customWidth="1"/>
     <col min="44" max="44" width="16.3984375" customWidth="1"/>
     <col min="45" max="48" width="14.9296875" customWidth="1"/>
     <col min="49" max="49" width="16.6640625" customWidth="1"/>
@@ -1220,8 +1256,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1246,9 +1282,6 @@
         <v>4</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1267,757 +1300,667 @@
     </row>
     <row r="9" spans="1:138" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C9" s="15" cm="1">
+      <c r="C9" s="15">
         <f t="array" ref="C9">SUM(IF(ROUND($B16:$B267,0)&lt;&gt;ROUND(C16:C267,0), 1, 0)) + COUNTBLANK($B16:$B267) + COUNTIF($B16:$B267, 0) - COUNTBLANK(C16:C267) - COUNTIF(C16:C267, 0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="15" cm="1">
+      <c r="D9" s="15">
         <f t="array" ref="D9">SUM(IF(ROUND($B16:$B267,0)&lt;&gt;ROUND(D16:D267,0), 1, 0)) + COUNTBLANK($B16:$B267) + COUNTIF($B16:$B267, 0) - COUNTBLANK(D16:D267) - COUNTIF(D16:D267, 0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="15" cm="1">
+      <c r="E9" s="15">
         <f t="array" ref="E9">SUM(IF(ROUND($B16:$B267,0)&lt;&gt;ROUND(E16:E267,0), 1, 0)) + COUNTBLANK($B16:$B267) + COUNTIF($B16:$B267, 0) - COUNTBLANK(E16:E267) - COUNTIF(E16:E267, 0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="15" cm="1">
+      <c r="F9" s="15">
         <f t="array" ref="F9">SUM(IF(ROUND($B16:$B267,0)&lt;&gt;ROUND(F16:F267,0), 1, 0)) + COUNTBLANK($B16:$B267) + COUNTIF($B16:$B267, 0) - COUNTBLANK(F16:F267) - COUNTIF(F16:F267, 0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="15" cm="1">
+      <c r="G9" s="15">
         <f t="array" ref="G9">SUM(IF(ROUND($B16:$B267,0)&lt;&gt;ROUND(G16:G267,0), 1, 0)) + COUNTBLANK($B16:$B267) + COUNTIF($B16:$B267, 0) - COUNTBLANK(G16:G267) - COUNTIF(G16:G267, 0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="15" cm="1">
+      <c r="J9" s="15">
         <f t="array" ref="J9">SUM(IF(ROUND($I16:$I267,0)&lt;&gt;ROUND(J16:J267,0), 1, 0)) + COUNTBLANK($I16:$I267) + COUNTIF($I16:$I267, 0) - COUNTBLANK(J16:J267) - COUNTIF(J16:J267, 0)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="15" cm="1">
+      <c r="K9" s="15">
         <f t="array" ref="K9">SUM(IF(ROUND($I16:$I267,0)&lt;&gt;ROUND(K16:K267,0), 1, 0)) + COUNTBLANK($I16:$I267) + COUNTIF($I16:$I267, 0) - COUNTBLANK(K16:K267) - COUNTIF(K16:K267, 0)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="15" cm="1">
+      <c r="L9" s="15">
         <f t="array" ref="L9">SUM(IF(ROUND($I16:$I267,0)&lt;&gt;ROUND(L16:L267,0), 1, 0)) + COUNTBLANK($I16:$I267) + COUNTIF($I16:$I267, 0) - COUNTBLANK(L16:L267) - COUNTIF(L16:L267, 0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="15" cm="1">
+      <c r="M9" s="15">
         <f t="array" ref="M9">SUM(IF(ROUND($I16:$I267,0)&lt;&gt;ROUND(M16:M267,0), 1, 0)) + COUNTBLANK($I16:$I267) + COUNTIF($I16:$I267, 0) - COUNTBLANK(M16:M267) - COUNTIF(M16:M267, 0)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="15" cm="1">
+      <c r="N9" s="15">
         <f t="array" ref="N9">SUM(IF(ROUND($I16:$I267,0)&lt;&gt;ROUND(N16:N267,0), 1, 0)) + COUNTBLANK($I16:$I267) + COUNTIF($I16:$I267, 0) - COUNTBLANK(N16:N267) - COUNTIF(N16:N267, 0)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="17" cm="1">
+      <c r="Q9" s="17">
         <f t="array" ref="Q9">SUM(IF(ROUND($P16:$P267,0)&lt;&gt;ROUND(Q16:Q267,0), 1, 0)) + COUNTBLANK($P16:$P267) + COUNTIF($P16:$P267, 0) - COUNTBLANK(Q16:Q267) - COUNTIF(Q16:Q267, 0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="17" cm="1">
+      <c r="R9" s="17">
         <f t="array" ref="R9">SUM(IF(ROUND($P16:$P267,0)&lt;&gt;ROUND(R16:R267,0), 1, 0)) + COUNTBLANK($P16:$P267) + COUNTIF($P16:$P267, 0) - COUNTBLANK(R16:R267) - COUNTIF(R16:R267, 0)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="17" cm="1">
+      <c r="S9" s="17">
         <f t="array" ref="S9">SUM(IF(ROUND($P16:$P267,0)&lt;&gt;ROUND(S16:S267,0), 1, 0)) + COUNTBLANK($P16:$P267) + COUNTIF($P16:$P267, 0) - COUNTBLANK(S16:S267) - COUNTIF(S16:S267, 0)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="17" cm="1">
+      <c r="T9" s="17">
         <f t="array" ref="T9">SUM(IF(ROUND($P16:$P267,0)&lt;&gt;ROUND(T16:T267,0), 1, 0)) + COUNTBLANK($P16:$P267) + COUNTIF($P16:$P267, 0) - COUNTBLANK(T16:T267) - COUNTIF(T16:T267, 0)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="17" cm="1">
+      <c r="U9" s="17">
         <f t="array" ref="U9">SUM(IF(ROUND($P16:$P267,0)&lt;&gt;ROUND(U16:U267,0), 1, 0)) + COUNTBLANK($P16:$P267) + COUNTIF($P16:$P267, 0) - COUNTBLANK(U16:U267) - COUNTIF(U16:U267, 0)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="17" cm="1">
+      <c r="X9" s="17">
         <f t="array" ref="X9">SUM(IF(ROUND($W16:$W267,0)&lt;&gt;ROUND(X16:X267,0), 1, 0)) + COUNTBLANK($W16:$W267) + COUNTIF($W16:$W267, 0) - COUNTBLANK(X16:X267) - COUNTIF(X16:X267, 0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="17" cm="1">
+      <c r="Y9" s="17">
         <f t="array" ref="Y9">SUM(IF(ROUND($W16:$W267,0)&lt;&gt;ROUND(Y16:Y267,0), 1, 0)) + COUNTBLANK($W16:$W267) + COUNTIF($W16:$W267, 0) - COUNTBLANK(Y16:Y267) - COUNTIF(Y16:Y267, 0)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="17" cm="1">
+      <c r="Z9" s="17">
         <f t="array" ref="Z9">SUM(IF(ROUND($W16:$W267,0)&lt;&gt;ROUND(Z16:Z267,0), 1, 0)) + COUNTBLANK($W16:$W267) + COUNTIF($W16:$W267, 0) - COUNTBLANK(Z16:Z267) - COUNTIF(Z16:Z267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="17" cm="1">
+      <c r="AA9" s="17">
         <f t="array" ref="AA9">SUM(IF(ROUND($W16:$W267,0)&lt;&gt;ROUND(AA16:AA267,0), 1, 0)) + COUNTBLANK($W16:$W267) + COUNTIF($W16:$W267, 0) - COUNTBLANK(AA16:AA267) - COUNTIF(AA16:AA267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="17" cm="1">
+      <c r="AB9" s="17">
         <f t="array" ref="AB9">SUM(IF(ROUND($W16:$W267,0)&lt;&gt;ROUND(AB16:AB267,0), 1, 0)) + COUNTBLANK($W16:$W267) + COUNTIF($W16:$W267, 0) - COUNTBLANK(AB16:AB267) - COUNTIF(AB16:AB267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="17" cm="1">
+      <c r="AE9" s="17">
         <f t="array" ref="AE9">SUM(IF(ROUND(AD16:AD267,0)&lt;&gt;ROUND(AE16:AE267,0), 1, 0)) + COUNTBLANK(AD16:AD267) + COUNTIF(AD16:AD267, 0) - COUNTBLANK(AE16:AE267) - COUNTIF(AE16:AE267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="17" cm="1">
+      <c r="AF9" s="17">
         <f t="array" ref="AF9">SUM(IF(ROUND(AD16:AD267,0)&lt;&gt;ROUND(AF16:AF267,0), 1, 0)) + COUNTBLANK(AD16:AD267) + COUNTIF(AD16:AD267, 0) - COUNTBLANK(AF16:AF267) - COUNTIF(AF16:AF267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="17" cm="1">
+      <c r="AG9" s="17">
         <f t="array" ref="AG9">SUM(IF(ROUND(AD16:AD267,0)&lt;&gt;ROUND(AG16:AG267,0), 1, 0)) + COUNTBLANK(AD16:AD267) + COUNTIF(AD16:AD267, 0) - COUNTBLANK(AG16:AG267) - COUNTIF(AG16:AG267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="17" cm="1">
+      <c r="AH9" s="17">
         <f t="array" ref="AH9">SUM(IF(ROUND(AD16:AD267,0)&lt;&gt;ROUND(AH16:AH267,0), 1, 0)) + COUNTBLANK(AD16:AD267) + COUNTIF(AD16:AD267, 0) - COUNTBLANK(AH16:AH267) - COUNTIF(AH16:AH267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="17" cm="1">
+      <c r="AI9" s="17">
         <f t="array" ref="AI9">SUM(IF(ROUND(AD16:AD267,0)&lt;&gt;ROUND(AI16:AI267,0), 1, 0)) + COUNTBLANK(AD16:AD267) + COUNTIF(AD16:AD267, 0) - COUNTBLANK(AI16:AI267) - COUNTIF(AI16:AI267, 0)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="17"/>
-      <c r="AL9" s="17" cm="1">
+      <c r="AL9" s="17">
         <f t="array" ref="AL9">SUM(IF(ROUND(AK16:AK267,0)&lt;&gt;ROUND(AL16:AL267,0), 1, 0)) + COUNTBLANK(AK16:AK267) + COUNTIF(AK16:AK267, 0) - COUNTBLANK(AL16:AL267) - COUNTIF(AL16:AL267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="17" cm="1">
+      <c r="AM9" s="17">
         <f t="array" ref="AM9">SUM(IF(ROUND(AK16:AK267,0)&lt;&gt;ROUND(AM16:AM267,0), 1, 0)) + COUNTBLANK(AK16:AK267) + COUNTIF(AK16:AK267, 0) - COUNTBLANK(AM16:AM267) - COUNTIF(AM16:AM267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="17" cm="1">
+      <c r="AN9" s="17">
         <f t="array" ref="AN9">SUM(IF(ROUND(AK16:AK267,0)&lt;&gt;ROUND(AN16:AN267,0), 1, 0)) + COUNTBLANK(AK16:AK267) + COUNTIF(AK16:AK267, 0) - COUNTBLANK(AN16:AN267) - COUNTIF(AN16:AN267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="17" cm="1">
+      <c r="AO9" s="17">
         <f t="array" ref="AO9">SUM(IF(ROUND(AK16:AK267,0)&lt;&gt;ROUND(AO16:AO267,0), 1, 0)) + COUNTBLANK(AK16:AK267) + COUNTIF(AK16:AK267, 0) - COUNTBLANK(AO16:AO267) - COUNTIF(AO16:AO267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AP9" s="17" cm="1">
+      <c r="AP9" s="17">
         <f t="array" ref="AP9">SUM(IF(ROUND(AK16:AK267,0)&lt;&gt;ROUND(AP16:AP267,0), 1, 0)) + COUNTBLANK(AK16:AK267) + COUNTIF(AK16:AK267, 0) - COUNTBLANK(AP16:AP267) - COUNTIF(AP16:AP267, 0)</f>
         <v>0</v>
       </c>
       <c r="AR9" s="17"/>
-      <c r="AS9" s="17" cm="1">
+      <c r="AS9" s="17">
         <f t="array" ref="AS9">SUM(IF(ROUND(AR16:AR267,0)&lt;&gt;ROUND(AS16:AS267,0), 1, 0)) + COUNTBLANK(AR16:AR267) + COUNTIF(AR16:AR267, 0) - COUNTBLANK(AS16:AS267) - COUNTIF(AS16:AS267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="17" cm="1">
+      <c r="AT9" s="17">
         <f t="array" ref="AT9">SUM(IF(ROUND(AR16:AR267,0)&lt;&gt;ROUND(AT16:AT267,0), 1, 0)) + COUNTBLANK(AR16:AR267) + COUNTIF(AR16:AR267, 0) - COUNTBLANK(AT16:AT267) - COUNTIF(AT16:AT267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="17" cm="1">
+      <c r="AU9" s="17">
         <f t="array" ref="AU9">SUM(IF(ROUND(AR16:AR267,0)&lt;&gt;ROUND(AU16:AU267,0), 1, 0)) + COUNTBLANK(AR16:AR267) + COUNTIF(AR16:AR267, 0) - COUNTBLANK(AU16:AU267) - COUNTIF(AU16:AU267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="17" cm="1">
+      <c r="AV9" s="17">
         <f t="array" ref="AV9">SUM(IF(ROUND(AR16:AR267,0)&lt;&gt;ROUND(AV16:AV267,0), 1, 0)) + COUNTBLANK(AR16:AR267) + COUNTIF(AR16:AR267, 0) - COUNTBLANK(AV16:AV267) - COUNTIF(AV16:AV267, 0)</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="17" cm="1">
+      <c r="AW9" s="17">
         <f t="array" ref="AW9">SUM(IF(ROUND(AR16:AR267,0)&lt;&gt;ROUND(AW16:AW267,0), 1, 0)) + COUNTBLANK(AR16:AR267) + COUNTIF(AR16:AR267, 0) - COUNTBLANK(AW16:AW267) - COUNTIF(AW16:AW267, 0)</f>
         <v>0</v>
       </c>
       <c r="AY9" s="17"/>
-      <c r="AZ9" s="17" cm="1">
+      <c r="AZ9" s="17">
         <f t="array" ref="AZ9">SUM(IF(ROUND(AY16:AY267,0)&lt;&gt;ROUND(AZ16:AZ267,0), 1, 0)) + COUNTBLANK(AY16:AY267) + COUNTIF(AY16:AY267, 0) - COUNTBLANK(AZ16:AZ267) - COUNTIF(AZ16:AZ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BA9" s="17" cm="1">
+      <c r="BA9" s="17">
         <f t="array" ref="BA9">SUM(IF(ROUND(AY16:AY267,0)&lt;&gt;ROUND(BA16:BA267,0), 1, 0)) + COUNTBLANK(AY16:AY267) + COUNTIF(AY16:AY267, 0) - COUNTBLANK(BA16:BA267) - COUNTIF(BA16:BA267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BB9" s="17" cm="1">
+      <c r="BB9" s="17">
         <f t="array" ref="BB9">SUM(IF(ROUND(AY16:AY267,0)&lt;&gt;ROUND(BB16:BB267,0), 1, 0)) + COUNTBLANK(AY16:AY267) + COUNTIF(AY16:AY267, 0) - COUNTBLANK(BB16:BB267) - COUNTIF(BB16:BB267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="17" cm="1">
+      <c r="BC9" s="17">
         <f t="array" ref="BC9">SUM(IF(ROUND(AY16:AY267,0)&lt;&gt;ROUND(BC16:BC267,0), 1, 0)) + COUNTBLANK(AY16:AY267) + COUNTIF(AY16:AY267, 0) - COUNTBLANK(BC16:BC267) - COUNTIF(BC16:BC267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BD9" s="17" cm="1">
+      <c r="BD9" s="17">
         <f t="array" ref="BD9">SUM(IF(ROUND(AY16:AY267,0)&lt;&gt;ROUND(BD16:BD267,0), 1, 0)) + COUNTBLANK(AY16:AY267) + COUNTIF(AY16:AY267, 0) - COUNTBLANK(BD16:BD267) - COUNTIF(BD16:BD267, 0)</f>
         <v>0</v>
       </c>
       <c r="BF9" s="17"/>
-      <c r="BG9" s="17" cm="1">
+      <c r="BG9" s="17">
         <f t="array" ref="BG9">SUM(IF(ROUND(BF16:BF267,0)&lt;&gt;ROUND(BG16:BG267,0), 1, 0)) + COUNTBLANK(BF16:BF267) + COUNTIF(BF16:BF267, 0) - COUNTBLANK(BG16:BG267) - COUNTIF(BG16:BG267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BH9" s="17" cm="1">
+      <c r="BH9" s="17">
         <f t="array" ref="BH9">SUM(IF(ROUND(BF16:BF267,0)&lt;&gt;ROUND(BH16:BH267,0), 1, 0)) + COUNTBLANK(BF16:BF267) + COUNTIF(BF16:BF267, 0) - COUNTBLANK(BH16:BH267) - COUNTIF(BH16:BH267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BI9" s="17" cm="1">
+      <c r="BI9" s="17">
         <f t="array" ref="BI9">SUM(IF(ROUND(BF16:BF267,0)&lt;&gt;ROUND(BI16:BI267,0), 1, 0)) + COUNTBLANK(BF16:BF267) + COUNTIF(BF16:BF267, 0) - COUNTBLANK(BI16:BI267) - COUNTIF(BI16:BI267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BJ9" s="17" cm="1">
+      <c r="BJ9" s="17">
         <f t="array" ref="BJ9">SUM(IF(ROUND(BF16:BF267,0)&lt;&gt;ROUND(BJ16:BJ267,0), 1, 0)) + COUNTBLANK(BF16:BF267) + COUNTIF(BF16:BF267, 0) - COUNTBLANK(BJ16:BJ267) - COUNTIF(BJ16:BJ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BK9" s="17" cm="1">
+      <c r="BK9" s="17">
         <f t="array" ref="BK9">SUM(IF(ROUND(BF16:BF267,0)&lt;&gt;ROUND(BK16:BK267,0), 1, 0)) + COUNTBLANK(BF16:BF267) + COUNTIF(BF16:BF267, 0) - COUNTBLANK(BK16:BK267) - COUNTIF(BK16:BK267, 0)</f>
         <v>0</v>
       </c>
       <c r="BM9" s="17"/>
-      <c r="BN9" s="17" cm="1">
+      <c r="BN9" s="17">
         <f t="array" ref="BN9">SUM(IF(ROUND(BM16:BM267,0)&lt;&gt;ROUND(BN16:BN267,0), 1, 0)) + COUNTBLANK(BM16:BM267) + COUNTIF(BM16:BM267, 0) - COUNTBLANK(BN16:BN267) - COUNTIF(BN16:BN267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BO9" s="17" cm="1">
+      <c r="BO9" s="17">
         <f t="array" ref="BO9">SUM(IF(ROUND(BM16:BM267,0)&lt;&gt;ROUND(BO16:BO267,0), 1, 0)) + COUNTBLANK(BM16:BM267) + COUNTIF(BM16:BM267, 0) - COUNTBLANK(BO16:BO267) - COUNTIF(BO16:BO267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BP9" s="17" cm="1">
+      <c r="BP9" s="17">
         <f t="array" ref="BP9">SUM(IF(ROUND(BM16:BM267,0)&lt;&gt;ROUND(BP16:BP267,0), 1, 0)) + COUNTBLANK(BM16:BM267) + COUNTIF(BM16:BM267, 0) - COUNTBLANK(BP16:BP267) - COUNTIF(BP16:BP267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BQ9" s="17" cm="1">
+      <c r="BQ9" s="17">
         <f t="array" ref="BQ9">SUM(IF(ROUND(BM16:BM267,0)&lt;&gt;ROUND(BQ16:BQ267,0), 1, 0)) + COUNTBLANK(BM16:BM267) + COUNTIF(BM16:BM267, 0) - COUNTBLANK(BQ16:BQ267) - COUNTIF(BQ16:BQ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BR9" s="17" cm="1">
+      <c r="BR9" s="17">
         <f t="array" ref="BR9">SUM(IF(ROUND(BM16:BM267,0)&lt;&gt;ROUND(BR16:BR267,0), 1, 0)) + COUNTBLANK(BM16:BM267) + COUNTIF(BM16:BM267, 0) - COUNTBLANK(BR16:BR267) - COUNTIF(BR16:BR267, 0)</f>
         <v>0</v>
       </c>
       <c r="BT9" s="17"/>
-      <c r="BU9" s="17" cm="1">
+      <c r="BU9" s="17">
         <f t="array" ref="BU9">SUM(IF(ROUND(BT16:BT267,0)&lt;&gt;ROUND(BU16:BU267,0), 1, 0)) + COUNTBLANK(BT16:BT267) + COUNTIF(BT16:BT267, 0) - COUNTBLANK(BU16:BU267) - COUNTIF(BU16:BU267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BV9" s="17" cm="1">
+      <c r="BV9" s="17">
         <f t="array" ref="BV9">SUM(IF(ROUND(BT16:BT267,0)&lt;&gt;ROUND(BV16:BV267,0), 1, 0)) + COUNTBLANK(BT16:BT267) + COUNTIF(BT16:BT267, 0) - COUNTBLANK(BV16:BV267) - COUNTIF(BV16:BV267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BW9" s="17" cm="1">
+      <c r="BW9" s="17">
         <f t="array" ref="BW9">SUM(IF(ROUND(BT16:BT267,0)&lt;&gt;ROUND(BW16:BW267,0), 1, 0)) + COUNTBLANK(BT16:BT267) + COUNTIF(BT16:BT267, 0) - COUNTBLANK(BW16:BW267) - COUNTIF(BW16:BW267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BX9" s="17" cm="1">
+      <c r="BX9" s="17">
         <f t="array" ref="BX9">SUM(IF(ROUND(BT16:BT267,0)&lt;&gt;ROUND(BX16:BX267,0), 1, 0)) + COUNTBLANK(BT16:BT267) + COUNTIF(BT16:BT267, 0) - COUNTBLANK(BX16:BX267) - COUNTIF(BX16:BX267, 0)</f>
         <v>0</v>
       </c>
-      <c r="BY9" s="17" cm="1">
+      <c r="BY9" s="17">
         <f t="array" ref="BY9">SUM(IF(ROUND(BT16:BT267,0)&lt;&gt;ROUND(BY16:BY267,0), 1, 0)) + COUNTBLANK(BT16:BT267) + COUNTIF(BT16:BT267, 0) - COUNTBLANK(BY16:BY267) - COUNTIF(BY16:BY267, 0)</f>
         <v>0</v>
       </c>
       <c r="CA9" s="17"/>
-      <c r="CB9" s="17" cm="1">
+      <c r="CB9" s="17">
         <f t="array" ref="CB9">SUM(IF(ROUND(CA16:CA267,0)&lt;&gt;ROUND(CB16:CB267,0), 1, 0)) + COUNTBLANK(CA16:CA267) + COUNTIF(CA16:CA267, 0) - COUNTBLANK(CB16:CB267) - COUNTIF(CB16:CB267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CC9" s="17" cm="1">
+      <c r="CC9" s="17">
         <f t="array" ref="CC9">SUM(IF(ROUND(CA16:CA267,0)&lt;&gt;ROUND(CC16:CC267,0), 1, 0)) + COUNTBLANK(CA16:CA267) + COUNTIF(CA16:CA267, 0) - COUNTBLANK(CC16:CC267) - COUNTIF(CC16:CC267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CD9" s="17" cm="1">
+      <c r="CD9" s="17">
         <f t="array" ref="CD9">SUM(IF(ROUND(CA16:CA267,0)&lt;&gt;ROUND(CD16:CD267,0), 1, 0)) + COUNTBLANK(CA16:CA267) + COUNTIF(CA16:CA267, 0) - COUNTBLANK(CD16:CD267) - COUNTIF(CD16:CD267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CE9" s="17" cm="1">
+      <c r="CE9" s="17">
         <f t="array" ref="CE9">SUM(IF(ROUND(CA16:CA267,0)&lt;&gt;ROUND(CE16:CE267,0), 1, 0)) + COUNTBLANK(CA16:CA267) + COUNTIF(CA16:CA267, 0) - COUNTBLANK(CE16:CE267) - COUNTIF(CE16:CE267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CF9" s="17" cm="1">
+      <c r="CF9" s="17">
         <f t="array" ref="CF9">SUM(IF(ROUND(CA16:CA267,0)&lt;&gt;ROUND(CF16:CF267,0), 1, 0)) + COUNTBLANK(CA16:CA267) + COUNTIF(CA16:CA267, 0) - COUNTBLANK(CF16:CF267) - COUNTIF(CF16:CF267, 0)</f>
         <v>0</v>
       </c>
       <c r="CH9" s="17"/>
-      <c r="CI9" s="17" cm="1">
+      <c r="CI9" s="17">
         <f t="array" ref="CI9">SUM(IF(ROUND(CH16:CH267,0)&lt;&gt;ROUND(CI16:CI267,0), 1, 0)) + COUNTBLANK(CH16:CH267) + COUNTIF(CH16:CH267, 0) - COUNTBLANK(CI16:CI267) - COUNTIF(CI16:CI267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CJ9" s="17" cm="1">
+      <c r="CJ9" s="17">
         <f t="array" ref="CJ9">SUM(IF(ROUND(CH16:CH267,0)&lt;&gt;ROUND(CJ16:CJ267,0), 1, 0)) + COUNTBLANK(CH16:CH267) + COUNTIF(CH16:CH267, 0) - COUNTBLANK(CJ16:CJ267) - COUNTIF(CJ16:CJ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CK9" s="17" cm="1">
+      <c r="CK9" s="17">
         <f t="array" ref="CK9">SUM(IF(ROUND(CH16:CH267,0)&lt;&gt;ROUND(CK16:CK267,0), 1, 0)) + COUNTBLANK(CH16:CH267) + COUNTIF(CH16:CH267, 0) - COUNTBLANK(CK16:CK267) - COUNTIF(CK16:CK267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CL9" s="17" cm="1">
+      <c r="CL9" s="17">
         <f t="array" ref="CL9">SUM(IF(ROUND(CH16:CH267,0)&lt;&gt;ROUND(CL16:CL267,0), 1, 0)) + COUNTBLANK(CH16:CH267) + COUNTIF(CH16:CH267, 0) - COUNTBLANK(CL16:CL267) - COUNTIF(CL16:CL267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CM9" s="17" cm="1">
+      <c r="CM9" s="17">
         <f t="array" ref="CM9">SUM(IF(ROUND(CH16:CH267,0)&lt;&gt;ROUND(CM16:CM267,0), 1, 0)) + COUNTBLANK(CH16:CH267) + COUNTIF(CH16:CH267, 0) - COUNTBLANK(CM16:CM267) - COUNTIF(CM16:CM267, 0)</f>
         <v>0</v>
       </c>
       <c r="CO9" s="17"/>
-      <c r="CP9" s="17" cm="1">
+      <c r="CP9" s="17">
         <f t="array" ref="CP9">SUM(IF(ROUND(CO16:CO267,0)&lt;&gt;ROUND(CP16:CP267,0), 1, 0)) + COUNTBLANK(CO16:CO267) + COUNTIF(CO16:CO267, 0) - COUNTBLANK(CP16:CP267) - COUNTIF(CP16:CP267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CQ9" s="17" cm="1">
+      <c r="CQ9" s="17">
         <f t="array" ref="CQ9">SUM(IF(ROUND(CO16:CO267,0)&lt;&gt;ROUND(CQ16:CQ267,0), 1, 0)) + COUNTBLANK(CO16:CO267) + COUNTIF(CO16:CO267, 0) - COUNTBLANK(CQ16:CQ267) - COUNTIF(CQ16:CQ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CR9" s="17" cm="1">
+      <c r="CR9" s="17">
         <f t="array" ref="CR9">SUM(IF(ROUND(CO16:CO267,0)&lt;&gt;ROUND(CR16:CR267,0), 1, 0)) + COUNTBLANK(CO16:CO267) + COUNTIF(CO16:CO267, 0) - COUNTBLANK(CR16:CR267) - COUNTIF(CR16:CR267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CS9" s="17" cm="1">
+      <c r="CS9" s="17">
         <f t="array" ref="CS9">SUM(IF(ROUND(CO16:CO267,0)&lt;&gt;ROUND(CS16:CS267,0), 1, 0)) + COUNTBLANK(CO16:CO267) + COUNTIF(CO16:CO267, 0) - COUNTBLANK(CS16:CS267) - COUNTIF(CS16:CS267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CT9" s="17" cm="1">
+      <c r="CT9" s="17">
         <f t="array" ref="CT9">SUM(IF(ROUND(CO16:CO267,0)&lt;&gt;ROUND(CT16:CT267,0), 1, 0)) + COUNTBLANK(CO16:CO267) + COUNTIF(CO16:CO267, 0) - COUNTBLANK(CT16:CT267) - COUNTIF(CT16:CT267, 0)</f>
         <v>0</v>
       </c>
       <c r="CV9" s="17"/>
-      <c r="CW9" s="17" cm="1">
+      <c r="CW9" s="17">
         <f t="array" ref="CW9">SUM(IF(ROUND(CV16:CV267,0)&lt;&gt;ROUND(CW16:CW267,0), 1, 0)) + COUNTBLANK(CV16:CV267) + COUNTIF(CV16:CV267, 0) - COUNTBLANK(CW16:CW267) - COUNTIF(CW16:CW267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CX9" s="17" cm="1">
+      <c r="CX9" s="17">
         <f t="array" ref="CX9">SUM(IF(ROUND(CV16:CV267,0)&lt;&gt;ROUND(CX16:CX267,0), 1, 0)) + COUNTBLANK(CV16:CV267) + COUNTIF(CV16:CV267, 0) - COUNTBLANK(CX16:CX267) - COUNTIF(CX16:CX267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CY9" s="17" cm="1">
+      <c r="CY9" s="17">
         <f t="array" ref="CY9">SUM(IF(ROUND(CV16:CV267,0)&lt;&gt;ROUND(CY16:CY267,0), 1, 0)) + COUNTBLANK(CV16:CV267) + COUNTIF(CV16:CV267, 0) - COUNTBLANK(CY16:CY267) - COUNTIF(CY16:CY267, 0)</f>
         <v>0</v>
       </c>
-      <c r="CZ9" s="17" cm="1">
+      <c r="CZ9" s="17">
         <f t="array" ref="CZ9">SUM(IF(ROUND(CV16:CV267,0)&lt;&gt;ROUND(CZ16:CZ267,0), 1, 0)) + COUNTBLANK(CV16:CV267) + COUNTIF(CV16:CV267, 0) - COUNTBLANK(CZ16:CZ267) - COUNTIF(CZ16:CZ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DA9" s="17" cm="1">
+      <c r="DA9" s="17">
         <f t="array" ref="DA9">SUM(IF(ROUND(CV16:CV267,0)&lt;&gt;ROUND(DA16:DA267,0), 1, 0)) + COUNTBLANK(CV16:CV267) + COUNTIF(CV16:CV267, 0) - COUNTBLANK(DA16:DA267) - COUNTIF(DA16:DA267, 0)</f>
         <v>0</v>
       </c>
       <c r="DC9" s="17"/>
-      <c r="DD9" s="17" cm="1">
-        <f t="array" ref="DD9">SUM(IF(ROUND(DC16:DC267,0)&lt;&gt;ROUND(DD16:DD267,0), 1, 0)) + COUNTBLANK(DC16:DC267) + COUNTIF(DC16:DC267, 0) - COUNTBLANK(DD16:DD267) - COUNTIF(DD16:DD267, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="DE9" s="17" cm="1">
-        <f t="array" ref="DE9">SUM(IF(ROUND(DC16:DC267,0)&lt;&gt;ROUND(DE16:DE267,0), 1, 0)) + COUNTBLANK(DC16:DC267) + COUNTIF(DC16:DC267, 0) - COUNTBLANK(DE16:DE267) - COUNTIF(DE16:DE267, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="DF9" s="17" cm="1">
-        <f t="array" ref="DF9">SUM(IF(ROUND(DC16:DC267,0)&lt;&gt;ROUND(DF16:DF267,0), 1, 0)) + COUNTBLANK(DC16:DC267) + COUNTIF(DC16:DC267, 0) - COUNTBLANK(DF16:DF267) - COUNTIF(DF16:DF267, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="DG9" s="17" cm="1">
-        <f t="array" ref="DG9">SUM(IF(ROUND(DC16:DC267,0)&lt;&gt;ROUND(DG16:DG267,0), 1, 0)) + COUNTBLANK(DC16:DC267) + COUNTIF(DC16:DC267, 0) - COUNTBLANK(DG16:DG267) - COUNTIF(DG16:DG267, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="DH9" s="17" cm="1">
-        <f t="array" ref="DH9">SUM(IF(ROUND(DC16:DC267,0)&lt;&gt;ROUND(DH16:DH267,0), 1, 0)) + COUNTBLANK(DC16:DC267) + COUNTIF(DC16:DC267, 0) - COUNTBLANK(DH16:DH267) - COUNTIF(DH16:DH267, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="DD9" s="17"/>
+      <c r="DE9" s="17"/>
+      <c r="DF9" s="17"/>
+      <c r="DG9" s="17"/>
+      <c r="DH9" s="17"/>
       <c r="DJ9" s="17"/>
-      <c r="DK9" s="17" cm="1">
+      <c r="DK9" s="17">
         <f t="array" ref="DK9">SUM(IF(ROUND(DJ16:DJ267,0)&lt;&gt;ROUND(DK16:DK267,0), 1, 0)) + COUNTBLANK(DJ16:DJ267) + COUNTIF(DJ16:DJ267, 0) - COUNTBLANK(DK16:DK267) - COUNTIF(DK16:DK267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DL9" s="17" cm="1">
+      <c r="DL9" s="17">
         <f t="array" ref="DL9">SUM(IF(ROUND(DJ16:DJ267,0)&lt;&gt;ROUND(DL16:DL267,0), 1, 0)) + COUNTBLANK(DJ16:DJ267) + COUNTIF(DJ16:DJ267, 0) - COUNTBLANK(DL16:DL267) - COUNTIF(DL16:DL267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DM9" s="17" cm="1">
+      <c r="DM9" s="17">
         <f t="array" ref="DM9">SUM(IF(ROUND(DJ16:DJ267,0)&lt;&gt;ROUND(DM16:DM267,0), 1, 0)) + COUNTBLANK(DJ16:DJ267) + COUNTIF(DJ16:DJ267, 0) - COUNTBLANK(DM16:DM267) - COUNTIF(DM16:DM267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DN9" s="17" cm="1">
+      <c r="DN9" s="17">
         <f t="array" ref="DN9">SUM(IF(ROUND(DJ16:DJ267,0)&lt;&gt;ROUND(DN16:DN267,0), 1, 0)) + COUNTBLANK(DJ16:DJ267) + COUNTIF(DJ16:DJ267, 0) - COUNTBLANK(DN16:DN267) - COUNTIF(DN16:DN267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DO9" s="17" cm="1">
+      <c r="DO9" s="17">
         <f t="array" ref="DO9">SUM(IF(ROUND(DJ16:DJ267,0)&lt;&gt;ROUND(DO16:DO267,0), 1, 0)) + COUNTBLANK(DJ16:DJ267) + COUNTIF(DJ16:DJ267, 0) - COUNTBLANK(DO16:DO267) - COUNTIF(DO16:DO267, 0)</f>
         <v>0</v>
       </c>
       <c r="DQ9" s="17"/>
-      <c r="DR9" s="17" cm="1">
+      <c r="DR9" s="17">
         <f t="array" ref="DR9">SUM(IF(ROUND(DQ16:DQ267,0)&lt;&gt;ROUND(DR16:DR267,0), 1, 0)) + COUNTBLANK(DQ16:DQ267) + COUNTIF(DQ16:DQ267, 0) - COUNTBLANK(DR16:DR267) - COUNTIF(DR16:DR267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DS9" s="17" cm="1">
+      <c r="DS9" s="17">
         <f t="array" ref="DS9">SUM(IF(ROUND(DQ16:DQ267,0)&lt;&gt;ROUND(DS16:DS267,0), 1, 0)) + COUNTBLANK(DQ16:DQ267) + COUNTIF(DQ16:DQ267, 0) - COUNTBLANK(DS16:DS267) - COUNTIF(DS16:DS267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DT9" s="17" cm="1">
+      <c r="DT9" s="17">
         <f t="array" ref="DT9">SUM(IF(ROUND(DQ16:DQ267,0)&lt;&gt;ROUND(DT16:DT267,0), 1, 0)) + COUNTBLANK(DQ16:DQ267) + COUNTIF(DQ16:DQ267, 0) - COUNTBLANK(DT16:DT267) - COUNTIF(DT16:DT267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DU9" s="17" cm="1">
+      <c r="DU9" s="17">
         <f t="array" ref="DU9">SUM(IF(ROUND(DQ16:DQ267,0)&lt;&gt;ROUND(DU16:DU267,0), 1, 0)) + COUNTBLANK(DQ16:DQ267) + COUNTIF(DQ16:DQ267, 0) - COUNTBLANK(DU16:DU267) - COUNTIF(DU16:DU267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DV9" s="17" cm="1">
+      <c r="DV9" s="17">
         <f t="array" ref="DV9">SUM(IF(ROUND(DQ16:DQ267,0)&lt;&gt;ROUND(DV16:DV267,0), 1, 0)) + COUNTBLANK(DQ16:DQ267) + COUNTIF(DQ16:DQ267, 0) - COUNTBLANK(DV16:DV267) - COUNTIF(DV16:DV267, 0)</f>
         <v>0</v>
       </c>
       <c r="DX9" s="17"/>
-      <c r="DY9" s="17" cm="1">
+      <c r="DY9" s="17">
         <f t="array" ref="DY9">SUM(IF(ROUND(DX16:DX267,0)&lt;&gt;ROUND(DY16:DY267,0), 1, 0)) + COUNTBLANK(DX16:DX267) + COUNTIF(DX16:DX267, 0) - COUNTBLANK(DY16:DY267) - COUNTIF(DY16:DY267, 0)</f>
         <v>0</v>
       </c>
-      <c r="DZ9" s="17" cm="1">
+      <c r="DZ9" s="17">
         <f t="array" ref="DZ9">SUM(IF(ROUND(DX16:DX267,0)&lt;&gt;ROUND(DZ16:DZ267,0), 1, 0)) + COUNTBLANK(DX16:DX267) + COUNTIF(DX16:DX267, 0) - COUNTBLANK(DZ16:DZ267) - COUNTIF(DZ16:DZ267, 0)</f>
         <v>0</v>
       </c>
-      <c r="EA9" s="17" cm="1">
+      <c r="EA9" s="17">
         <f t="array" ref="EA9">SUM(IF(ROUND(DX16:DX267,0)&lt;&gt;ROUND(EA16:EA267,0), 1, 0)) + COUNTBLANK(DX16:DX267) + COUNTIF(DX16:DX267, 0) - COUNTBLANK(EA16:EA267) - COUNTIF(EA16:EA267, 0)</f>
         <v>0</v>
       </c>
-      <c r="EB9" s="17" cm="1">
+      <c r="EB9" s="17">
         <f t="array" ref="EB9">SUM(IF(ROUND(DX16:DX267,0)&lt;&gt;ROUND(EB16:EB267,0), 1, 0)) + COUNTBLANK(DX16:DX267) + COUNTIF(DX16:DX267, 0) - COUNTBLANK(EB16:EB267) - COUNTIF(EB16:EB267, 0)</f>
         <v>0</v>
       </c>
-      <c r="EC9" s="17" cm="1">
+      <c r="EC9" s="17">
         <f t="array" ref="EC9">SUM(IF(ROUND(DX16:DX267,0)&lt;&gt;ROUND(EC16:EC267,0), 1, 0)) + COUNTBLANK(DX16:DX267) + COUNTIF(DX16:DX267, 0) - COUNTBLANK(EC16:EC267) - COUNTIF(EC16:EC267, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:138" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="G10" s="44"/>
+      <c r="I10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="G10" s="56"/>
-      <c r="H10"/>
-      <c r="I10" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="45"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-      <c r="AN10"/>
-      <c r="AO10"/>
-      <c r="AP10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-      <c r="BF10"/>
-      <c r="BG10"/>
-      <c r="BH10"/>
-      <c r="BI10"/>
-      <c r="BJ10"/>
-      <c r="BK10"/>
-      <c r="BM10"/>
-      <c r="BN10"/>
-      <c r="BO10"/>
-      <c r="BP10"/>
-      <c r="BQ10"/>
-      <c r="BR10"/>
-      <c r="BT10"/>
-      <c r="BU10"/>
-      <c r="BV10"/>
-      <c r="BW10"/>
-      <c r="BX10"/>
-      <c r="BY10"/>
-      <c r="CA10"/>
-      <c r="CB10"/>
-      <c r="CC10"/>
-      <c r="CD10"/>
-      <c r="CE10"/>
-      <c r="CF10"/>
-      <c r="CH10"/>
-      <c r="CI10"/>
-      <c r="CJ10"/>
-      <c r="CK10"/>
-      <c r="CL10"/>
-      <c r="CM10"/>
-      <c r="CO10"/>
-      <c r="CP10"/>
-      <c r="CQ10"/>
-      <c r="CR10"/>
-      <c r="CS10"/>
-      <c r="CT10"/>
-      <c r="CV10"/>
-      <c r="CW10"/>
-      <c r="CX10"/>
-      <c r="CY10"/>
-      <c r="CZ10"/>
-      <c r="DA10"/>
-      <c r="DC10"/>
-      <c r="DD10"/>
-      <c r="DE10"/>
-      <c r="DF10"/>
-      <c r="DG10"/>
-      <c r="DH10"/>
-      <c r="DJ10"/>
-      <c r="DK10"/>
-      <c r="DL10"/>
-      <c r="DM10"/>
-      <c r="DN10"/>
-      <c r="DO10"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
-      <c r="B12" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="44"/>
-      <c r="I12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="Q12" s="58" t="s">
+      <c r="B12" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="X12" s="38" t="s">
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="17"/>
+      <c r="I12" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="40"/>
-      <c r="AE12" s="38" t="s">
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="17"/>
+      <c r="Q12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AF12" s="38"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="53"/>
+      <c r="X12" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="53"/>
+      <c r="AE12" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF12" s="53"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="37"/>
-      <c r="AK12" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="49"/>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="45"/>
-      <c r="AR12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="45"/>
-      <c r="AY12" s="44" t="s">
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="49"/>
-      <c r="BC12" s="45"/>
-      <c r="BF12" s="44" t="s">
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="37"/>
+      <c r="AS12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="45"/>
-      <c r="BM12" s="44" t="s">
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="37"/>
+      <c r="AY12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BN12" s="49"/>
-      <c r="BO12" s="49"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="45"/>
-      <c r="BT12" s="44" t="s">
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="37"/>
+      <c r="BF12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="BU12" s="49"/>
-      <c r="BV12" s="49"/>
-      <c r="BW12" s="49"/>
-      <c r="BX12" s="45"/>
-      <c r="CA12" s="44" t="s">
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
+      <c r="BJ12" s="37"/>
+      <c r="BM12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="CB12" s="49"/>
-      <c r="CC12" s="49"/>
-      <c r="CD12" s="49"/>
-      <c r="CE12" s="45"/>
-      <c r="CH12" s="44" t="s">
+      <c r="BN12" s="36"/>
+      <c r="BO12" s="36"/>
+      <c r="BP12" s="36"/>
+      <c r="BQ12" s="37"/>
+      <c r="BT12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="CI12" s="49"/>
-      <c r="CJ12" s="49"/>
-      <c r="CK12" s="49"/>
-      <c r="CL12" s="45"/>
-      <c r="CO12" s="44" t="s">
+      <c r="BU12" s="36"/>
+      <c r="BV12" s="36"/>
+      <c r="BW12" s="36"/>
+      <c r="BX12" s="37"/>
+      <c r="CA12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="CP12" s="49"/>
-      <c r="CQ12" s="49"/>
-      <c r="CR12" s="49"/>
-      <c r="CS12" s="45"/>
-      <c r="CV12" s="44" t="s">
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
+      <c r="CE12" s="37"/>
+      <c r="CH12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="CW12" s="49"/>
-      <c r="CX12" s="49"/>
-      <c r="CY12" s="49"/>
-      <c r="CZ12" s="45"/>
-      <c r="DC12" s="44" t="s">
+      <c r="CI12" s="36"/>
+      <c r="CJ12" s="36"/>
+      <c r="CK12" s="36"/>
+      <c r="CL12" s="37"/>
+      <c r="CO12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="DD12" s="49"/>
-      <c r="DE12" s="49"/>
-      <c r="DF12" s="49"/>
-      <c r="DG12" s="45"/>
-      <c r="DJ12" s="44" t="s">
+      <c r="CP12" s="36"/>
+      <c r="CQ12" s="36"/>
+      <c r="CR12" s="36"/>
+      <c r="CS12" s="37"/>
+      <c r="CV12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="DK12" s="49"/>
-      <c r="DL12" s="49"/>
-      <c r="DM12" s="49"/>
-      <c r="DN12" s="45"/>
-      <c r="DQ12" s="44" t="s">
+      <c r="CW12" s="36"/>
+      <c r="CX12" s="36"/>
+      <c r="CY12" s="36"/>
+      <c r="CZ12" s="37"/>
+      <c r="DC12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="DX12" s="44" t="s">
+      <c r="DD12" s="36"/>
+      <c r="DE12" s="36"/>
+      <c r="DF12" s="36"/>
+      <c r="DG12" s="37"/>
+      <c r="DJ12" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="DK12" s="36"/>
+      <c r="DL12" s="36"/>
+      <c r="DM12" s="36"/>
+      <c r="DN12" s="37"/>
+      <c r="DQ12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="DX12" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:138" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="51"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="50"/>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="50"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
-      <c r="BT13" s="50"/>
-      <c r="BU13" s="50"/>
-      <c r="BV13" s="50"/>
-      <c r="BW13" s="50"/>
-      <c r="BX13" s="50"/>
-      <c r="CA13" s="50"/>
-      <c r="CB13" s="50"/>
-      <c r="CC13" s="50"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="50"/>
-      <c r="CH13" s="50"/>
-      <c r="CI13" s="50"/>
-      <c r="CJ13" s="50"/>
-      <c r="CK13" s="50"/>
-      <c r="CL13" s="50"/>
-      <c r="CO13" s="50"/>
-      <c r="CP13" s="50"/>
-      <c r="CQ13" s="50"/>
-      <c r="CR13" s="50"/>
-      <c r="CS13" s="50"/>
-      <c r="CV13" s="50"/>
-      <c r="CW13" s="50"/>
-      <c r="CX13" s="50"/>
-      <c r="CY13" s="50"/>
-      <c r="CZ13" s="50"/>
-      <c r="DC13" s="50"/>
-      <c r="DD13" s="50"/>
-      <c r="DE13" s="50"/>
-      <c r="DF13" s="50"/>
-      <c r="DG13" s="50"/>
-      <c r="DJ13" s="50"/>
-      <c r="DK13" s="50"/>
-      <c r="DL13" s="50"/>
-      <c r="DM13" s="50"/>
-      <c r="DN13" s="50"/>
-      <c r="DQ13" s="50"/>
-      <c r="DR13" s="50"/>
-      <c r="DS13" s="50"/>
-      <c r="DT13" s="50"/>
-      <c r="DU13" s="50"/>
-      <c r="DX13" s="50"/>
-      <c r="DY13" s="50"/>
-      <c r="DZ13" s="50"/>
-      <c r="EA13" s="50"/>
-      <c r="EB13" s="50"/>
+    <row r="13" spans="1:138" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="46"/>
+      <c r="U13" s="47"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="37"/>
+      <c r="BG13" s="46"/>
+      <c r="BH13" s="47"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO13" s="47"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="41"/>
+      <c r="BR13" s="41"/>
+      <c r="BU13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="CB13" s="41"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="41"/>
+      <c r="CE13" s="41"/>
+      <c r="CF13" s="41"/>
+      <c r="CI13" s="41"/>
+      <c r="CJ13" s="41"/>
+      <c r="CK13" s="41"/>
+      <c r="CL13" s="41"/>
+      <c r="CM13" s="41"/>
+      <c r="CP13" s="41"/>
+      <c r="CQ13" s="41"/>
+      <c r="CR13" s="41"/>
+      <c r="CS13" s="41"/>
+      <c r="CT13" s="41"/>
+      <c r="CW13" s="41"/>
+      <c r="CX13" s="41"/>
+      <c r="CY13" s="41"/>
+      <c r="CZ13" s="41"/>
+      <c r="DA13" s="41"/>
+      <c r="DD13" s="41"/>
+      <c r="DE13" s="41"/>
+      <c r="DF13" s="41"/>
+      <c r="DG13" s="41"/>
+      <c r="DH13" s="41"/>
+      <c r="DK13" s="41"/>
+      <c r="DL13" s="41"/>
+      <c r="DM13" s="41"/>
+      <c r="DN13" s="41"/>
+      <c r="DO13" s="41"/>
+      <c r="DR13" s="41"/>
+      <c r="DS13" s="41"/>
+      <c r="DT13" s="41"/>
+      <c r="DU13" s="41"/>
+      <c r="DV13" s="49"/>
+      <c r="DY13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="DZ13" s="41"/>
+      <c r="EA13" s="41"/>
+      <c r="EB13" s="41"/>
     </row>
     <row r="14" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A14" s="29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
@@ -2138,7 +2081,7 @@
       <c r="DN14" s="5"/>
       <c r="DO14" s="5"/>
       <c r="DP14" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="DQ14" s="5"/>
       <c r="DR14" s="5"/>
@@ -2154,7 +2097,7 @@
       <c r="EB14" s="5"/>
       <c r="EC14" s="5"/>
       <c r="ED14" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="EE14" s="5"/>
       <c r="EF14" s="5"/>
@@ -2162,416 +2105,416 @@
     </row>
     <row r="15" spans="1:138" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="X15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="BM15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="BR15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BS15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="BT15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="BU15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="CA15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="CH15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="CI15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="CJ15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>34</v>
+      <c r="CO15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>35</v>
+      <c r="CP15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="J15" s="26" t="s">
-        <v>58</v>
+      <c r="CQ15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="K15" s="26" t="s">
-        <v>59</v>
+      <c r="CR15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="L15" s="26" t="s">
-        <v>60</v>
+      <c r="CS15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="M15" s="26" t="s">
-        <v>61</v>
+      <c r="CT15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="N15" s="30" t="s">
-        <v>62</v>
+      <c r="CU15" s="25" t="s">
+        <v>63</v>
       </c>
-      <c r="O15" s="33" t="s">
-        <v>36</v>
+      <c r="CV15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>35</v>
+      <c r="CW15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="Q15" s="26" t="s">
-        <v>58</v>
+      <c r="CX15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="R15" s="26" t="s">
-        <v>59</v>
+      <c r="CY15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="S15" s="26" t="s">
-        <v>60</v>
+      <c r="CZ15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="T15" s="26" t="s">
-        <v>61</v>
+      <c r="DA15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="U15" s="30" t="s">
-        <v>62</v>
+      <c r="DB15" s="25" t="s">
+        <v>64</v>
       </c>
-      <c r="V15" s="25" t="s">
-        <v>37</v>
+      <c r="DC15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="W15" s="26" t="s">
-        <v>35</v>
+      <c r="DD15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="X15" s="26" t="s">
-        <v>58</v>
+      <c r="DE15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="Y15" s="26" t="s">
-        <v>59</v>
+      <c r="DF15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="Z15" s="26" t="s">
-        <v>60</v>
+      <c r="DG15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="AA15" s="26" t="s">
-        <v>61</v>
+      <c r="DH15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="AB15" s="30" t="s">
-        <v>62</v>
+      <c r="DI15" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="AC15" s="25" t="s">
-        <v>38</v>
+      <c r="DJ15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="AD15" s="26" t="s">
-        <v>35</v>
+      <c r="DK15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="AE15" s="26" t="s">
-        <v>58</v>
+      <c r="DL15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="AF15" s="26" t="s">
-        <v>59</v>
+      <c r="DM15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="AG15" s="26" t="s">
-        <v>60</v>
+      <c r="DN15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="AH15" s="26" t="s">
-        <v>61</v>
+      <c r="DO15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="AI15" s="30" t="s">
-        <v>62</v>
+      <c r="DP15" s="4" t="s">
+        <v>66</v>
       </c>
-      <c r="AJ15" s="25" t="s">
-        <v>39</v>
+      <c r="DQ15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="AK15" s="26" t="s">
-        <v>35</v>
+      <c r="DR15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="AL15" s="26" t="s">
-        <v>58</v>
+      <c r="DS15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="AM15" s="26" t="s">
-        <v>59</v>
+      <c r="DT15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="AN15" s="26" t="s">
-        <v>60</v>
+      <c r="DU15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="AO15" s="26" t="s">
-        <v>61</v>
+      <c r="DV15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="AP15" s="30" t="s">
-        <v>62</v>
+      <c r="DW15" s="4" t="s">
+        <v>67</v>
       </c>
-      <c r="AQ15" s="25" t="s">
-        <v>40</v>
+      <c r="DX15" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="AR15" s="26" t="s">
-        <v>35</v>
+      <c r="DY15" s="26" t="s">
+        <v>44</v>
       </c>
-      <c r="AS15" s="26" t="s">
-        <v>58</v>
+      <c r="DZ15" s="26" t="s">
+        <v>45</v>
       </c>
-      <c r="AT15" s="26" t="s">
-        <v>59</v>
+      <c r="EA15" s="26" t="s">
+        <v>46</v>
       </c>
-      <c r="AU15" s="26" t="s">
-        <v>60</v>
+      <c r="EB15" s="26" t="s">
+        <v>47</v>
       </c>
-      <c r="AV15" s="26" t="s">
-        <v>61</v>
+      <c r="EC15" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="AW15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="BE15" s="25" t="s">
+      <c r="ED15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BF15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="BO15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="BQ15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="BT15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ15" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="CA15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="CC15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CD15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="CE15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="CF15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="CH15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="CJ15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="CL15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="CM15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="CN15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="CO15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CP15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="CQ15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CR15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="CS15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="CU15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="CV15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="CW15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="CX15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="CY15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="CZ15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="DA15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="DB15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="DC15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DD15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="DE15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="DF15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="DG15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="DH15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="DI15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="DJ15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DK15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="DL15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="DM15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="DN15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="DO15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="DP15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="DQ15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DR15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="DS15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="DT15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="DU15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="DV15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="DW15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="DX15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="DY15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="DZ15" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="EA15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="EB15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="EC15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="ED15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="EE15" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="EF15" s="4"/>
       <c r="EG15" s="4"/>
     </row>
     <row r="16" spans="1:138" x14ac:dyDescent="0.45">
       <c r="A16" s="27" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -2580,7 +2523,7 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="31" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="34"/>
@@ -2589,7 +2532,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -2695,7 +2638,7 @@
       <c r="EB16" s="6"/>
       <c r="EC16" s="6"/>
       <c r="ED16" s="11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="EE16" s="12"/>
       <c r="EF16" s="1"/>
@@ -2922,7 +2865,7 @@
       <c r="CZ18" s="35"/>
       <c r="DA18" s="35"/>
       <c r="DC18" s="6"/>
-      <c r="DD18" s="10"/>
+      <c r="DD18" s="6"/>
       <c r="DE18" s="10"/>
       <c r="DF18" s="10"/>
       <c r="DG18" s="6"/>
@@ -3325,7 +3268,7 @@
       <c r="EB21" s="6"/>
       <c r="EC21" s="6"/>
       <c r="ED21" s="3"/>
-      <c r="EE21" s="12"/>
+      <c r="EE21" s="51"/>
       <c r="EF21" s="1"/>
       <c r="EG21" s="1"/>
       <c r="EH21" s="1"/>
@@ -3451,7 +3394,7 @@
       <c r="EB22" s="6"/>
       <c r="EC22" s="6"/>
       <c r="ED22" s="3"/>
-      <c r="EE22" s="12"/>
+      <c r="EE22" s="51"/>
       <c r="EF22" s="1"/>
       <c r="EG22" s="1"/>
       <c r="EH22" s="1"/>
@@ -3589,7 +3532,7 @@
       <c r="EB23" s="6"/>
       <c r="EC23" s="6"/>
       <c r="ED23" s="3"/>
-      <c r="EE23" s="12"/>
+      <c r="EE23" s="51"/>
       <c r="EF23" s="1"/>
       <c r="EG23" s="1"/>
       <c r="EH23" s="1"/>
@@ -3715,7 +3658,7 @@
       <c r="EB24" s="6"/>
       <c r="EC24" s="6"/>
       <c r="ED24" s="3"/>
-      <c r="EE24" s="12"/>
+      <c r="EE24" s="51"/>
       <c r="EF24" s="1"/>
       <c r="EG24" s="1"/>
       <c r="EH24" s="1"/>
@@ -3841,7 +3784,7 @@
       <c r="EB25" s="6"/>
       <c r="EC25" s="6"/>
       <c r="ED25" s="3"/>
-      <c r="EE25" s="12"/>
+      <c r="EE25" s="51"/>
       <c r="EF25" s="1"/>
       <c r="EG25" s="1"/>
       <c r="EH25" s="1"/>
@@ -3967,7 +3910,7 @@
       <c r="EB26" s="6"/>
       <c r="EC26" s="6"/>
       <c r="ED26" s="3"/>
-      <c r="EE26" s="12"/>
+      <c r="EE26" s="51"/>
       <c r="EF26" s="1"/>
       <c r="EG26" s="1"/>
       <c r="EH26" s="1"/>
@@ -4092,7 +4035,7 @@
       <c r="EA27" s="10"/>
       <c r="EB27" s="6"/>
       <c r="EC27" s="6"/>
-      <c r="EE27" s="12"/>
+      <c r="EE27" s="51"/>
       <c r="EF27" s="1"/>
       <c r="EG27" s="1"/>
       <c r="EH27" s="1"/>
@@ -4217,7 +4160,7 @@
       <c r="EA28" s="10"/>
       <c r="EB28" s="6"/>
       <c r="EC28" s="6"/>
-      <c r="EE28" s="12"/>
+      <c r="EE28" s="51"/>
       <c r="EF28" s="1"/>
       <c r="EG28" s="1"/>
       <c r="EH28" s="1"/>
@@ -4342,7 +4285,7 @@
       <c r="EA29" s="10"/>
       <c r="EB29" s="6"/>
       <c r="EC29" s="6"/>
-      <c r="EE29" s="12"/>
+      <c r="EE29" s="51"/>
       <c r="EF29" s="1"/>
       <c r="EG29" s="1"/>
       <c r="EH29" s="1"/>
@@ -34098,109 +34041,112 @@
       <c r="EH267" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J6:L6"/>
+  <mergeCells count="8">
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16:C267 J16:L267 R16:S267 Y16:Z267 AF16:AG267">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>AND(NOT(ISBLANK(C16)), ROUND(C16, 0) &lt;&gt; ROUND(B16, 0))</formula>
+  <conditionalFormatting sqref="C16:C267 G16:G267">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>AND(NOT(ISBLANK(C16)), ROUND(C16, 0) &lt;&gt; ROUND($B16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16:Q267">
-    <cfRule type="expression" dxfId="16" priority="1">
-      <formula>AND(NOT(ISBLANK(Q16)), ROUND(Q16, 0) &lt;&gt; ROUND(P16, 0))</formula>
+  <conditionalFormatting sqref="J16:N267">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>AND(NOT(ISBLANK(J16)), ROUND(J16, 0) &lt;&gt; ROUND($I16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16:X267">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>AND(NOT(ISBLANK(X16)), ROUND(X16, 0) &lt;&gt; ROUND(W16, 0))</formula>
+  <conditionalFormatting sqref="Q16:U267">
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>AND(NOT(ISBLANK(Q16)), ROUND(Q16, 0) &lt;&gt; ROUND($P16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AE267">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>AND(NOT(ISBLANK(AE16)), ROUND(AE16, 0) &lt;&gt; ROUND(AD16, 0))</formula>
+  <conditionalFormatting sqref="X16:AB267">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>AND(NOT(ISBLANK(X16)), ROUND(X16, 0) &lt;&gt; ROUND($W16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL16:AN267">
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>AND(NOT(ISBLANK(AL16)), ROUND(AL16, 0) &lt;&gt; ROUND(AK16, 0))</formula>
+  <conditionalFormatting sqref="AE16:AI267">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>AND(NOT(ISBLANK(AE16)), ROUND(AE16, 0) &lt;&gt; ROUND($AD16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS16:AU267">
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>AND(NOT(ISBLANK(AS16)), ROUND(AS16, 0) &lt;&gt; ROUND(AR16, 0))</formula>
+  <conditionalFormatting sqref="AL16:AP267">
+    <cfRule type="expression" dxfId="13" priority="16">
+      <formula>AND(NOT(ISBLANK(AL16)), ROUND(AL16, 0) &lt;&gt; ROUND($AK16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ16:BB267">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>AND(NOT(ISBLANK(AZ16)), ROUND(AZ16, 0) &lt;&gt; ROUND(AY16, 0))</formula>
+  <conditionalFormatting sqref="AS16:AW267">
+    <cfRule type="expression" dxfId="12" priority="15">
+      <formula>AND(NOT(ISBLANK(AS16)), ROUND(AS16, 0) &lt;&gt; ROUND($AR16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG16:BI267">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>AND(NOT(ISBLANK(BG16)), ROUND(BG16, 0) &lt;&gt; ROUND(BF16, 0))</formula>
+  <conditionalFormatting sqref="AZ16:BD267">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>AND(NOT(ISBLANK(AZ16)), ROUND(AZ16, 0) &lt;&gt; ROUND($AY16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN16:BP267">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>AND(NOT(ISBLANK(BN16)), ROUND(BN16, 0) &lt;&gt; ROUND(BM16, 0))</formula>
+  <conditionalFormatting sqref="BG16:BK267">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>AND(NOT(ISBLANK(BG16)), ROUND(BG16, 0) &lt;&gt; ROUND($BF16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU16:BW267">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>AND(NOT(ISBLANK(BU16)), ROUND(BU16, 0) &lt;&gt; ROUND(BT16, 0))</formula>
+  <conditionalFormatting sqref="BN16:BR267">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND(NOT(ISBLANK(BN16)), ROUND(BN16, 0) &lt;&gt; ROUND($BM16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB16:CD267">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>AND(NOT(ISBLANK(CB16)), ROUND(CB16, 0) &lt;&gt; ROUND(CA16, 0))</formula>
+  <conditionalFormatting sqref="BU16:BY267">
+    <cfRule type="expression" dxfId="8" priority="11">
+      <formula>AND(NOT(ISBLANK(BU16)), ROUND(BU16, 0) &lt;&gt; ROUND($BT16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI16:CK267">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>AND(NOT(ISBLANK(CI16)), ROUND(CI16, 0) &lt;&gt; ROUND(CH16, 0))</formula>
+  <conditionalFormatting sqref="CB16:CF267">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(NOT(ISBLANK(CB16)), ROUND(CB16, 0) &lt;&gt; ROUND($CA16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP16:CR267">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(NOT(ISBLANK(CP16)), ROUND(CP16, 0) &lt;&gt; ROUND(CO16, 0))</formula>
+  <conditionalFormatting sqref="CI16:CM267">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND(NOT(ISBLANK(CI16)), ROUND(CI16, 0) &lt;&gt; ROUND($CH16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW16:CY267">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(NOT(ISBLANK(CW16)), ROUND(CW16, 0) &lt;&gt; ROUND(CV16, 0))</formula>
+  <conditionalFormatting sqref="CP16:CT267">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(NOT(ISBLANK(CP16)), ROUND(CP16, 0) &lt;&gt; ROUND($CO16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD16:DF267">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>AND(NOT(ISBLANK(DD16)), ROUND(DD16, 0) &lt;&gt; ROUND(DC16, 0))</formula>
+  <conditionalFormatting sqref="CW16:DA267">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>AND(NOT(ISBLANK(CW16)), ROUND(CW16, 0) &lt;&gt; ROUND($CV16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK16:DM267">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(NOT(ISBLANK(DK16)), ROUND(DK16, 0) &lt;&gt; ROUND(DJ16, 0))</formula>
+  <conditionalFormatting sqref="DD16:DF17 DE18:DF18 DD19:DF267">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND(NOT(ISBLANK(DD16)), ROUND(DD16, 0) &lt;&gt; ROUND($DC16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DR16:DT267">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(NOT(ISBLANK(DR16)), ROUND(DR16, 0) &lt;&gt; ROUND(DQ16, 0))</formula>
+  <conditionalFormatting sqref="DK16:DO267">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(NOT(ISBLANK(DK16)), ROUND(DK16, 0) &lt;&gt; ROUND($DJ16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DY16:EA267">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND(NOT(ISBLANK(DY16)), ROUND(DY16, 0) &lt;&gt; ROUND(DX16, 0))</formula>
+  <conditionalFormatting sqref="DR16:DV267">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(NOT(ISBLANK(DR16)), ROUND(DR16, 0) &lt;&gt; ROUND($DQ16, 0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DY16:EC267">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>AND(NOT(ISBLANK(DY16)), ROUND(DY16, 0) &lt;&gt; ROUND($DX16, 0))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>